--- a/data/ToyModel.xlsx
+++ b/data/ToyModel.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmlawson/github/transboundary_life_history/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{128EC5D1-187A-B146-BE4A-C6E29BFCA999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A62518-DCF5-6D48-AC54-A8D1D100B4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38840" yWindow="500" windowWidth="25600" windowHeight="19980" xr2:uid="{8F09F8A9-540D-E440-A29E-536394C36816}"/>
+    <workbookView xWindow="6400" yWindow="2260" windowWidth="25600" windowHeight="19980" xr2:uid="{8F09F8A9-540D-E440-A29E-536394C36816}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>x_a</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>b_t1</t>
+  </si>
+  <si>
+    <t>diff_a</t>
+  </si>
+  <si>
+    <t>diff_b</t>
   </si>
 </sst>
 </file>
@@ -480,15 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1032CD-C2E8-F243-A1E3-DCA74D552D4C}">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="Q79" sqref="Q79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,8 +531,14 @@
       <c r="N1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -571,8 +583,16 @@
         <f>J2+L2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <f>M2-E2</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>N2-F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -595,11 +615,11 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="2">$B$22*((G3*$B$17)+(H3*$B$16))</f>
-        <v>0.7128000000000001</v>
+        <v>1.2830400000000002</v>
       </c>
       <c r="J3">
         <f>$B$23*((H3*$B$18)+(G3*$B$15))</f>
-        <v>0.7128000000000001</v>
+        <v>0.14256000000000002</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K66" si="3">($B$20*(E3*$B$13))+($B$21*(F3*$B$12))</f>
@@ -611,14 +631,22 @@
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M66" si="5">I3+K3</f>
-        <v>1.5128000000000004</v>
+        <v>2.0830400000000004</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="6">J3+L3</f>
-        <v>1.5128000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.94256000000000018</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="7">M3-E3</f>
+        <v>1.0830400000000004</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="8">N3-F3</f>
+        <v>-5.7439999999999825E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -641,11 +669,11 @@
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>1.4112000000000002</v>
+        <v>2.5401600000000002</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J67" si="7">$B$23*((H4*$B$18)+(G4*$B$15))</f>
-        <v>1.4112000000000002</v>
+        <f t="shared" ref="J4:J67" si="9">$B$23*((H4*$B$18)+(G4*$B$15))</f>
+        <v>0.28224000000000005</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
@@ -657,14 +685,22 @@
       </c>
       <c r="M4">
         <f t="shared" si="5"/>
-        <v>3.0112000000000005</v>
+        <v>4.1401600000000007</v>
       </c>
       <c r="N4">
         <f t="shared" si="6"/>
-        <v>3.0112000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.8822400000000004</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="7"/>
+        <v>2.1401600000000007</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="8"/>
+        <v>-0.11775999999999964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E5">
         <v>3</v>
       </c>
@@ -681,11 +717,11 @@
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>2.0952000000000002</v>
+        <v>3.7713600000000005</v>
       </c>
       <c r="J5">
-        <f t="shared" si="7"/>
-        <v>2.0952000000000002</v>
+        <f t="shared" si="9"/>
+        <v>0.41904000000000008</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
@@ -697,14 +733,22 @@
       </c>
       <c r="M5">
         <f t="shared" si="5"/>
-        <v>4.4952000000000005</v>
+        <v>6.1713600000000008</v>
       </c>
       <c r="N5">
         <f t="shared" si="6"/>
-        <v>4.4952000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2.8190400000000002</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>3.1713600000000008</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="8"/>
+        <v>-0.18095999999999979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -727,11 +771,11 @@
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>2.7648000000000001</v>
+        <v>4.9766400000000006</v>
       </c>
       <c r="J6">
-        <f t="shared" si="7"/>
-        <v>2.7648000000000001</v>
+        <f t="shared" si="9"/>
+        <v>0.55296000000000012</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
@@ -743,14 +787,22 @@
       </c>
       <c r="M6">
         <f t="shared" si="5"/>
-        <v>5.9648000000000003</v>
+        <v>8.1766400000000008</v>
       </c>
       <c r="N6">
         <f t="shared" si="6"/>
-        <v>5.9648000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>3.7529600000000007</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>4.1766400000000008</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="8"/>
+        <v>-0.24703999999999926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -773,11 +825,11 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>3.42</v>
+        <v>6.1559999999999997</v>
       </c>
       <c r="J7">
-        <f t="shared" si="7"/>
-        <v>3.42</v>
+        <f t="shared" si="9"/>
+        <v>0.68400000000000005</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
@@ -789,14 +841,22 @@
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>7.42</v>
+        <v>10.155999999999999</v>
       </c>
       <c r="N7">
         <f t="shared" si="6"/>
-        <v>7.42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>4.6840000000000002</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>5.1559999999999988</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="8"/>
+        <v>-0.31599999999999984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -819,11 +879,11 @@
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>4.0608000000000004</v>
+        <v>7.3094400000000013</v>
       </c>
       <c r="J8">
-        <f t="shared" si="7"/>
-        <v>4.0608000000000004</v>
+        <f t="shared" si="9"/>
+        <v>0.8121600000000001</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
@@ -835,14 +895,22 @@
       </c>
       <c r="M8">
         <f t="shared" si="5"/>
-        <v>8.8608000000000011</v>
+        <v>12.109440000000003</v>
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
-        <v>8.8608000000000011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>5.6121600000000011</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>6.1094400000000029</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="8"/>
+        <v>-0.38783999999999885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -865,11 +933,11 @@
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>4.6872000000000007</v>
+        <v>8.4369600000000009</v>
       </c>
       <c r="J9">
-        <f t="shared" si="7"/>
-        <v>4.6872000000000007</v>
+        <f t="shared" si="9"/>
+        <v>0.93744000000000005</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
@@ -881,14 +949,22 @@
       </c>
       <c r="M9">
         <f t="shared" si="5"/>
-        <v>10.287200000000002</v>
+        <v>14.036960000000001</v>
       </c>
       <c r="N9">
         <f t="shared" si="6"/>
-        <v>10.287200000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>6.5374400000000001</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>7.0369600000000005</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="8"/>
+        <v>-0.46255999999999986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E10">
         <v>8</v>
       </c>
@@ -905,11 +981,11 @@
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>5.2992000000000008</v>
+        <v>9.5385600000000021</v>
       </c>
       <c r="J10">
-        <f t="shared" si="7"/>
-        <v>5.2992000000000008</v>
+        <f t="shared" si="9"/>
+        <v>1.0598400000000001</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
@@ -921,14 +997,22 @@
       </c>
       <c r="M10">
         <f t="shared" si="5"/>
-        <v>11.699200000000001</v>
+        <v>15.938560000000003</v>
       </c>
       <c r="N10">
         <f t="shared" si="6"/>
-        <v>11.699200000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>7.4598400000000016</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>7.9385600000000025</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="8"/>
+        <v>-0.54015999999999842</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -951,11 +1035,11 @@
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>5.8968000000000016</v>
+        <v>10.614240000000002</v>
       </c>
       <c r="J11">
-        <f t="shared" si="7"/>
-        <v>5.8968000000000016</v>
+        <f t="shared" si="9"/>
+        <v>1.1793600000000002</v>
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
@@ -967,14 +1051,22 @@
       </c>
       <c r="M11">
         <f t="shared" si="5"/>
-        <v>13.096800000000002</v>
+        <v>17.814240000000005</v>
       </c>
       <c r="N11">
         <f t="shared" si="6"/>
-        <v>13.096800000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>8.3793600000000019</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>8.8142400000000052</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="8"/>
+        <v>-0.62063999999999808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -997,11 +1089,11 @@
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>6.4800000000000013</v>
+        <v>11.664000000000001</v>
       </c>
       <c r="J12">
-        <f t="shared" si="7"/>
-        <v>6.4800000000000013</v>
+        <f t="shared" si="9"/>
+        <v>1.2960000000000003</v>
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
@@ -1013,14 +1105,22 @@
       </c>
       <c r="M12">
         <f t="shared" si="5"/>
-        <v>14.48</v>
+        <v>19.664000000000001</v>
       </c>
       <c r="N12">
         <f t="shared" si="6"/>
-        <v>14.48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9.2959999999999994</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>9.6640000000000015</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="8"/>
+        <v>-0.70400000000000063</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1044,11 +1144,11 @@
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>7.0488000000000008</v>
+        <v>12.687840000000001</v>
       </c>
       <c r="J13">
-        <f t="shared" si="7"/>
-        <v>7.0488000000000008</v>
+        <f t="shared" si="9"/>
+        <v>1.4097600000000003</v>
       </c>
       <c r="K13">
         <f t="shared" si="3"/>
@@ -1060,14 +1160,22 @@
       </c>
       <c r="M13">
         <f t="shared" si="5"/>
-        <v>15.848800000000001</v>
+        <v>21.487840000000002</v>
       </c>
       <c r="N13">
         <f t="shared" si="6"/>
-        <v>15.848800000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>10.209760000000001</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>10.487840000000002</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="8"/>
+        <v>-0.79023999999999894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1091,11 +1199,11 @@
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>7.603200000000002</v>
+        <v>13.685760000000004</v>
       </c>
       <c r="J14">
-        <f t="shared" si="7"/>
-        <v>7.603200000000002</v>
+        <f t="shared" si="9"/>
+        <v>1.5206400000000004</v>
       </c>
       <c r="K14">
         <f t="shared" si="3"/>
@@ -1107,14 +1215,22 @@
       </c>
       <c r="M14">
         <f t="shared" si="5"/>
-        <v>17.203200000000002</v>
+        <v>23.285760000000003</v>
       </c>
       <c r="N14">
         <f t="shared" si="6"/>
-        <v>17.203200000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>11.120640000000002</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>11.285760000000003</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="8"/>
+        <v>-0.87935999999999837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1137,11 +1253,11 @@
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>8.1432000000000002</v>
+        <v>14.657760000000001</v>
       </c>
       <c r="J15">
-        <f t="shared" si="7"/>
-        <v>8.1432000000000002</v>
+        <f t="shared" si="9"/>
+        <v>1.6286400000000001</v>
       </c>
       <c r="K15">
         <f t="shared" si="3"/>
@@ -1153,19 +1269,27 @@
       </c>
       <c r="M15">
         <f t="shared" si="5"/>
-        <v>18.543199999999999</v>
+        <v>25.057760000000002</v>
       </c>
       <c r="N15">
         <f t="shared" si="6"/>
-        <v>18.543199999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>12.028640000000001</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>12.057760000000002</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>-0.97135999999999889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>14</v>
@@ -1183,11 +1307,11 @@
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>8.6688000000000009</v>
+        <v>15.603840000000002</v>
       </c>
       <c r="J16">
-        <f t="shared" si="7"/>
-        <v>8.6688000000000009</v>
+        <f t="shared" si="9"/>
+        <v>1.7337600000000004</v>
       </c>
       <c r="K16">
         <f t="shared" si="3"/>
@@ -1199,14 +1323,22 @@
       </c>
       <c r="M16">
         <f t="shared" si="5"/>
-        <v>19.8688</v>
+        <v>26.803840000000001</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>19.8688</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>12.933760000000001</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>12.803840000000001</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>-1.0662399999999987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1230,11 +1362,11 @@
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>9.18</v>
+        <v>16.524000000000001</v>
       </c>
       <c r="J17">
-        <f t="shared" si="7"/>
-        <v>9.18</v>
+        <f t="shared" si="9"/>
+        <v>1.8360000000000001</v>
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
@@ -1246,20 +1378,28 @@
       </c>
       <c r="M17">
         <f t="shared" si="5"/>
-        <v>21.18</v>
+        <v>28.524000000000001</v>
       </c>
       <c r="N17">
         <f t="shared" si="6"/>
-        <v>21.18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>13.836000000000002</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>13.524000000000001</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>-1.1639999999999979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18">
         <f>1-B16</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>16</v>
@@ -1277,11 +1417,11 @@
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>9.6768000000000018</v>
+        <v>17.418240000000001</v>
       </c>
       <c r="J18">
-        <f t="shared" si="7"/>
-        <v>9.6768000000000018</v>
+        <f t="shared" si="9"/>
+        <v>1.9353600000000004</v>
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
@@ -1293,14 +1433,22 @@
       </c>
       <c r="M18">
         <f t="shared" si="5"/>
-        <v>22.476800000000004</v>
+        <v>30.218240000000002</v>
       </c>
       <c r="N18">
         <f t="shared" si="6"/>
-        <v>22.476800000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>14.735360000000004</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>14.218240000000002</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="8"/>
+        <v>-1.2646399999999964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E19">
         <v>17</v>
       </c>
@@ -1317,11 +1465,11 @@
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>10.1592</v>
+        <v>18.286560000000001</v>
       </c>
       <c r="J19">
-        <f t="shared" si="7"/>
-        <v>10.1592</v>
+        <f t="shared" si="9"/>
+        <v>2.0318400000000003</v>
       </c>
       <c r="K19">
         <f t="shared" si="3"/>
@@ -1333,14 +1481,22 @@
       </c>
       <c r="M19">
         <f t="shared" si="5"/>
-        <v>23.759200000000003</v>
+        <v>31.886560000000003</v>
       </c>
       <c r="N19">
         <f t="shared" si="6"/>
-        <v>23.759200000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>15.631840000000004</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>14.886560000000003</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="8"/>
+        <v>-1.368159999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1363,11 +1519,11 @@
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>10.627200000000004</v>
+        <v>19.128960000000003</v>
       </c>
       <c r="J20">
-        <f t="shared" si="7"/>
-        <v>10.627200000000004</v>
+        <f t="shared" si="9"/>
+        <v>2.1254400000000007</v>
       </c>
       <c r="K20">
         <f t="shared" si="3"/>
@@ -1379,14 +1535,22 @@
       </c>
       <c r="M20">
         <f t="shared" si="5"/>
-        <v>25.027200000000008</v>
+        <v>33.528960000000005</v>
       </c>
       <c r="N20">
         <f t="shared" si="6"/>
-        <v>25.027200000000008</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <v>16.525440000000003</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>15.528960000000005</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="8"/>
+        <v>-1.4745599999999968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1409,11 +1573,11 @@
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>11.080800000000004</v>
+        <v>19.945440000000005</v>
       </c>
       <c r="J21">
-        <f t="shared" si="7"/>
-        <v>11.080800000000004</v>
+        <f t="shared" si="9"/>
+        <v>2.2161600000000008</v>
       </c>
       <c r="K21">
         <f t="shared" si="3"/>
@@ -1425,14 +1589,22 @@
       </c>
       <c r="M21">
         <f t="shared" si="5"/>
-        <v>26.280800000000006</v>
+        <v>35.145440000000008</v>
       </c>
       <c r="N21">
         <f t="shared" si="6"/>
-        <v>26.280800000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>17.416160000000005</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>16.145440000000008</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="8"/>
+        <v>-1.583839999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1455,11 +1627,11 @@
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>11.520000000000003</v>
+        <v>20.736000000000004</v>
       </c>
       <c r="J22">
-        <f t="shared" si="7"/>
-        <v>11.520000000000003</v>
+        <f t="shared" si="9"/>
+        <v>2.3040000000000007</v>
       </c>
       <c r="K22">
         <f t="shared" si="3"/>
@@ -1471,14 +1643,22 @@
       </c>
       <c r="M22">
         <f t="shared" si="5"/>
-        <v>27.520000000000003</v>
+        <v>36.736000000000004</v>
       </c>
       <c r="N22">
         <f t="shared" si="6"/>
-        <v>27.520000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+        <v>18.304000000000002</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>16.736000000000004</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="8"/>
+        <v>-1.695999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1501,11 +1681,11 @@
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>11.944800000000004</v>
+        <v>21.500640000000004</v>
       </c>
       <c r="J23">
-        <f t="shared" si="7"/>
-        <v>11.944800000000004</v>
+        <f t="shared" si="9"/>
+        <v>2.3889600000000009</v>
       </c>
       <c r="K23">
         <f t="shared" si="3"/>
@@ -1517,14 +1697,22 @@
       </c>
       <c r="M23">
         <f t="shared" si="5"/>
-        <v>28.744800000000005</v>
+        <v>38.300640000000001</v>
       </c>
       <c r="N23">
         <f t="shared" si="6"/>
-        <v>28.744800000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <v>19.188960000000002</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>17.300640000000001</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="8"/>
+        <v>-1.8110399999999984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E24">
         <v>22</v>
       </c>
@@ -1541,11 +1729,11 @@
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>12.355200000000002</v>
+        <v>22.239360000000005</v>
       </c>
       <c r="J24">
-        <f t="shared" si="7"/>
-        <v>12.355200000000002</v>
+        <f t="shared" si="9"/>
+        <v>2.4710400000000003</v>
       </c>
       <c r="K24">
         <f t="shared" si="3"/>
@@ -1557,14 +1745,22 @@
       </c>
       <c r="M24">
         <f t="shared" si="5"/>
-        <v>29.955200000000005</v>
+        <v>39.839360000000006</v>
       </c>
       <c r="N24">
         <f t="shared" si="6"/>
-        <v>29.955200000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>20.071040000000004</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>17.839360000000006</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="8"/>
+        <v>-1.9289599999999965</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1584,11 +1780,11 @@
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>12.751200000000003</v>
+        <v>22.952160000000006</v>
       </c>
       <c r="J25">
-        <f t="shared" si="7"/>
-        <v>12.751200000000003</v>
+        <f t="shared" si="9"/>
+        <v>2.5502400000000005</v>
       </c>
       <c r="K25">
         <f t="shared" si="3"/>
@@ -1600,14 +1796,22 @@
       </c>
       <c r="M25">
         <f t="shared" si="5"/>
-        <v>31.151200000000003</v>
+        <v>41.352160000000012</v>
       </c>
       <c r="N25">
         <f t="shared" si="6"/>
-        <v>31.151200000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+        <v>20.950240000000001</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>18.352160000000012</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="8"/>
+        <v>-2.0497599999999991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1631,11 +1835,11 @@
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>13.132800000000003</v>
+        <v>23.639040000000005</v>
       </c>
       <c r="J26">
-        <f t="shared" si="7"/>
-        <v>13.132800000000003</v>
+        <f t="shared" si="9"/>
+        <v>2.6265600000000004</v>
       </c>
       <c r="K26">
         <f t="shared" si="3"/>
@@ -1647,14 +1851,22 @@
       </c>
       <c r="M26">
         <f t="shared" si="5"/>
-        <v>32.332800000000006</v>
+        <v>42.839040000000011</v>
       </c>
       <c r="N26">
         <f t="shared" si="6"/>
-        <v>32.332800000000006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <v>21.826560000000004</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>18.839040000000011</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="8"/>
+        <v>-2.1734399999999958</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1678,11 +1890,11 @@
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>13.5</v>
+        <v>24.3</v>
       </c>
       <c r="J27">
-        <f t="shared" si="7"/>
-        <v>13.5</v>
+        <f t="shared" si="9"/>
+        <v>2.7</v>
       </c>
       <c r="K27">
         <f t="shared" si="3"/>
@@ -1694,14 +1906,22 @@
       </c>
       <c r="M27">
         <f t="shared" si="5"/>
-        <v>33.5</v>
+        <v>44.3</v>
       </c>
       <c r="N27">
         <f t="shared" si="6"/>
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+        <v>22.7</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="7"/>
+        <v>19.299999999999997</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="8"/>
+        <v>-2.3000000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E28">
         <v>26</v>
       </c>
@@ -1718,11 +1938,11 @@
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>13.852800000000002</v>
+        <v>24.935040000000001</v>
       </c>
       <c r="J28">
-        <f t="shared" si="7"/>
-        <v>13.852800000000002</v>
+        <f t="shared" si="9"/>
+        <v>2.7705600000000001</v>
       </c>
       <c r="K28">
         <f t="shared" si="3"/>
@@ -1734,14 +1954,22 @@
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
-        <v>34.652799999999999</v>
+        <v>45.735039999999998</v>
       </c>
       <c r="N28">
         <f t="shared" si="6"/>
-        <v>34.652799999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>23.57056</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="7"/>
+        <v>19.735039999999998</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="8"/>
+        <v>-2.4294399999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E29">
         <v>27</v>
       </c>
@@ -1758,11 +1986,11 @@
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>14.191200000000002</v>
+        <v>25.544160000000005</v>
       </c>
       <c r="J29">
-        <f t="shared" si="7"/>
-        <v>14.191200000000002</v>
+        <f t="shared" si="9"/>
+        <v>2.8382400000000003</v>
       </c>
       <c r="K29">
         <f t="shared" si="3"/>
@@ -1774,14 +2002,22 @@
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
-        <v>35.791200000000003</v>
+        <v>47.144160000000007</v>
       </c>
       <c r="N29">
         <f t="shared" si="6"/>
-        <v>35.791200000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24.43824</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="7"/>
+        <v>20.144160000000007</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="8"/>
+        <v>-2.5617599999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E30">
         <v>28</v>
       </c>
@@ -1798,11 +2034,11 @@
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>14.5152</v>
+        <v>26.127359999999999</v>
       </c>
       <c r="J30">
-        <f t="shared" si="7"/>
-        <v>14.5152</v>
+        <f t="shared" si="9"/>
+        <v>2.9030400000000003</v>
       </c>
       <c r="K30">
         <f t="shared" si="3"/>
@@ -1814,14 +2050,22 @@
       </c>
       <c r="M30">
         <f t="shared" si="5"/>
-        <v>36.915199999999999</v>
+        <v>48.527360000000002</v>
       </c>
       <c r="N30">
         <f t="shared" si="6"/>
-        <v>36.915199999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+        <v>25.303040000000003</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="7"/>
+        <v>20.527360000000002</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="8"/>
+        <v>-2.6969599999999971</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E31">
         <v>29</v>
       </c>
@@ -1838,11 +2082,11 @@
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>14.824800000000002</v>
+        <v>26.684640000000002</v>
       </c>
       <c r="J31">
-        <f t="shared" si="7"/>
-        <v>14.824800000000002</v>
+        <f t="shared" si="9"/>
+        <v>2.9649600000000005</v>
       </c>
       <c r="K31">
         <f t="shared" si="3"/>
@@ -1854,14 +2098,22 @@
       </c>
       <c r="M31">
         <f t="shared" si="5"/>
-        <v>38.024800000000006</v>
+        <v>49.884640000000005</v>
       </c>
       <c r="N31">
         <f t="shared" si="6"/>
-        <v>38.024800000000006</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+        <v>26.164960000000004</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="7"/>
+        <v>20.884640000000005</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="8"/>
+        <v>-2.8350399999999958</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E32">
         <v>30</v>
       </c>
@@ -1878,11 +2130,11 @@
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
-        <v>15.119999999999997</v>
+        <v>27.215999999999998</v>
       </c>
       <c r="J32">
-        <f t="shared" si="7"/>
-        <v>15.119999999999997</v>
+        <f t="shared" si="9"/>
+        <v>3.0239999999999996</v>
       </c>
       <c r="K32">
         <f t="shared" si="3"/>
@@ -1894,14 +2146,22 @@
       </c>
       <c r="M32">
         <f t="shared" si="5"/>
-        <v>39.120000000000005</v>
+        <v>51.216000000000001</v>
       </c>
       <c r="N32">
         <f t="shared" si="6"/>
-        <v>39.120000000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="5:14" x14ac:dyDescent="0.2">
+        <v>27.024000000000004</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="7"/>
+        <v>21.216000000000001</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="8"/>
+        <v>-2.9759999999999955</v>
+      </c>
+    </row>
+    <row r="33" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E33">
         <v>31</v>
       </c>
@@ -1918,11 +2178,11 @@
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
-        <v>15.400799999999998</v>
+        <v>27.721439999999998</v>
       </c>
       <c r="J33">
-        <f t="shared" si="7"/>
-        <v>15.400799999999998</v>
+        <f t="shared" si="9"/>
+        <v>3.0801599999999998</v>
       </c>
       <c r="K33">
         <f t="shared" si="3"/>
@@ -1934,14 +2194,22 @@
       </c>
       <c r="M33">
         <f t="shared" si="5"/>
-        <v>40.200800000000001</v>
+        <v>52.521439999999998</v>
       </c>
       <c r="N33">
         <f t="shared" si="6"/>
-        <v>40.200800000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="5:14" x14ac:dyDescent="0.2">
+        <v>27.880160000000004</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="7"/>
+        <v>21.521439999999998</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="8"/>
+        <v>-3.1198399999999964</v>
+      </c>
+    </row>
+    <row r="34" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E34">
         <v>32</v>
       </c>
@@ -1958,11 +2226,11 @@
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>15.667199999999998</v>
+        <v>28.200959999999995</v>
       </c>
       <c r="J34">
-        <f t="shared" si="7"/>
-        <v>15.667199999999998</v>
+        <f t="shared" si="9"/>
+        <v>3.1334399999999998</v>
       </c>
       <c r="K34">
         <f t="shared" si="3"/>
@@ -1974,14 +2242,22 @@
       </c>
       <c r="M34">
         <f t="shared" si="5"/>
-        <v>41.267200000000003</v>
+        <v>53.800960000000003</v>
       </c>
       <c r="N34">
         <f t="shared" si="6"/>
-        <v>41.267200000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="5:14" x14ac:dyDescent="0.2">
+        <v>28.733440000000005</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="7"/>
+        <v>21.800960000000003</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="8"/>
+        <v>-3.2665599999999948</v>
+      </c>
+    </row>
+    <row r="35" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E35">
         <v>33</v>
       </c>
@@ -1998,11 +2274,11 @@
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
-        <v>15.9192</v>
+        <v>28.65456</v>
       </c>
       <c r="J35">
-        <f t="shared" si="7"/>
-        <v>15.9192</v>
+        <f t="shared" si="9"/>
+        <v>3.18384</v>
       </c>
       <c r="K35">
         <f t="shared" si="3"/>
@@ -2014,14 +2290,22 @@
       </c>
       <c r="M35">
         <f t="shared" si="5"/>
-        <v>42.319200000000009</v>
+        <v>55.054560000000009</v>
       </c>
       <c r="N35">
         <f t="shared" si="6"/>
-        <v>42.319200000000009</v>
-      </c>
-    </row>
-    <row r="36" spans="5:14" x14ac:dyDescent="0.2">
+        <v>29.583840000000006</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="7"/>
+        <v>22.054560000000009</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="8"/>
+        <v>-3.4161599999999943</v>
+      </c>
+    </row>
+    <row r="36" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E36">
         <v>34</v>
       </c>
@@ -2038,11 +2322,11 @@
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>16.1568</v>
+        <v>29.082239999999995</v>
       </c>
       <c r="J36">
-        <f t="shared" si="7"/>
-        <v>16.1568</v>
+        <f t="shared" si="9"/>
+        <v>3.23136</v>
       </c>
       <c r="K36">
         <f t="shared" si="3"/>
@@ -2054,14 +2338,22 @@
       </c>
       <c r="M36">
         <f t="shared" si="5"/>
-        <v>43.356800000000007</v>
+        <v>56.282240000000002</v>
       </c>
       <c r="N36">
         <f t="shared" si="6"/>
-        <v>43.356800000000007</v>
-      </c>
-    </row>
-    <row r="37" spans="5:14" x14ac:dyDescent="0.2">
+        <v>30.431360000000005</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="7"/>
+        <v>22.282240000000002</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="8"/>
+        <v>-3.5686399999999949</v>
+      </c>
+    </row>
+    <row r="37" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E37">
         <v>35</v>
       </c>
@@ -2078,11 +2370,11 @@
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
-        <v>16.38</v>
+        <v>29.483999999999998</v>
       </c>
       <c r="J37">
-        <f t="shared" si="7"/>
-        <v>16.38</v>
+        <f t="shared" si="9"/>
+        <v>3.2760000000000002</v>
       </c>
       <c r="K37">
         <f t="shared" si="3"/>
@@ -2094,14 +2386,22 @@
       </c>
       <c r="M37">
         <f t="shared" si="5"/>
-        <v>44.38</v>
+        <v>57.484000000000002</v>
       </c>
       <c r="N37">
         <f t="shared" si="6"/>
-        <v>44.38</v>
-      </c>
-    </row>
-    <row r="38" spans="5:14" x14ac:dyDescent="0.2">
+        <v>31.276000000000003</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="7"/>
+        <v>22.484000000000002</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="8"/>
+        <v>-3.7239999999999966</v>
+      </c>
+    </row>
+    <row r="38" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E38">
         <v>36</v>
       </c>
@@ -2118,11 +2418,11 @@
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
-        <v>16.588800000000003</v>
+        <v>29.859840000000005</v>
       </c>
       <c r="J38">
-        <f t="shared" si="7"/>
-        <v>16.588800000000003</v>
+        <f t="shared" si="9"/>
+        <v>3.3177600000000007</v>
       </c>
       <c r="K38">
         <f t="shared" si="3"/>
@@ -2134,14 +2434,22 @@
       </c>
       <c r="M38">
         <f t="shared" si="5"/>
-        <v>45.388800000000003</v>
+        <v>58.65984000000001</v>
       </c>
       <c r="N38">
         <f t="shared" si="6"/>
-        <v>45.388800000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="5:14" x14ac:dyDescent="0.2">
+        <v>32.117760000000004</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="7"/>
+        <v>22.65984000000001</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="8"/>
+        <v>-3.8822399999999959</v>
+      </c>
+    </row>
+    <row r="39" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E39">
         <v>37</v>
       </c>
@@ -2158,11 +2466,11 @@
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
-        <v>16.783200000000001</v>
+        <v>30.209760000000003</v>
       </c>
       <c r="J39">
-        <f t="shared" si="7"/>
-        <v>16.783200000000001</v>
+        <f t="shared" si="9"/>
+        <v>3.3566400000000001</v>
       </c>
       <c r="K39">
         <f t="shared" si="3"/>
@@ -2174,14 +2482,22 @@
       </c>
       <c r="M39">
         <f t="shared" si="5"/>
-        <v>46.383200000000002</v>
+        <v>59.809760000000011</v>
       </c>
       <c r="N39">
         <f t="shared" si="6"/>
-        <v>46.383200000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="5:14" x14ac:dyDescent="0.2">
+        <v>32.956640000000007</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="7"/>
+        <v>22.809760000000011</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="8"/>
+        <v>-4.0433599999999927</v>
+      </c>
+    </row>
+    <row r="40" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E40">
         <v>38</v>
       </c>
@@ -2198,11 +2514,11 @@
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
-        <v>16.963200000000004</v>
+        <v>30.533760000000001</v>
       </c>
       <c r="J40">
-        <f t="shared" si="7"/>
-        <v>16.963200000000004</v>
+        <f t="shared" si="9"/>
+        <v>3.3926400000000005</v>
       </c>
       <c r="K40">
         <f t="shared" si="3"/>
@@ -2214,14 +2530,22 @@
       </c>
       <c r="M40">
         <f t="shared" si="5"/>
-        <v>47.363200000000006</v>
+        <v>60.933760000000007</v>
       </c>
       <c r="N40">
         <f t="shared" si="6"/>
-        <v>47.363200000000006</v>
-      </c>
-    </row>
-    <row r="41" spans="5:14" x14ac:dyDescent="0.2">
+        <v>33.792640000000006</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="7"/>
+        <v>22.933760000000007</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="8"/>
+        <v>-4.2073599999999942</v>
+      </c>
+    </row>
+    <row r="41" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E41">
         <v>39</v>
       </c>
@@ -2238,11 +2562,11 @@
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
-        <v>17.128800000000002</v>
+        <v>30.831839999999996</v>
       </c>
       <c r="J41">
-        <f t="shared" si="7"/>
-        <v>17.128800000000002</v>
+        <f t="shared" si="9"/>
+        <v>3.4257599999999999</v>
       </c>
       <c r="K41">
         <f t="shared" si="3"/>
@@ -2254,14 +2578,22 @@
       </c>
       <c r="M41">
         <f t="shared" si="5"/>
-        <v>48.328800000000008</v>
+        <v>62.031840000000003</v>
       </c>
       <c r="N41">
         <f t="shared" si="6"/>
-        <v>48.328800000000008</v>
-      </c>
-    </row>
-    <row r="42" spans="5:14" x14ac:dyDescent="0.2">
+        <v>34.625760000000007</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="7"/>
+        <v>23.031840000000003</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="8"/>
+        <v>-4.3742399999999932</v>
+      </c>
+    </row>
+    <row r="42" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E42">
         <v>40</v>
       </c>
@@ -2278,11 +2610,11 @@
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
-        <v>17.28</v>
+        <v>31.104000000000003</v>
       </c>
       <c r="J42">
-        <f t="shared" si="7"/>
-        <v>17.28</v>
+        <f t="shared" si="9"/>
+        <v>3.456</v>
       </c>
       <c r="K42">
         <f t="shared" si="3"/>
@@ -2294,14 +2626,22 @@
       </c>
       <c r="M42">
         <f t="shared" si="5"/>
-        <v>49.28</v>
+        <v>63.103999999999999</v>
       </c>
       <c r="N42">
         <f t="shared" si="6"/>
-        <v>49.28</v>
-      </c>
-    </row>
-    <row r="43" spans="5:14" x14ac:dyDescent="0.2">
+        <v>35.456000000000003</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="7"/>
+        <v>23.103999999999999</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="8"/>
+        <v>-4.5439999999999969</v>
+      </c>
+    </row>
+    <row r="43" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E43">
         <v>41</v>
       </c>
@@ -2318,11 +2658,11 @@
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
-        <v>17.416800000000006</v>
+        <v>31.350240000000003</v>
       </c>
       <c r="J43">
-        <f t="shared" si="7"/>
-        <v>17.416800000000006</v>
+        <f t="shared" si="9"/>
+        <v>3.4833600000000011</v>
       </c>
       <c r="K43">
         <f t="shared" si="3"/>
@@ -2334,14 +2674,22 @@
       </c>
       <c r="M43">
         <f t="shared" si="5"/>
-        <v>50.216800000000006</v>
+        <v>64.150240000000011</v>
       </c>
       <c r="N43">
         <f t="shared" si="6"/>
-        <v>50.216800000000006</v>
-      </c>
-    </row>
-    <row r="44" spans="5:14" x14ac:dyDescent="0.2">
+        <v>36.283360000000002</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="7"/>
+        <v>23.150240000000011</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="8"/>
+        <v>-4.7166399999999982</v>
+      </c>
+    </row>
+    <row r="44" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E44">
         <v>42</v>
       </c>
@@ -2358,11 +2706,11 @@
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
-        <v>17.539200000000005</v>
+        <v>31.570560000000004</v>
       </c>
       <c r="J44">
-        <f t="shared" si="7"/>
-        <v>17.539200000000005</v>
+        <f t="shared" si="9"/>
+        <v>3.5078400000000007</v>
       </c>
       <c r="K44">
         <f t="shared" si="3"/>
@@ -2374,14 +2722,22 @@
       </c>
       <c r="M44">
         <f t="shared" si="5"/>
-        <v>51.139200000000002</v>
+        <v>65.170560000000009</v>
       </c>
       <c r="N44">
         <f t="shared" si="6"/>
-        <v>51.139200000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="5:14" x14ac:dyDescent="0.2">
+        <v>37.107840000000003</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="7"/>
+        <v>23.170560000000009</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="8"/>
+        <v>-4.892159999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E45">
         <v>43</v>
       </c>
@@ -2398,11 +2754,11 @@
       </c>
       <c r="I45">
         <f t="shared" si="2"/>
-        <v>17.647200000000002</v>
+        <v>31.764960000000002</v>
       </c>
       <c r="J45">
-        <f t="shared" si="7"/>
-        <v>17.647200000000002</v>
+        <f t="shared" si="9"/>
+        <v>3.5294400000000001</v>
       </c>
       <c r="K45">
         <f t="shared" si="3"/>
@@ -2414,14 +2770,22 @@
       </c>
       <c r="M45">
         <f t="shared" si="5"/>
-        <v>52.047200000000004</v>
+        <v>66.164960000000008</v>
       </c>
       <c r="N45">
         <f t="shared" si="6"/>
-        <v>52.047200000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="5:14" x14ac:dyDescent="0.2">
+        <v>37.92944</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="7"/>
+        <v>23.164960000000008</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="8"/>
+        <v>-5.0705600000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E46">
         <v>44</v>
       </c>
@@ -2438,11 +2802,11 @@
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
-        <v>17.740800000000004</v>
+        <v>31.933440000000008</v>
       </c>
       <c r="J46">
-        <f t="shared" si="7"/>
-        <v>17.740800000000004</v>
+        <f t="shared" si="9"/>
+        <v>3.5481600000000011</v>
       </c>
       <c r="K46">
         <f t="shared" si="3"/>
@@ -2454,14 +2818,22 @@
       </c>
       <c r="M46">
         <f t="shared" si="5"/>
-        <v>52.94080000000001</v>
+        <v>67.133440000000007</v>
       </c>
       <c r="N46">
         <f t="shared" si="6"/>
-        <v>52.94080000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="5:14" x14ac:dyDescent="0.2">
+        <v>38.748160000000006</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="7"/>
+        <v>23.133440000000007</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="8"/>
+        <v>-5.2518399999999943</v>
+      </c>
+    </row>
+    <row r="47" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E47">
         <v>45</v>
       </c>
@@ -2478,11 +2850,11 @@
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
-        <v>17.82</v>
+        <v>32.076000000000001</v>
       </c>
       <c r="J47">
-        <f t="shared" si="7"/>
-        <v>17.82</v>
+        <f t="shared" si="9"/>
+        <v>3.5640000000000005</v>
       </c>
       <c r="K47">
         <f t="shared" si="3"/>
@@ -2494,14 +2866,22 @@
       </c>
       <c r="M47">
         <f t="shared" si="5"/>
-        <v>53.82</v>
+        <v>68.075999999999993</v>
       </c>
       <c r="N47">
         <f t="shared" si="6"/>
-        <v>53.82</v>
-      </c>
-    </row>
-    <row r="48" spans="5:14" x14ac:dyDescent="0.2">
+        <v>39.564</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="7"/>
+        <v>23.075999999999993</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="8"/>
+        <v>-5.4359999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E48">
         <v>46</v>
       </c>
@@ -2518,11 +2898,11 @@
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
-        <v>17.884800000000006</v>
+        <v>32.192640000000011</v>
       </c>
       <c r="J48">
-        <f t="shared" si="7"/>
-        <v>17.884800000000006</v>
+        <f t="shared" si="9"/>
+        <v>3.576960000000001</v>
       </c>
       <c r="K48">
         <f t="shared" si="3"/>
@@ -2534,14 +2914,22 @@
       </c>
       <c r="M48">
         <f t="shared" si="5"/>
-        <v>54.68480000000001</v>
+        <v>68.992640000000023</v>
       </c>
       <c r="N48">
         <f t="shared" si="6"/>
-        <v>54.68480000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="5:14" x14ac:dyDescent="0.2">
+        <v>40.376960000000004</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="7"/>
+        <v>22.992640000000023</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="8"/>
+        <v>-5.623039999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E49">
         <v>47</v>
       </c>
@@ -2558,11 +2946,11 @@
       </c>
       <c r="I49">
         <f t="shared" si="2"/>
-        <v>17.935200000000002</v>
+        <v>32.283360000000002</v>
       </c>
       <c r="J49">
-        <f t="shared" si="7"/>
-        <v>17.935200000000002</v>
+        <f t="shared" si="9"/>
+        <v>3.5870400000000005</v>
       </c>
       <c r="K49">
         <f t="shared" si="3"/>
@@ -2574,14 +2962,22 @@
       </c>
       <c r="M49">
         <f t="shared" si="5"/>
-        <v>55.535200000000003</v>
+        <v>69.88336000000001</v>
       </c>
       <c r="N49">
         <f t="shared" si="6"/>
-        <v>55.535200000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="5:14" x14ac:dyDescent="0.2">
+        <v>41.187040000000003</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="7"/>
+        <v>22.88336000000001</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="8"/>
+        <v>-5.8129599999999968</v>
+      </c>
+    </row>
+    <row r="50" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E50">
         <v>48</v>
       </c>
@@ -2598,11 +2994,11 @@
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
-        <v>17.971200000000003</v>
+        <v>32.348160000000007</v>
       </c>
       <c r="J50">
-        <f t="shared" si="7"/>
-        <v>17.971200000000003</v>
+        <f t="shared" si="9"/>
+        <v>3.5942400000000005</v>
       </c>
       <c r="K50">
         <f t="shared" si="3"/>
@@ -2614,14 +3010,22 @@
       </c>
       <c r="M50">
         <f t="shared" si="5"/>
-        <v>56.371200000000009</v>
+        <v>70.748160000000013</v>
       </c>
       <c r="N50">
         <f t="shared" si="6"/>
-        <v>56.371200000000009</v>
-      </c>
-    </row>
-    <row r="51" spans="5:14" x14ac:dyDescent="0.2">
+        <v>41.994240000000005</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="7"/>
+        <v>22.748160000000013</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="8"/>
+        <v>-6.0057599999999951</v>
+      </c>
+    </row>
+    <row r="51" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E51">
         <v>49</v>
       </c>
@@ -2638,11 +3042,11 @@
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
-        <v>17.992800000000003</v>
+        <v>32.387040000000006</v>
       </c>
       <c r="J51">
-        <f t="shared" si="7"/>
-        <v>17.992800000000003</v>
+        <f t="shared" si="9"/>
+        <v>3.5985600000000004</v>
       </c>
       <c r="K51">
         <f t="shared" si="3"/>
@@ -2654,14 +3058,22 @@
       </c>
       <c r="M51">
         <f t="shared" si="5"/>
-        <v>57.192800000000005</v>
+        <v>71.587040000000002</v>
       </c>
       <c r="N51">
         <f t="shared" si="6"/>
-        <v>57.192800000000005</v>
-      </c>
-    </row>
-    <row r="52" spans="5:14" x14ac:dyDescent="0.2">
+        <v>42.798560000000002</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="7"/>
+        <v>22.587040000000002</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="8"/>
+        <v>-6.2014399999999981</v>
+      </c>
+    </row>
+    <row r="52" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E52">
         <v>50</v>
       </c>
@@ -2678,11 +3090,11 @@
       </c>
       <c r="I52">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>32.4</v>
       </c>
       <c r="J52">
-        <f t="shared" si="7"/>
-        <v>18</v>
+        <f t="shared" si="9"/>
+        <v>3.6</v>
       </c>
       <c r="K52">
         <f t="shared" si="3"/>
@@ -2694,14 +3106,22 @@
       </c>
       <c r="M52">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="N52">
         <f t="shared" si="6"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="5:14" x14ac:dyDescent="0.2">
+        <v>43.6</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="7"/>
+        <v>22.400000000000006</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="8"/>
+        <v>-6.3999999999999986</v>
+      </c>
+    </row>
+    <row r="53" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E53">
         <v>51</v>
       </c>
@@ -2718,11 +3138,11 @@
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
-        <v>17.992800000000003</v>
+        <v>32.387040000000006</v>
       </c>
       <c r="J53">
-        <f t="shared" si="7"/>
-        <v>17.992800000000003</v>
+        <f t="shared" si="9"/>
+        <v>3.5985600000000004</v>
       </c>
       <c r="K53">
         <f t="shared" si="3"/>
@@ -2734,14 +3154,22 @@
       </c>
       <c r="M53">
         <f t="shared" si="5"/>
-        <v>58.792800000000014</v>
+        <v>73.187040000000025</v>
       </c>
       <c r="N53">
         <f t="shared" si="6"/>
-        <v>58.792800000000014</v>
-      </c>
-    </row>
-    <row r="54" spans="5:14" x14ac:dyDescent="0.2">
+        <v>44.39856000000001</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="7"/>
+        <v>22.187040000000025</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="8"/>
+        <v>-6.6014399999999895</v>
+      </c>
+    </row>
+    <row r="54" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E54">
         <v>52</v>
       </c>
@@ -2758,11 +3186,11 @@
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
-        <v>17.9712</v>
+        <v>32.34816</v>
       </c>
       <c r="J54">
-        <f t="shared" si="7"/>
-        <v>17.9712</v>
+        <f t="shared" si="9"/>
+        <v>3.5942400000000001</v>
       </c>
       <c r="K54">
         <f t="shared" si="3"/>
@@ -2774,14 +3202,22 @@
       </c>
       <c r="M54">
         <f t="shared" si="5"/>
-        <v>59.571200000000005</v>
+        <v>73.948160000000001</v>
       </c>
       <c r="N54">
         <f t="shared" si="6"/>
-        <v>59.571200000000005</v>
-      </c>
-    </row>
-    <row r="55" spans="5:14" x14ac:dyDescent="0.2">
+        <v>45.194240000000001</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="7"/>
+        <v>21.948160000000001</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="8"/>
+        <v>-6.8057599999999994</v>
+      </c>
+    </row>
+    <row r="55" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E55">
         <v>53</v>
       </c>
@@ -2798,11 +3234,11 @@
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
-        <v>17.935200000000002</v>
+        <v>32.283360000000002</v>
       </c>
       <c r="J55">
-        <f t="shared" si="7"/>
-        <v>17.935200000000002</v>
+        <f t="shared" si="9"/>
+        <v>3.5870400000000005</v>
       </c>
       <c r="K55">
         <f t="shared" si="3"/>
@@ -2814,14 +3250,22 @@
       </c>
       <c r="M55">
         <f t="shared" si="5"/>
-        <v>60.335200000000015</v>
+        <v>74.683360000000022</v>
       </c>
       <c r="N55">
         <f t="shared" si="6"/>
-        <v>60.335200000000015</v>
-      </c>
-    </row>
-    <row r="56" spans="5:14" x14ac:dyDescent="0.2">
+        <v>45.987040000000015</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="7"/>
+        <v>21.683360000000022</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="8"/>
+        <v>-7.0129599999999854</v>
+      </c>
+    </row>
+    <row r="56" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E56">
         <v>54</v>
       </c>
@@ -2838,11 +3282,11 @@
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
-        <v>17.884800000000002</v>
+        <v>32.192639999999997</v>
       </c>
       <c r="J56">
-        <f t="shared" si="7"/>
-        <v>17.884800000000002</v>
+        <f t="shared" si="9"/>
+        <v>3.5769600000000001</v>
       </c>
       <c r="K56">
         <f t="shared" si="3"/>
@@ -2854,14 +3298,22 @@
       </c>
       <c r="M56">
         <f t="shared" si="5"/>
-        <v>61.084800000000001</v>
+        <v>75.39264</v>
       </c>
       <c r="N56">
         <f t="shared" si="6"/>
-        <v>61.084800000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="5:14" x14ac:dyDescent="0.2">
+        <v>46.776960000000003</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="7"/>
+        <v>21.39264</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="8"/>
+        <v>-7.2230399999999975</v>
+      </c>
+    </row>
+    <row r="57" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E57">
         <v>55</v>
       </c>
@@ -2878,11 +3330,11 @@
       </c>
       <c r="I57">
         <f t="shared" si="2"/>
-        <v>17.819999999999997</v>
+        <v>32.075999999999993</v>
       </c>
       <c r="J57">
-        <f t="shared" si="7"/>
-        <v>17.819999999999997</v>
+        <f t="shared" si="9"/>
+        <v>3.5639999999999996</v>
       </c>
       <c r="K57">
         <f t="shared" si="3"/>
@@ -2894,14 +3346,22 @@
       </c>
       <c r="M57">
         <f t="shared" si="5"/>
-        <v>61.819999999999993</v>
+        <v>76.075999999999993</v>
       </c>
       <c r="N57">
         <f t="shared" si="6"/>
-        <v>61.819999999999993</v>
-      </c>
-    </row>
-    <row r="58" spans="5:14" x14ac:dyDescent="0.2">
+        <v>47.564</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="7"/>
+        <v>21.075999999999993</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="8"/>
+        <v>-7.4359999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E58">
         <v>56</v>
       </c>
@@ -2918,11 +3378,11 @@
       </c>
       <c r="I58">
         <f t="shared" si="2"/>
-        <v>17.7408</v>
+        <v>31.933440000000001</v>
       </c>
       <c r="J58">
-        <f t="shared" si="7"/>
-        <v>17.7408</v>
+        <f t="shared" si="9"/>
+        <v>3.5481600000000002</v>
       </c>
       <c r="K58">
         <f t="shared" si="3"/>
@@ -2934,14 +3394,22 @@
       </c>
       <c r="M58">
         <f t="shared" si="5"/>
-        <v>62.540800000000004</v>
+        <v>76.733440000000002</v>
       </c>
       <c r="N58">
         <f t="shared" si="6"/>
-        <v>62.540800000000004</v>
-      </c>
-    </row>
-    <row r="59" spans="5:14" x14ac:dyDescent="0.2">
+        <v>48.348160000000007</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="7"/>
+        <v>20.733440000000002</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="8"/>
+        <v>-7.6518399999999929</v>
+      </c>
+    </row>
+    <row r="59" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E59">
         <v>57</v>
       </c>
@@ -2958,11 +3426,11 @@
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
-        <v>17.647200000000005</v>
+        <v>31.764960000000009</v>
       </c>
       <c r="J59">
-        <f t="shared" si="7"/>
-        <v>17.647200000000005</v>
+        <f t="shared" si="9"/>
+        <v>3.529440000000001</v>
       </c>
       <c r="K59">
         <f t="shared" si="3"/>
@@ -2974,14 +3442,22 @@
       </c>
       <c r="M59">
         <f t="shared" si="5"/>
-        <v>63.247200000000014</v>
+        <v>77.364960000000025</v>
       </c>
       <c r="N59">
         <f t="shared" si="6"/>
-        <v>63.247200000000014</v>
-      </c>
-    </row>
-    <row r="60" spans="5:14" x14ac:dyDescent="0.2">
+        <v>49.12944000000001</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="7"/>
+        <v>20.364960000000025</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="8"/>
+        <v>-7.8705599999999905</v>
+      </c>
+    </row>
+    <row r="60" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E60">
         <v>58</v>
       </c>
@@ -2998,11 +3474,11 @@
       </c>
       <c r="I60">
         <f t="shared" si="2"/>
-        <v>17.539200000000005</v>
+        <v>31.570560000000004</v>
       </c>
       <c r="J60">
-        <f t="shared" si="7"/>
-        <v>17.539200000000005</v>
+        <f t="shared" si="9"/>
+        <v>3.5078400000000007</v>
       </c>
       <c r="K60">
         <f t="shared" si="3"/>
@@ -3014,14 +3490,22 @@
       </c>
       <c r="M60">
         <f t="shared" si="5"/>
-        <v>63.939200000000014</v>
+        <v>77.970560000000006</v>
       </c>
       <c r="N60">
         <f t="shared" si="6"/>
-        <v>63.939200000000014</v>
-      </c>
-    </row>
-    <row r="61" spans="5:14" x14ac:dyDescent="0.2">
+        <v>49.907840000000007</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="7"/>
+        <v>19.970560000000006</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="8"/>
+        <v>-8.0921599999999927</v>
+      </c>
+    </row>
+    <row r="61" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E61">
         <v>59</v>
       </c>
@@ -3038,11 +3522,11 @@
       </c>
       <c r="I61">
         <f t="shared" si="2"/>
-        <v>17.416800000000006</v>
+        <v>31.350240000000003</v>
       </c>
       <c r="J61">
-        <f t="shared" si="7"/>
-        <v>17.416800000000006</v>
+        <f t="shared" si="9"/>
+        <v>3.4833600000000011</v>
       </c>
       <c r="K61">
         <f t="shared" si="3"/>
@@ -3054,14 +3538,22 @@
       </c>
       <c r="M61">
         <f t="shared" si="5"/>
-        <v>64.616800000000012</v>
+        <v>78.550240000000002</v>
       </c>
       <c r="N61">
         <f t="shared" si="6"/>
-        <v>64.616800000000012</v>
-      </c>
-    </row>
-    <row r="62" spans="5:14" x14ac:dyDescent="0.2">
+        <v>50.683360000000008</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="7"/>
+        <v>19.550240000000002</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="8"/>
+        <v>-8.3166399999999925</v>
+      </c>
+    </row>
+    <row r="62" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E62">
         <v>60</v>
       </c>
@@ -3078,11 +3570,11 @@
       </c>
       <c r="I62">
         <f t="shared" si="2"/>
-        <v>17.280000000000005</v>
+        <v>31.104000000000003</v>
       </c>
       <c r="J62">
-        <f t="shared" si="7"/>
-        <v>17.280000000000005</v>
+        <f t="shared" si="9"/>
+        <v>3.4560000000000008</v>
       </c>
       <c r="K62">
         <f t="shared" si="3"/>
@@ -3094,14 +3586,22 @@
       </c>
       <c r="M62">
         <f t="shared" si="5"/>
-        <v>65.280000000000015</v>
+        <v>79.104000000000013</v>
       </c>
       <c r="N62">
         <f t="shared" si="6"/>
-        <v>65.280000000000015</v>
-      </c>
-    </row>
-    <row r="63" spans="5:14" x14ac:dyDescent="0.2">
+        <v>51.45600000000001</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="7"/>
+        <v>19.104000000000013</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="8"/>
+        <v>-8.5439999999999898</v>
+      </c>
+    </row>
+    <row r="63" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E63">
         <v>61</v>
       </c>
@@ -3118,11 +3618,11 @@
       </c>
       <c r="I63">
         <f t="shared" si="2"/>
-        <v>17.128800000000005</v>
+        <v>30.83184000000001</v>
       </c>
       <c r="J63">
-        <f t="shared" si="7"/>
-        <v>17.128800000000005</v>
+        <f t="shared" si="9"/>
+        <v>3.4257600000000008</v>
       </c>
       <c r="K63">
         <f t="shared" si="3"/>
@@ -3134,14 +3634,22 @@
       </c>
       <c r="M63">
         <f t="shared" si="5"/>
-        <v>65.928800000000024</v>
+        <v>79.631840000000025</v>
       </c>
       <c r="N63">
         <f t="shared" si="6"/>
-        <v>65.928800000000024</v>
-      </c>
-    </row>
-    <row r="64" spans="5:14" x14ac:dyDescent="0.2">
+        <v>52.225760000000015</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="7"/>
+        <v>18.631840000000025</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="8"/>
+        <v>-8.7742399999999847</v>
+      </c>
+    </row>
+    <row r="64" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E64">
         <v>62</v>
       </c>
@@ -3158,11 +3666,11 @@
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
-        <v>16.963200000000004</v>
+        <v>30.533760000000001</v>
       </c>
       <c r="J64">
-        <f t="shared" si="7"/>
-        <v>16.963200000000004</v>
+        <f t="shared" si="9"/>
+        <v>3.3926400000000005</v>
       </c>
       <c r="K64">
         <f t="shared" si="3"/>
@@ -3174,14 +3682,22 @@
       </c>
       <c r="M64">
         <f t="shared" si="5"/>
-        <v>66.563200000000009</v>
+        <v>80.133760000000009</v>
       </c>
       <c r="N64">
         <f t="shared" si="6"/>
-        <v>66.563200000000009</v>
-      </c>
-    </row>
-    <row r="65" spans="5:14" x14ac:dyDescent="0.2">
+        <v>52.992640000000009</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="7"/>
+        <v>18.133760000000009</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="8"/>
+        <v>-9.0073599999999914</v>
+      </c>
+    </row>
+    <row r="65" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E65">
         <v>63</v>
       </c>
@@ -3198,11 +3714,11 @@
       </c>
       <c r="I65">
         <f t="shared" si="2"/>
-        <v>16.783200000000004</v>
+        <v>30.20976000000001</v>
       </c>
       <c r="J65">
-        <f t="shared" si="7"/>
-        <v>16.783200000000004</v>
+        <f t="shared" si="9"/>
+        <v>3.356640000000001</v>
       </c>
       <c r="K65">
         <f t="shared" si="3"/>
@@ -3214,14 +3730,22 @@
       </c>
       <c r="M65">
         <f t="shared" si="5"/>
-        <v>67.183200000000014</v>
+        <v>80.609760000000023</v>
       </c>
       <c r="N65">
         <f t="shared" si="6"/>
-        <v>67.183200000000014</v>
-      </c>
-    </row>
-    <row r="66" spans="5:14" x14ac:dyDescent="0.2">
+        <v>53.756640000000004</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="7"/>
+        <v>17.609760000000023</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="8"/>
+        <v>-9.2433599999999956</v>
+      </c>
+    </row>
+    <row r="66" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E66">
         <v>64</v>
       </c>
@@ -3238,11 +3762,11 @@
       </c>
       <c r="I66">
         <f t="shared" si="2"/>
-        <v>16.588799999999999</v>
+        <v>29.859839999999998</v>
       </c>
       <c r="J66">
-        <f t="shared" si="7"/>
-        <v>16.588799999999999</v>
+        <f t="shared" si="9"/>
+        <v>3.3177599999999998</v>
       </c>
       <c r="K66">
         <f t="shared" si="3"/>
@@ -3254,14 +3778,22 @@
       </c>
       <c r="M66">
         <f t="shared" si="5"/>
-        <v>67.788800000000009</v>
+        <v>81.059840000000008</v>
       </c>
       <c r="N66">
         <f t="shared" si="6"/>
-        <v>67.788800000000009</v>
-      </c>
-    </row>
-    <row r="67" spans="5:14" x14ac:dyDescent="0.2">
+        <v>54.51776000000001</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="7"/>
+        <v>17.059840000000008</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="8"/>
+        <v>-9.4822399999999902</v>
+      </c>
+    </row>
+    <row r="67" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E67">
         <v>65</v>
       </c>
@@ -3269,39 +3801,47 @@
         <v>65</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G102" si="8">$B$4*E67*(1-E67/$B$3)</f>
+        <f t="shared" ref="G67:G102" si="10">$B$4*E67*(1-E67/$B$3)</f>
         <v>18.2</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H102" si="9">$B$9*F67*(1-F67/$B$8)</f>
+        <f t="shared" ref="H67:H102" si="11">$B$9*F67*(1-F67/$B$8)</f>
         <v>18.2</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I102" si="10">$B$22*((G67*$B$17)+(H67*$B$16))</f>
-        <v>16.38</v>
+        <f t="shared" ref="I67:I102" si="12">$B$22*((G67*$B$17)+(H67*$B$16))</f>
+        <v>29.483999999999998</v>
       </c>
       <c r="J67">
-        <f t="shared" si="7"/>
-        <v>16.38</v>
+        <f t="shared" si="9"/>
+        <v>3.2760000000000002</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K102" si="11">($B$20*(E67*$B$13))+($B$21*(F67*$B$12))</f>
+        <f t="shared" ref="K67:K102" si="13">($B$20*(E67*$B$13))+($B$21*(F67*$B$12))</f>
         <v>52</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L102" si="12">($B$21*(F67*$B$14))+($B$20*(E67*$B$11))</f>
+        <f t="shared" ref="L67:L102" si="14">($B$21*(F67*$B$14))+($B$20*(E67*$B$11))</f>
         <v>52</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M102" si="13">I67+K67</f>
-        <v>68.38</v>
+        <f t="shared" ref="M67:M102" si="15">I67+K67</f>
+        <v>81.483999999999995</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N102" si="14">J67+L67</f>
-        <v>68.38</v>
-      </c>
-    </row>
-    <row r="68" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" ref="N67:N102" si="16">J67+L67</f>
+        <v>55.276000000000003</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:O102" si="17">M67-E67</f>
+        <v>16.483999999999995</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P102" si="18">N67-F67</f>
+        <v>-9.7239999999999966</v>
+      </c>
+    </row>
+    <row r="68" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E68">
         <v>66</v>
       </c>
@@ -3309,39 +3849,47 @@
         <v>66</v>
       </c>
       <c r="G68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17.951999999999998</v>
       </c>
       <c r="H68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17.951999999999998</v>
       </c>
       <c r="I68">
-        <f t="shared" si="10"/>
-        <v>16.1568</v>
+        <f t="shared" si="12"/>
+        <v>29.082239999999995</v>
       </c>
       <c r="J68">
-        <f t="shared" ref="J68:J102" si="15">$B$23*((H68*$B$18)+(G68*$B$15))</f>
-        <v>16.1568</v>
+        <f t="shared" ref="J68:J102" si="19">$B$23*((H68*$B$18)+(G68*$B$15))</f>
+        <v>3.23136</v>
       </c>
       <c r="K68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>52.800000000000011</v>
       </c>
       <c r="L68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>52.800000000000011</v>
       </c>
       <c r="M68">
-        <f t="shared" si="13"/>
-        <v>68.956800000000015</v>
+        <f t="shared" si="15"/>
+        <v>81.88224000000001</v>
       </c>
       <c r="N68">
-        <f t="shared" si="14"/>
-        <v>68.956800000000015</v>
-      </c>
-    </row>
-    <row r="69" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>56.031360000000014</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="17"/>
+        <v>15.88224000000001</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="18"/>
+        <v>-9.9686399999999864</v>
+      </c>
+    </row>
+    <row r="69" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E69">
         <v>67</v>
       </c>
@@ -3349,39 +3897,47 @@
         <v>67</v>
       </c>
       <c r="G69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17.687999999999999</v>
       </c>
       <c r="H69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17.687999999999999</v>
       </c>
       <c r="I69">
-        <f t="shared" si="10"/>
-        <v>15.9192</v>
+        <f t="shared" si="12"/>
+        <v>28.65456</v>
       </c>
       <c r="J69">
+        <f t="shared" si="19"/>
+        <v>3.18384</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="13"/>
+        <v>53.6</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="14"/>
+        <v>53.6</v>
+      </c>
+      <c r="M69">
         <f t="shared" si="15"/>
-        <v>15.9192</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="11"/>
-        <v>53.6</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="12"/>
-        <v>53.6</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="13"/>
-        <v>69.519199999999998</v>
+        <v>82.254559999999998</v>
       </c>
       <c r="N69">
-        <f t="shared" si="14"/>
-        <v>69.519199999999998</v>
-      </c>
-    </row>
-    <row r="70" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>56.783839999999998</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="17"/>
+        <v>15.254559999999998</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="18"/>
+        <v>-10.216160000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E70">
         <v>68</v>
       </c>
@@ -3389,39 +3945,47 @@
         <v>68</v>
       </c>
       <c r="G70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17.407999999999998</v>
       </c>
       <c r="H70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17.407999999999998</v>
       </c>
       <c r="I70">
-        <f t="shared" si="10"/>
-        <v>15.667199999999998</v>
+        <f t="shared" si="12"/>
+        <v>28.200959999999995</v>
       </c>
       <c r="J70">
+        <f t="shared" si="19"/>
+        <v>3.1334399999999998</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="13"/>
+        <v>54.400000000000013</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="14"/>
+        <v>54.400000000000013</v>
+      </c>
+      <c r="M70">
         <f t="shared" si="15"/>
-        <v>15.667199999999998</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="11"/>
-        <v>54.400000000000013</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="12"/>
-        <v>54.400000000000013</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="13"/>
-        <v>70.067200000000014</v>
+        <v>82.600960000000015</v>
       </c>
       <c r="N70">
-        <f t="shared" si="14"/>
-        <v>70.067200000000014</v>
-      </c>
-    </row>
-    <row r="71" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>57.533440000000013</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="17"/>
+        <v>14.600960000000015</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="18"/>
+        <v>-10.466559999999987</v>
+      </c>
+    </row>
+    <row r="71" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E71">
         <v>69</v>
       </c>
@@ -3429,39 +3993,47 @@
         <v>69</v>
       </c>
       <c r="G71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17.112000000000005</v>
       </c>
       <c r="H71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17.112000000000005</v>
       </c>
       <c r="I71">
-        <f t="shared" si="10"/>
-        <v>15.400800000000009</v>
+        <f t="shared" si="12"/>
+        <v>27.721440000000012</v>
       </c>
       <c r="J71">
+        <f t="shared" si="19"/>
+        <v>3.0801600000000016</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="13"/>
+        <v>55.2</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="14"/>
+        <v>55.2</v>
+      </c>
+      <c r="M71">
         <f t="shared" si="15"/>
-        <v>15.400800000000009</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="11"/>
-        <v>55.2</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="12"/>
-        <v>55.2</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="13"/>
-        <v>70.600800000000007</v>
+        <v>82.921440000000018</v>
       </c>
       <c r="N71">
-        <f t="shared" si="14"/>
-        <v>70.600800000000007</v>
-      </c>
-    </row>
-    <row r="72" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>58.280160000000002</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="17"/>
+        <v>13.921440000000018</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="18"/>
+        <v>-10.719839999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E72">
         <v>70</v>
       </c>
@@ -3469,39 +4041,47 @@
         <v>70</v>
       </c>
       <c r="G72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.800000000000004</v>
       </c>
       <c r="H72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16.800000000000004</v>
       </c>
       <c r="I72">
-        <f t="shared" si="10"/>
-        <v>15.120000000000005</v>
+        <f t="shared" si="12"/>
+        <v>27.216000000000008</v>
       </c>
       <c r="J72">
+        <f t="shared" si="19"/>
+        <v>3.0240000000000014</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="13"/>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="14"/>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="M72">
         <f t="shared" si="15"/>
-        <v>15.120000000000005</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="11"/>
-        <v>56.000000000000007</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="12"/>
-        <v>56.000000000000007</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="13"/>
-        <v>71.12</v>
+        <v>83.216000000000008</v>
       </c>
       <c r="N72">
-        <f t="shared" si="14"/>
-        <v>71.12</v>
-      </c>
-    </row>
-    <row r="73" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>59.024000000000008</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="17"/>
+        <v>13.216000000000008</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="18"/>
+        <v>-10.975999999999992</v>
+      </c>
+    </row>
+    <row r="73" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E73">
         <v>71</v>
       </c>
@@ -3509,39 +4089,47 @@
         <v>71</v>
       </c>
       <c r="G73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.472000000000005</v>
       </c>
       <c r="H73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16.472000000000005</v>
       </c>
       <c r="I73">
-        <f t="shared" si="10"/>
-        <v>14.824800000000009</v>
+        <f t="shared" si="12"/>
+        <v>26.684640000000009</v>
       </c>
       <c r="J73">
+        <f t="shared" si="19"/>
+        <v>2.9649600000000014</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="13"/>
+        <v>56.800000000000004</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="14"/>
+        <v>56.800000000000004</v>
+      </c>
+      <c r="M73">
         <f t="shared" si="15"/>
-        <v>14.824800000000009</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="11"/>
-        <v>56.800000000000004</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="12"/>
-        <v>56.800000000000004</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="13"/>
-        <v>71.624800000000008</v>
+        <v>83.484640000000013</v>
       </c>
       <c r="N73">
-        <f t="shared" si="14"/>
-        <v>71.624800000000008</v>
-      </c>
-    </row>
-    <row r="74" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>59.764960000000002</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="17"/>
+        <v>12.484640000000013</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="18"/>
+        <v>-11.235039999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E74">
         <v>72</v>
       </c>
@@ -3549,39 +4137,47 @@
         <v>72</v>
       </c>
       <c r="G74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.128000000000004</v>
       </c>
       <c r="H74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16.128000000000004</v>
       </c>
       <c r="I74">
-        <f t="shared" si="10"/>
-        <v>14.515200000000004</v>
+        <f t="shared" si="12"/>
+        <v>26.127360000000007</v>
       </c>
       <c r="J74">
+        <f t="shared" si="19"/>
+        <v>2.9030400000000007</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="13"/>
+        <v>57.600000000000009</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="14"/>
+        <v>57.600000000000009</v>
+      </c>
+      <c r="M74">
         <f t="shared" si="15"/>
-        <v>14.515200000000004</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="11"/>
-        <v>57.600000000000009</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="12"/>
-        <v>57.600000000000009</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="13"/>
-        <v>72.115200000000016</v>
+        <v>83.727360000000019</v>
       </c>
       <c r="N74">
-        <f t="shared" si="14"/>
-        <v>72.115200000000016</v>
-      </c>
-    </row>
-    <row r="75" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>60.503040000000013</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="17"/>
+        <v>11.727360000000019</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="18"/>
+        <v>-11.496959999999987</v>
+      </c>
+    </row>
+    <row r="75" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E75">
         <v>73</v>
       </c>
@@ -3589,39 +4185,47 @@
         <v>73</v>
       </c>
       <c r="G75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15.768000000000002</v>
       </c>
       <c r="H75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15.768000000000002</v>
       </c>
       <c r="I75">
-        <f t="shared" si="10"/>
-        <v>14.191200000000004</v>
+        <f t="shared" si="12"/>
+        <v>25.544160000000005</v>
       </c>
       <c r="J75">
+        <f t="shared" si="19"/>
+        <v>2.8382400000000008</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="13"/>
+        <v>58.400000000000006</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="14"/>
+        <v>58.400000000000006</v>
+      </c>
+      <c r="M75">
         <f t="shared" si="15"/>
-        <v>14.191200000000004</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="11"/>
-        <v>58.400000000000006</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="12"/>
-        <v>58.400000000000006</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="13"/>
-        <v>72.591200000000015</v>
+        <v>83.944160000000011</v>
       </c>
       <c r="N75">
-        <f t="shared" si="14"/>
-        <v>72.591200000000015</v>
-      </c>
-    </row>
-    <row r="76" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>61.238240000000005</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="17"/>
+        <v>10.944160000000011</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="18"/>
+        <v>-11.761759999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E76">
         <v>74</v>
       </c>
@@ -3629,39 +4233,47 @@
         <v>74</v>
       </c>
       <c r="G76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15.392000000000001</v>
       </c>
       <c r="H76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15.392000000000001</v>
       </c>
       <c r="I76">
-        <f t="shared" si="10"/>
-        <v>13.852800000000002</v>
+        <f t="shared" si="12"/>
+        <v>24.935040000000004</v>
       </c>
       <c r="J76">
+        <f t="shared" si="19"/>
+        <v>2.7705600000000001</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="13"/>
+        <v>59.20000000000001</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="14"/>
+        <v>59.20000000000001</v>
+      </c>
+      <c r="M76">
         <f t="shared" si="15"/>
-        <v>13.852800000000002</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="11"/>
-        <v>59.20000000000001</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="12"/>
-        <v>59.20000000000001</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="13"/>
-        <v>73.052800000000019</v>
+        <v>84.135040000000018</v>
       </c>
       <c r="N76">
-        <f t="shared" si="14"/>
-        <v>73.052800000000019</v>
-      </c>
-    </row>
-    <row r="77" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>61.970560000000013</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="17"/>
+        <v>10.135040000000018</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="18"/>
+        <v>-12.029439999999987</v>
+      </c>
+    </row>
+    <row r="77" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E77">
         <v>75</v>
       </c>
@@ -3669,39 +4281,47 @@
         <v>75</v>
       </c>
       <c r="G77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="H77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="I77">
-        <f t="shared" si="10"/>
-        <v>13.5</v>
+        <f t="shared" si="12"/>
+        <v>24.3</v>
       </c>
       <c r="J77">
+        <f t="shared" si="19"/>
+        <v>2.7</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="M77">
         <f t="shared" si="15"/>
-        <v>13.5</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="11"/>
-        <v>60</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="12"/>
-        <v>60</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="13"/>
-        <v>73.5</v>
+        <v>84.3</v>
       </c>
       <c r="N77">
-        <f t="shared" si="14"/>
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="78" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>62.7</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="17"/>
+        <v>9.2999999999999972</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="18"/>
+        <v>-12.299999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E78">
         <v>76</v>
       </c>
@@ -3709,39 +4329,47 @@
         <v>76</v>
       </c>
       <c r="G78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14.592000000000001</v>
       </c>
       <c r="H78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>14.592000000000001</v>
       </c>
       <c r="I78">
-        <f t="shared" si="10"/>
-        <v>13.132800000000001</v>
+        <f t="shared" si="12"/>
+        <v>23.639040000000001</v>
       </c>
       <c r="J78">
+        <f t="shared" si="19"/>
+        <v>2.62656</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="13"/>
+        <v>60.800000000000011</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="14"/>
+        <v>60.800000000000011</v>
+      </c>
+      <c r="M78">
         <f t="shared" si="15"/>
-        <v>13.132800000000001</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="11"/>
-        <v>60.800000000000011</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="12"/>
-        <v>60.800000000000011</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="13"/>
-        <v>73.932800000000015</v>
+        <v>84.439040000000006</v>
       </c>
       <c r="N78">
-        <f t="shared" si="14"/>
-        <v>73.932800000000015</v>
-      </c>
-    </row>
-    <row r="79" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>63.426560000000009</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="17"/>
+        <v>8.4390400000000056</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="18"/>
+        <v>-12.573439999999991</v>
+      </c>
+    </row>
+    <row r="79" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E79">
         <v>77</v>
       </c>
@@ -3749,39 +4377,47 @@
         <v>77</v>
       </c>
       <c r="G79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14.167999999999999</v>
       </c>
       <c r="H79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>14.167999999999999</v>
       </c>
       <c r="I79">
-        <f t="shared" si="10"/>
-        <v>12.751200000000001</v>
+        <f t="shared" si="12"/>
+        <v>22.952160000000003</v>
       </c>
       <c r="J79">
+        <f t="shared" si="19"/>
+        <v>2.5502400000000001</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="13"/>
+        <v>61.6</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="14"/>
+        <v>61.6</v>
+      </c>
+      <c r="M79">
         <f t="shared" si="15"/>
-        <v>12.751200000000001</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="11"/>
-        <v>61.6</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="12"/>
-        <v>61.6</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="13"/>
-        <v>74.351200000000006</v>
+        <v>84.552160000000001</v>
       </c>
       <c r="N79">
-        <f t="shared" si="14"/>
-        <v>74.351200000000006</v>
-      </c>
-    </row>
-    <row r="80" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>64.150239999999997</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="17"/>
+        <v>7.5521600000000007</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="18"/>
+        <v>-12.849760000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E80">
         <v>78</v>
       </c>
@@ -3789,39 +4425,47 @@
         <v>78</v>
       </c>
       <c r="G80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.728</v>
       </c>
       <c r="H80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13.728</v>
       </c>
       <c r="I80">
-        <f t="shared" si="10"/>
-        <v>12.3552</v>
+        <f t="shared" si="12"/>
+        <v>22.239360000000001</v>
       </c>
       <c r="J80">
+        <f t="shared" si="19"/>
+        <v>2.4710399999999999</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="13"/>
+        <v>62.400000000000013</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="14"/>
+        <v>62.400000000000013</v>
+      </c>
+      <c r="M80">
         <f t="shared" si="15"/>
-        <v>12.3552</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="11"/>
-        <v>62.400000000000013</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="12"/>
-        <v>62.400000000000013</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="13"/>
-        <v>74.755200000000016</v>
+        <v>84.639360000000011</v>
       </c>
       <c r="N80">
-        <f t="shared" si="14"/>
-        <v>74.755200000000016</v>
-      </c>
-    </row>
-    <row r="81" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>64.871040000000008</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="17"/>
+        <v>6.6393600000000106</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="18"/>
+        <v>-13.128959999999992</v>
+      </c>
+    </row>
+    <row r="81" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E81">
         <v>79</v>
       </c>
@@ -3829,39 +4473,47 @@
         <v>79</v>
       </c>
       <c r="G81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.271999999999998</v>
       </c>
       <c r="H81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13.271999999999998</v>
       </c>
       <c r="I81">
-        <f t="shared" si="10"/>
-        <v>11.944799999999999</v>
+        <f t="shared" si="12"/>
+        <v>21.500639999999997</v>
       </c>
       <c r="J81">
+        <f t="shared" si="19"/>
+        <v>2.38896</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="13"/>
+        <v>63.2</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="14"/>
+        <v>63.2</v>
+      </c>
+      <c r="M81">
         <f t="shared" si="15"/>
-        <v>11.944799999999999</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="11"/>
-        <v>63.2</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="12"/>
-        <v>63.2</v>
-      </c>
-      <c r="M81">
-        <f t="shared" si="13"/>
-        <v>75.144800000000004</v>
+        <v>84.700639999999993</v>
       </c>
       <c r="N81">
-        <f t="shared" si="14"/>
-        <v>75.144800000000004</v>
-      </c>
-    </row>
-    <row r="82" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>65.58896</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="17"/>
+        <v>5.7006399999999928</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="18"/>
+        <v>-13.41104</v>
+      </c>
+    </row>
+    <row r="82" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E82">
         <v>80</v>
       </c>
@@ -3869,39 +4521,47 @@
         <v>80</v>
       </c>
       <c r="G82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12.799999999999997</v>
       </c>
       <c r="H82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12.799999999999997</v>
       </c>
       <c r="I82">
-        <f t="shared" si="10"/>
-        <v>11.519999999999998</v>
+        <f t="shared" si="12"/>
+        <v>20.735999999999997</v>
       </c>
       <c r="J82">
+        <f t="shared" si="19"/>
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="13"/>
+        <v>64</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="14"/>
+        <v>64</v>
+      </c>
+      <c r="M82">
         <f t="shared" si="15"/>
-        <v>11.519999999999998</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="11"/>
-        <v>64</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="12"/>
-        <v>64</v>
-      </c>
-      <c r="M82">
-        <f t="shared" si="13"/>
-        <v>75.52</v>
+        <v>84.73599999999999</v>
       </c>
       <c r="N82">
-        <f t="shared" si="14"/>
-        <v>75.52</v>
-      </c>
-    </row>
-    <row r="83" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>66.304000000000002</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="17"/>
+        <v>4.73599999999999</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="18"/>
+        <v>-13.695999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E83">
         <v>81</v>
       </c>
@@ -3909,39 +4569,47 @@
         <v>81</v>
       </c>
       <c r="G83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12.311999999999996</v>
       </c>
       <c r="H83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12.311999999999996</v>
       </c>
       <c r="I83">
-        <f t="shared" si="10"/>
-        <v>11.080799999999996</v>
+        <f t="shared" si="12"/>
+        <v>19.945439999999994</v>
       </c>
       <c r="J83">
+        <f t="shared" si="19"/>
+        <v>2.2161599999999995</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="13"/>
+        <v>64.800000000000011</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="14"/>
+        <v>64.800000000000011</v>
+      </c>
+      <c r="M83">
         <f t="shared" si="15"/>
-        <v>11.080799999999996</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="11"/>
-        <v>64.800000000000011</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="12"/>
-        <v>64.800000000000011</v>
-      </c>
-      <c r="M83">
-        <f t="shared" si="13"/>
-        <v>75.880800000000008</v>
+        <v>84.745440000000002</v>
       </c>
       <c r="N83">
-        <f t="shared" si="14"/>
-        <v>75.880800000000008</v>
-      </c>
-    </row>
-    <row r="84" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>67.016160000000013</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="17"/>
+        <v>3.7454400000000021</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="18"/>
+        <v>-13.983839999999987</v>
+      </c>
+    </row>
+    <row r="84" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E84">
         <v>82</v>
       </c>
@@ -3949,39 +4617,47 @@
         <v>82</v>
       </c>
       <c r="G84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11.808000000000005</v>
       </c>
       <c r="H84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11.808000000000005</v>
       </c>
       <c r="I84">
-        <f t="shared" si="10"/>
-        <v>10.627200000000006</v>
+        <f t="shared" si="12"/>
+        <v>19.12896000000001</v>
       </c>
       <c r="J84">
+        <f t="shared" si="19"/>
+        <v>2.1254400000000011</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="13"/>
+        <v>65.600000000000009</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="14"/>
+        <v>65.600000000000009</v>
+      </c>
+      <c r="M84">
         <f t="shared" si="15"/>
-        <v>10.627200000000006</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="11"/>
-        <v>65.600000000000009</v>
-      </c>
-      <c r="L84">
-        <f t="shared" si="12"/>
-        <v>65.600000000000009</v>
-      </c>
-      <c r="M84">
-        <f t="shared" si="13"/>
-        <v>76.227200000000011</v>
+        <v>84.728960000000015</v>
       </c>
       <c r="N84">
-        <f t="shared" si="14"/>
-        <v>76.227200000000011</v>
-      </c>
-    </row>
-    <row r="85" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>67.725440000000006</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="17"/>
+        <v>2.7289600000000149</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="18"/>
+        <v>-14.274559999999994</v>
+      </c>
+    </row>
+    <row r="85" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E85">
         <v>83</v>
       </c>
@@ -3989,39 +4665,47 @@
         <v>83</v>
       </c>
       <c r="G85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11.288000000000004</v>
       </c>
       <c r="H85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11.288000000000004</v>
       </c>
       <c r="I85">
-        <f t="shared" si="10"/>
-        <v>10.159200000000004</v>
+        <f t="shared" si="12"/>
+        <v>18.286560000000009</v>
       </c>
       <c r="J85">
+        <f t="shared" si="19"/>
+        <v>2.0318400000000008</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="13"/>
+        <v>66.400000000000006</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="14"/>
+        <v>66.400000000000006</v>
+      </c>
+      <c r="M85">
         <f t="shared" si="15"/>
-        <v>10.159200000000004</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="11"/>
-        <v>66.400000000000006</v>
-      </c>
-      <c r="L85">
-        <f t="shared" si="12"/>
-        <v>66.400000000000006</v>
-      </c>
-      <c r="M85">
-        <f t="shared" si="13"/>
-        <v>76.559200000000004</v>
+        <v>84.686560000000014</v>
       </c>
       <c r="N85">
-        <f t="shared" si="14"/>
-        <v>76.559200000000004</v>
-      </c>
-    </row>
-    <row r="86" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>68.431840000000008</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="17"/>
+        <v>1.6865600000000143</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="18"/>
+        <v>-14.568159999999992</v>
+      </c>
+    </row>
+    <row r="86" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E86">
         <v>84</v>
       </c>
@@ -4029,39 +4713,47 @@
         <v>84</v>
       </c>
       <c r="G86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10.752000000000002</v>
       </c>
       <c r="H86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10.752000000000002</v>
       </c>
       <c r="I86">
-        <f t="shared" si="10"/>
-        <v>9.6768000000000036</v>
+        <f t="shared" si="12"/>
+        <v>17.418240000000008</v>
       </c>
       <c r="J86">
+        <f t="shared" si="19"/>
+        <v>1.9353600000000006</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="13"/>
+        <v>67.2</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="14"/>
+        <v>67.2</v>
+      </c>
+      <c r="M86">
         <f t="shared" si="15"/>
-        <v>9.6768000000000036</v>
-      </c>
-      <c r="K86">
-        <f t="shared" si="11"/>
-        <v>67.2</v>
-      </c>
-      <c r="L86">
-        <f t="shared" si="12"/>
-        <v>67.2</v>
-      </c>
-      <c r="M86">
-        <f t="shared" si="13"/>
-        <v>76.876800000000003</v>
+        <v>84.618240000000014</v>
       </c>
       <c r="N86">
-        <f t="shared" si="14"/>
-        <v>76.876800000000003</v>
-      </c>
-    </row>
-    <row r="87" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>69.135360000000006</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="17"/>
+        <v>0.61824000000001433</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="18"/>
+        <v>-14.864639999999994</v>
+      </c>
+    </row>
+    <row r="87" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E87">
         <v>85</v>
       </c>
@@ -4069,39 +4761,47 @@
         <v>85</v>
       </c>
       <c r="G87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10.200000000000001</v>
       </c>
       <c r="H87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10.200000000000001</v>
       </c>
       <c r="I87">
-        <f t="shared" si="10"/>
-        <v>9.1800000000000033</v>
+        <f t="shared" si="12"/>
+        <v>16.524000000000004</v>
       </c>
       <c r="J87">
+        <f t="shared" si="19"/>
+        <v>1.8360000000000005</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="13"/>
+        <v>68</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="14"/>
+        <v>68</v>
+      </c>
+      <c r="M87">
         <f t="shared" si="15"/>
-        <v>9.1800000000000033</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="11"/>
-        <v>68</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="12"/>
-        <v>68</v>
-      </c>
-      <c r="M87">
-        <f t="shared" si="13"/>
-        <v>77.180000000000007</v>
+        <v>84.524000000000001</v>
       </c>
       <c r="N87">
-        <f t="shared" si="14"/>
-        <v>77.180000000000007</v>
-      </c>
-    </row>
-    <row r="88" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>69.835999999999999</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="17"/>
+        <v>-0.47599999999999909</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="18"/>
+        <v>-15.164000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E88">
         <v>86</v>
       </c>
@@ -4109,39 +4809,47 @@
         <v>86</v>
       </c>
       <c r="G88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.6319999999999997</v>
       </c>
       <c r="H88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.6319999999999997</v>
       </c>
       <c r="I88">
-        <f t="shared" si="10"/>
-        <v>8.6688000000000009</v>
+        <f t="shared" si="12"/>
+        <v>15.603840000000002</v>
       </c>
       <c r="J88">
+        <f t="shared" si="19"/>
+        <v>1.7337600000000002</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="13"/>
+        <v>68.8</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="14"/>
+        <v>68.8</v>
+      </c>
+      <c r="M88">
         <f t="shared" si="15"/>
-        <v>8.6688000000000009</v>
-      </c>
-      <c r="K88">
-        <f t="shared" si="11"/>
-        <v>68.8</v>
-      </c>
-      <c r="L88">
-        <f t="shared" si="12"/>
-        <v>68.8</v>
-      </c>
-      <c r="M88">
-        <f t="shared" si="13"/>
-        <v>77.468800000000002</v>
+        <v>84.403840000000002</v>
       </c>
       <c r="N88">
-        <f t="shared" si="14"/>
-        <v>77.468800000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>70.533760000000001</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="17"/>
+        <v>-1.5961599999999976</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="18"/>
+        <v>-15.466239999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E89">
         <v>87</v>
       </c>
@@ -4149,39 +4857,47 @@
         <v>87</v>
       </c>
       <c r="G89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.0480000000000018</v>
       </c>
       <c r="H89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.0480000000000018</v>
       </c>
       <c r="I89">
-        <f t="shared" si="10"/>
-        <v>8.143200000000002</v>
+        <f t="shared" si="12"/>
+        <v>14.657760000000003</v>
       </c>
       <c r="J89">
+        <f t="shared" si="19"/>
+        <v>1.6286400000000005</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="13"/>
+        <v>69.600000000000009</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="14"/>
+        <v>69.600000000000009</v>
+      </c>
+      <c r="M89">
         <f t="shared" si="15"/>
-        <v>8.143200000000002</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="11"/>
-        <v>69.600000000000009</v>
-      </c>
-      <c r="L89">
-        <f t="shared" si="12"/>
-        <v>69.600000000000009</v>
-      </c>
-      <c r="M89">
-        <f t="shared" si="13"/>
-        <v>77.743200000000016</v>
+        <v>84.257760000000019</v>
       </c>
       <c r="N89">
-        <f t="shared" si="14"/>
-        <v>77.743200000000016</v>
-      </c>
-    </row>
-    <row r="90" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>71.228640000000013</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="17"/>
+        <v>-2.7422399999999811</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="18"/>
+        <v>-15.771359999999987</v>
+      </c>
+    </row>
+    <row r="90" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E90">
         <v>88</v>
       </c>
@@ -4189,39 +4905,47 @@
         <v>88</v>
       </c>
       <c r="G90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.4480000000000004</v>
       </c>
       <c r="H90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.4480000000000004</v>
       </c>
       <c r="I90">
-        <f t="shared" si="10"/>
-        <v>7.6032000000000002</v>
+        <f t="shared" si="12"/>
+        <v>13.685760000000002</v>
       </c>
       <c r="J90">
+        <f t="shared" si="19"/>
+        <v>1.5206400000000002</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="13"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="14"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="M90">
         <f t="shared" si="15"/>
-        <v>7.6032000000000002</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="11"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="L90">
-        <f t="shared" si="12"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="M90">
-        <f t="shared" si="13"/>
-        <v>78.003200000000007</v>
+        <v>84.085760000000008</v>
       </c>
       <c r="N90">
-        <f t="shared" si="14"/>
-        <v>78.003200000000007</v>
-      </c>
-    </row>
-    <row r="91" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>71.920640000000006</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="17"/>
+        <v>-3.9142399999999924</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="18"/>
+        <v>-16.079359999999994</v>
+      </c>
+    </row>
+    <row r="91" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E91">
         <v>89</v>
       </c>
@@ -4229,39 +4953,47 @@
         <v>89</v>
       </c>
       <c r="G91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.831999999999999</v>
       </c>
       <c r="H91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.831999999999999</v>
       </c>
       <c r="I91">
-        <f t="shared" si="10"/>
-        <v>7.0487999999999991</v>
+        <f t="shared" si="12"/>
+        <v>12.687839999999998</v>
       </c>
       <c r="J91">
+        <f t="shared" si="19"/>
+        <v>1.4097599999999999</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="13"/>
+        <v>71.200000000000017</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="14"/>
+        <v>71.200000000000017</v>
+      </c>
+      <c r="M91">
         <f t="shared" si="15"/>
-        <v>7.0487999999999991</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="11"/>
-        <v>71.200000000000017</v>
-      </c>
-      <c r="L91">
-        <f t="shared" si="12"/>
-        <v>71.200000000000017</v>
-      </c>
-      <c r="M91">
-        <f t="shared" si="13"/>
-        <v>78.248800000000017</v>
+        <v>83.887840000000011</v>
       </c>
       <c r="N91">
-        <f t="shared" si="14"/>
-        <v>78.248800000000017</v>
-      </c>
-    </row>
-    <row r="92" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>72.609760000000023</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="17"/>
+        <v>-5.1121599999999887</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="18"/>
+        <v>-16.390239999999977</v>
+      </c>
+    </row>
+    <row r="92" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E92">
         <v>90</v>
       </c>
@@ -4269,39 +5001,47 @@
         <v>90</v>
       </c>
       <c r="G92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.1999999999999984</v>
       </c>
       <c r="H92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.1999999999999984</v>
       </c>
       <c r="I92">
-        <f t="shared" si="10"/>
-        <v>6.4799999999999986</v>
+        <f t="shared" si="12"/>
+        <v>11.663999999999998</v>
       </c>
       <c r="J92">
+        <f t="shared" si="19"/>
+        <v>1.2959999999999998</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="13"/>
+        <v>72</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="M92">
         <f t="shared" si="15"/>
-        <v>6.4799999999999986</v>
-      </c>
-      <c r="K92">
-        <f t="shared" si="11"/>
-        <v>72</v>
-      </c>
-      <c r="L92">
-        <f t="shared" si="12"/>
-        <v>72</v>
-      </c>
-      <c r="M92">
-        <f t="shared" si="13"/>
-        <v>78.48</v>
+        <v>83.664000000000001</v>
       </c>
       <c r="N92">
-        <f t="shared" si="14"/>
-        <v>78.48</v>
-      </c>
-    </row>
-    <row r="93" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>73.296000000000006</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="17"/>
+        <v>-6.3359999999999985</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="18"/>
+        <v>-16.703999999999994</v>
+      </c>
+    </row>
+    <row r="93" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E93">
         <v>91</v>
       </c>
@@ -4309,39 +5049,47 @@
         <v>91</v>
       </c>
       <c r="G93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.5519999999999978</v>
       </c>
       <c r="H93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.5519999999999978</v>
       </c>
       <c r="I93">
-        <f t="shared" si="10"/>
-        <v>5.896799999999998</v>
+        <f t="shared" si="12"/>
+        <v>10.614239999999997</v>
       </c>
       <c r="J93">
+        <f t="shared" si="19"/>
+        <v>1.1793599999999997</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="13"/>
+        <v>72.8</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="14"/>
+        <v>72.8</v>
+      </c>
+      <c r="M93">
         <f t="shared" si="15"/>
-        <v>5.896799999999998</v>
-      </c>
-      <c r="K93">
-        <f t="shared" si="11"/>
-        <v>72.8</v>
-      </c>
-      <c r="L93">
-        <f t="shared" si="12"/>
-        <v>72.8</v>
-      </c>
-      <c r="M93">
-        <f t="shared" si="13"/>
-        <v>78.696799999999996</v>
+        <v>83.414239999999992</v>
       </c>
       <c r="N93">
-        <f t="shared" si="14"/>
-        <v>78.696799999999996</v>
-      </c>
-    </row>
-    <row r="94" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>73.97936</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="17"/>
+        <v>-7.5857600000000076</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="18"/>
+        <v>-17.02064</v>
+      </c>
+    </row>
+    <row r="94" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E94">
         <v>92</v>
       </c>
@@ -4349,39 +5097,47 @@
         <v>92</v>
       </c>
       <c r="G94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.8879999999999981</v>
       </c>
       <c r="H94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.8879999999999981</v>
       </c>
       <c r="I94">
-        <f t="shared" si="10"/>
-        <v>5.299199999999999</v>
+        <f t="shared" si="12"/>
+        <v>9.5385599999999986</v>
       </c>
       <c r="J94">
+        <f t="shared" si="19"/>
+        <v>1.0598399999999999</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="13"/>
+        <v>73.600000000000009</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="14"/>
+        <v>73.600000000000009</v>
+      </c>
+      <c r="M94">
         <f t="shared" si="15"/>
-        <v>5.299199999999999</v>
-      </c>
-      <c r="K94">
-        <f t="shared" si="11"/>
-        <v>73.600000000000009</v>
-      </c>
-      <c r="L94">
-        <f t="shared" si="12"/>
-        <v>73.600000000000009</v>
-      </c>
-      <c r="M94">
-        <f t="shared" si="13"/>
-        <v>78.899200000000008</v>
+        <v>83.138560000000012</v>
       </c>
       <c r="N94">
-        <f t="shared" si="14"/>
-        <v>78.899200000000008</v>
-      </c>
-    </row>
-    <row r="95" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>74.659840000000003</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="17"/>
+        <v>-8.8614399999999875</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="18"/>
+        <v>-17.340159999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E95">
         <v>93</v>
       </c>
@@ -4389,39 +5145,47 @@
         <v>93</v>
       </c>
       <c r="G95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.2079999999999966</v>
       </c>
       <c r="H95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.2079999999999966</v>
       </c>
       <c r="I95">
-        <f t="shared" si="10"/>
-        <v>4.6871999999999971</v>
+        <f t="shared" si="12"/>
+        <v>8.4369599999999956</v>
       </c>
       <c r="J95">
+        <f t="shared" si="19"/>
+        <v>0.9374399999999995</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="13"/>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="14"/>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="M95">
         <f t="shared" si="15"/>
-        <v>4.6871999999999971</v>
-      </c>
-      <c r="K95">
-        <f t="shared" si="11"/>
-        <v>74.400000000000006</v>
-      </c>
-      <c r="L95">
-        <f t="shared" si="12"/>
-        <v>74.400000000000006</v>
-      </c>
-      <c r="M95">
-        <f t="shared" si="13"/>
-        <v>79.087199999999996</v>
+        <v>82.836960000000005</v>
       </c>
       <c r="N95">
-        <f t="shared" si="14"/>
-        <v>79.087199999999996</v>
-      </c>
-    </row>
-    <row r="96" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>75.337440000000001</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="17"/>
+        <v>-10.163039999999995</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="18"/>
+        <v>-17.662559999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E96">
         <v>94</v>
       </c>
@@ -4429,39 +5193,47 @@
         <v>94</v>
       </c>
       <c r="G96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.512000000000004</v>
       </c>
       <c r="H96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.512000000000004</v>
       </c>
       <c r="I96">
-        <f t="shared" si="10"/>
-        <v>4.060800000000004</v>
+        <f t="shared" si="12"/>
+        <v>7.3094400000000075</v>
       </c>
       <c r="J96">
+        <f t="shared" si="19"/>
+        <v>0.81216000000000077</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="13"/>
+        <v>75.2</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="14"/>
+        <v>75.2</v>
+      </c>
+      <c r="M96">
         <f t="shared" si="15"/>
-        <v>4.060800000000004</v>
-      </c>
-      <c r="K96">
-        <f t="shared" si="11"/>
-        <v>75.2</v>
-      </c>
-      <c r="L96">
-        <f t="shared" si="12"/>
-        <v>75.2</v>
-      </c>
-      <c r="M96">
-        <f t="shared" si="13"/>
-        <v>79.260800000000003</v>
+        <v>82.509440000000012</v>
       </c>
       <c r="N96">
-        <f t="shared" si="14"/>
-        <v>79.260800000000003</v>
-      </c>
-    </row>
-    <row r="97" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>76.012160000000009</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="17"/>
+        <v>-11.490559999999988</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="18"/>
+        <v>-17.987839999999991</v>
+      </c>
+    </row>
+    <row r="97" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E97">
         <v>95</v>
       </c>
@@ -4469,39 +5241,47 @@
         <v>95</v>
       </c>
       <c r="G97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.8000000000000034</v>
       </c>
       <c r="H97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.8000000000000034</v>
       </c>
       <c r="I97">
-        <f t="shared" si="10"/>
-        <v>3.420000000000003</v>
+        <f t="shared" si="12"/>
+        <v>6.1560000000000059</v>
       </c>
       <c r="J97">
+        <f t="shared" si="19"/>
+        <v>0.68400000000000061</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="13"/>
+        <v>76</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="M97">
         <f t="shared" si="15"/>
-        <v>3.420000000000003</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="11"/>
-        <v>76</v>
-      </c>
-      <c r="L97">
-        <f t="shared" si="12"/>
-        <v>76</v>
-      </c>
-      <c r="M97">
-        <f t="shared" si="13"/>
-        <v>79.42</v>
+        <v>82.156000000000006</v>
       </c>
       <c r="N97">
-        <f t="shared" si="14"/>
-        <v>79.42</v>
-      </c>
-    </row>
-    <row r="98" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>76.683999999999997</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="17"/>
+        <v>-12.843999999999994</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="18"/>
+        <v>-18.316000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E98">
         <v>96</v>
       </c>
@@ -4509,39 +5289,47 @@
         <v>96</v>
       </c>
       <c r="G98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.0720000000000032</v>
       </c>
       <c r="H98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.0720000000000032</v>
       </c>
       <c r="I98">
-        <f t="shared" si="10"/>
-        <v>2.7648000000000033</v>
+        <f t="shared" si="12"/>
+        <v>4.9766400000000051</v>
       </c>
       <c r="J98">
+        <f t="shared" si="19"/>
+        <v>0.55296000000000067</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="13"/>
+        <v>76.800000000000011</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="14"/>
+        <v>76.800000000000011</v>
+      </c>
+      <c r="M98">
         <f t="shared" si="15"/>
-        <v>2.7648000000000033</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="11"/>
-        <v>76.800000000000011</v>
-      </c>
-      <c r="L98">
-        <f t="shared" si="12"/>
-        <v>76.800000000000011</v>
-      </c>
-      <c r="M98">
-        <f t="shared" si="13"/>
-        <v>79.56480000000002</v>
+        <v>81.776640000000015</v>
       </c>
       <c r="N98">
-        <f t="shared" si="14"/>
-        <v>79.56480000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>77.35296000000001</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="17"/>
+        <v>-14.223359999999985</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="18"/>
+        <v>-18.64703999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E99">
         <v>97</v>
       </c>
@@ -4549,39 +5337,47 @@
         <v>97</v>
       </c>
       <c r="G99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.3280000000000025</v>
       </c>
       <c r="H99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.3280000000000025</v>
       </c>
       <c r="I99">
-        <f t="shared" si="10"/>
-        <v>2.0952000000000024</v>
+        <f t="shared" si="12"/>
+        <v>3.7713600000000045</v>
       </c>
       <c r="J99">
+        <f t="shared" si="19"/>
+        <v>0.41904000000000047</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="13"/>
+        <v>77.600000000000023</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="14"/>
+        <v>77.600000000000023</v>
+      </c>
+      <c r="M99">
         <f t="shared" si="15"/>
-        <v>2.0952000000000024</v>
-      </c>
-      <c r="K99">
-        <f t="shared" si="11"/>
-        <v>77.600000000000023</v>
-      </c>
-      <c r="L99">
-        <f t="shared" si="12"/>
-        <v>77.600000000000023</v>
-      </c>
-      <c r="M99">
-        <f t="shared" si="13"/>
-        <v>79.695200000000028</v>
+        <v>81.371360000000024</v>
       </c>
       <c r="N99">
-        <f t="shared" si="14"/>
-        <v>79.695200000000028</v>
-      </c>
-    </row>
-    <row r="100" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>78.019040000000018</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="17"/>
+        <v>-15.628639999999976</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="18"/>
+        <v>-18.980959999999982</v>
+      </c>
+    </row>
+    <row r="100" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E100">
         <v>98</v>
       </c>
@@ -4589,39 +5385,47 @@
         <v>98</v>
       </c>
       <c r="G100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5680000000000016</v>
       </c>
       <c r="H100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5680000000000016</v>
       </c>
       <c r="I100">
-        <f t="shared" si="10"/>
-        <v>1.4112000000000016</v>
+        <f t="shared" si="12"/>
+        <v>2.5401600000000024</v>
       </c>
       <c r="J100">
+        <f t="shared" si="19"/>
+        <v>0.28224000000000032</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="13"/>
+        <v>78.400000000000006</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="14"/>
+        <v>78.400000000000006</v>
+      </c>
+      <c r="M100">
         <f t="shared" si="15"/>
-        <v>1.4112000000000016</v>
-      </c>
-      <c r="K100">
-        <f t="shared" si="11"/>
-        <v>78.400000000000006</v>
-      </c>
-      <c r="L100">
-        <f t="shared" si="12"/>
-        <v>78.400000000000006</v>
-      </c>
-      <c r="M100">
-        <f t="shared" si="13"/>
-        <v>79.811200000000014</v>
+        <v>80.940160000000006</v>
       </c>
       <c r="N100">
-        <f t="shared" si="14"/>
-        <v>79.811200000000014</v>
-      </c>
-    </row>
-    <row r="101" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>78.682240000000007</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="17"/>
+        <v>-17.059839999999994</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="18"/>
+        <v>-19.317759999999993</v>
+      </c>
+    </row>
+    <row r="101" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E101">
         <v>99</v>
       </c>
@@ -4629,39 +5433,47 @@
         <v>99</v>
       </c>
       <c r="G101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.7920000000000007</v>
       </c>
       <c r="H101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7920000000000007</v>
       </c>
       <c r="I101">
-        <f t="shared" si="10"/>
-        <v>0.71280000000000066</v>
+        <f t="shared" si="12"/>
+        <v>1.2830400000000013</v>
       </c>
       <c r="J101">
+        <f t="shared" si="19"/>
+        <v>0.14256000000000013</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="13"/>
+        <v>79.2</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="14"/>
+        <v>79.2</v>
+      </c>
+      <c r="M101">
         <f t="shared" si="15"/>
-        <v>0.71280000000000066</v>
-      </c>
-      <c r="K101">
-        <f t="shared" si="11"/>
-        <v>79.2</v>
-      </c>
-      <c r="L101">
-        <f t="shared" si="12"/>
-        <v>79.2</v>
-      </c>
-      <c r="M101">
-        <f t="shared" si="13"/>
-        <v>79.912800000000004</v>
+        <v>80.483040000000003</v>
       </c>
       <c r="N101">
-        <f t="shared" si="14"/>
-        <v>79.912800000000004</v>
-      </c>
-    </row>
-    <row r="102" spans="5:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>79.342560000000006</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="17"/>
+        <v>-18.516959999999997</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="18"/>
+        <v>-19.657439999999994</v>
+      </c>
+    </row>
+    <row r="102" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E102">
         <v>100</v>
       </c>
@@ -4669,36 +5481,44 @@
         <v>100</v>
       </c>
       <c r="G102">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I102">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
+      <c r="H102">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="J102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K102">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="L102">
-        <f t="shared" si="12"/>
-        <v>80</v>
-      </c>
-      <c r="M102">
         <f t="shared" si="13"/>
         <v>80</v>
       </c>
-      <c r="N102">
+      <c r="L102">
         <f t="shared" si="14"/>
         <v>80</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="15"/>
+        <v>80</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="17"/>
+        <v>-20</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="18"/>
+        <v>-20</v>
       </c>
     </row>
   </sheetData>

--- a/data/ToyModel.xlsx
+++ b/data/ToyModel.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmlawson/github/transboundary_life_history/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A62518-DCF5-6D48-AC54-A8D1D100B4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9953EA6-51A4-9C42-8464-92E7D99B5192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="2260" windowWidth="25600" windowHeight="19980" xr2:uid="{8F09F8A9-540D-E440-A29E-536394C36816}"/>
+    <workbookView xWindow="38460" yWindow="540" windowWidth="25600" windowHeight="19980" activeTab="2" xr2:uid="{8F09F8A9-540D-E440-A29E-536394C36816}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Non-coop" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
   <si>
     <t>x_a</t>
   </si>
@@ -136,13 +138,66 @@
   <si>
     <t>diff_b</t>
   </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>phi_hat_a</t>
+  </si>
+  <si>
+    <t>phi_hat_b</t>
+  </si>
+  <si>
+    <t>e_hat_a</t>
+  </si>
+  <si>
+    <t>e_hat_b</t>
+  </si>
+  <si>
+    <t>p_a</t>
+  </si>
+  <si>
+    <t>c_a</t>
+  </si>
+  <si>
+    <t>b_a</t>
+  </si>
+  <si>
+    <t>p_b</t>
+  </si>
+  <si>
+    <t>c_b</t>
+  </si>
+  <si>
+    <t>b_b</t>
+  </si>
+  <si>
+    <t>phi_star_a</t>
+  </si>
+  <si>
+    <t>phi_star_b</t>
+  </si>
+  <si>
+    <t>e_star_a</t>
+  </si>
+  <si>
+    <t>e_star_b</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -170,8 +225,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1032CD-C2E8-F243-A1E3-DCA74D552D4C}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q79" sqref="Q79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,11 +666,11 @@
         <v>0.79200000000000004</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="1">$B$9*F3*(1-F3/$B$8)</f>
+        <f>$B$9*F3*(1-F3/$B$8)</f>
         <v>0.79200000000000004</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="2">$B$22*((G3*$B$17)+(H3*$B$16))</f>
+        <f t="shared" ref="I3:I66" si="1">$B$22*((G3*$B$17)+(H3*$B$16))</f>
         <v>1.2830400000000002</v>
       </c>
       <c r="J3">
@@ -622,27 +678,27 @@
         <v>0.14256000000000002</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="3">($B$20*(E3*$B$13))+($B$21*(F3*$B$12))</f>
+        <f t="shared" ref="K3:K66" si="2">($B$20*(E3*$B$13))+($B$21*(F3*$B$12))</f>
         <v>0.80000000000000016</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="4">($B$21*(F3*$B$14))+($B$20*(E3*$B$11))</f>
+        <f t="shared" ref="L3:L66" si="3">($B$21*(F3*$B$14))+($B$20*(E3*$B$11))</f>
         <v>0.80000000000000016</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="5">I3+K3</f>
+        <f t="shared" ref="M3:M66" si="4">I3+K3</f>
         <v>2.0830400000000004</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="6">J3+L3</f>
+        <f t="shared" ref="N3:N66" si="5">J3+L3</f>
         <v>0.94256000000000018</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O66" si="7">M3-E3</f>
+        <f t="shared" ref="O3:O66" si="6">M3-E3</f>
         <v>1.0830400000000004</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="8">N3-F3</f>
+        <f t="shared" ref="P3:P66" si="7">N3-F3</f>
         <v>-5.7439999999999825E-2</v>
       </c>
     </row>
@@ -664,11 +720,11 @@
         <v>1.5680000000000001</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H4:H66" si="8">$B$9*F4*(1-F4/$B$8)</f>
         <v>1.5680000000000001</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.5401600000000002</v>
       </c>
       <c r="J4">
@@ -676,27 +732,27 @@
         <v>0.28224000000000005</v>
       </c>
       <c r="K4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.6000000000000003</v>
       </c>
       <c r="L4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6000000000000003</v>
       </c>
       <c r="M4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.1401600000000007</v>
       </c>
       <c r="N4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.8822400000000004</v>
       </c>
       <c r="O4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.1401600000000007</v>
       </c>
       <c r="P4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.11775999999999964</v>
       </c>
     </row>
@@ -712,11 +768,11 @@
         <v>2.3280000000000003</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>2.3280000000000003</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.7713600000000005</v>
       </c>
       <c r="J5">
@@ -724,27 +780,27 @@
         <v>0.41904000000000008</v>
       </c>
       <c r="K5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.4000000000000004</v>
       </c>
       <c r="L5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.4000000000000004</v>
       </c>
       <c r="M5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.1713600000000008</v>
       </c>
       <c r="N5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.8190400000000002</v>
       </c>
       <c r="O5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.1713600000000008</v>
       </c>
       <c r="P5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.18095999999999979</v>
       </c>
     </row>
@@ -766,11 +822,11 @@
         <v>3.0720000000000001</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>3.0720000000000001</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.9766400000000006</v>
       </c>
       <c r="J6">
@@ -778,27 +834,27 @@
         <v>0.55296000000000012</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.2000000000000006</v>
       </c>
       <c r="L6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.2000000000000006</v>
       </c>
       <c r="M6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.1766400000000008</v>
       </c>
       <c r="N6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.7529600000000007</v>
       </c>
       <c r="O6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4.1766400000000008</v>
       </c>
       <c r="P6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.24703999999999926</v>
       </c>
     </row>
@@ -820,11 +876,11 @@
         <v>3.8</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>3.8</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1559999999999997</v>
       </c>
       <c r="J7">
@@ -832,27 +888,27 @@
         <v>0.68400000000000005</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="M7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10.155999999999999</v>
       </c>
       <c r="N7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.6840000000000002</v>
       </c>
       <c r="O7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5.1559999999999988</v>
       </c>
       <c r="P7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.31599999999999984</v>
       </c>
     </row>
@@ -874,11 +930,11 @@
         <v>4.5120000000000005</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>4.5120000000000005</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.3094400000000013</v>
       </c>
       <c r="J8">
@@ -886,27 +942,27 @@
         <v>0.8121600000000001</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="M8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12.109440000000003</v>
       </c>
       <c r="N8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.6121600000000011</v>
       </c>
       <c r="O8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.1094400000000029</v>
       </c>
       <c r="P8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.38783999999999885</v>
       </c>
     </row>
@@ -928,11 +984,11 @@
         <v>5.2080000000000002</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>5.2080000000000002</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.4369600000000009</v>
       </c>
       <c r="J9">
@@ -940,27 +996,27 @@
         <v>0.93744000000000005</v>
       </c>
       <c r="K9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6000000000000005</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.6000000000000005</v>
       </c>
       <c r="M9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.036960000000001</v>
       </c>
       <c r="N9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.5374400000000001</v>
       </c>
       <c r="O9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.0369600000000005</v>
       </c>
       <c r="P9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.46255999999999986</v>
       </c>
     </row>
@@ -976,11 +1032,11 @@
         <v>5.8880000000000008</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>5.8880000000000008</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.5385600000000021</v>
       </c>
       <c r="J10">
@@ -988,27 +1044,27 @@
         <v>1.0598400000000001</v>
       </c>
       <c r="K10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.4000000000000012</v>
       </c>
       <c r="L10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.4000000000000012</v>
       </c>
       <c r="M10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15.938560000000003</v>
       </c>
       <c r="N10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.4598400000000016</v>
       </c>
       <c r="O10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.9385600000000025</v>
       </c>
       <c r="P10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.54015999999999842</v>
       </c>
     </row>
@@ -1030,11 +1086,11 @@
         <v>6.5520000000000005</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>6.5520000000000005</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.614240000000002</v>
       </c>
       <c r="J11">
@@ -1042,27 +1098,27 @@
         <v>1.1793600000000002</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.2000000000000011</v>
       </c>
       <c r="L11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.2000000000000011</v>
       </c>
       <c r="M11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17.814240000000005</v>
       </c>
       <c r="N11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.3793600000000019</v>
       </c>
       <c r="O11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.8142400000000052</v>
       </c>
       <c r="P11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.62063999999999808</v>
       </c>
     </row>
@@ -1084,11 +1140,11 @@
         <v>7.2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>7.2</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11.664000000000001</v>
       </c>
       <c r="J12">
@@ -1096,27 +1152,27 @@
         <v>1.2960000000000003</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="M12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19.664000000000001</v>
       </c>
       <c r="N12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9.2959999999999994</v>
       </c>
       <c r="O12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.6640000000000015</v>
       </c>
       <c r="P12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.70400000000000063</v>
       </c>
     </row>
@@ -1139,11 +1195,11 @@
         <v>7.8320000000000007</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>7.8320000000000007</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12.687840000000001</v>
       </c>
       <c r="J13">
@@ -1151,27 +1207,27 @@
         <v>1.4097600000000003</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="M13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21.487840000000002</v>
       </c>
       <c r="N13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10.209760000000001</v>
       </c>
       <c r="O13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10.487840000000002</v>
       </c>
       <c r="P13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.79023999999999894</v>
       </c>
     </row>
@@ -1194,11 +1250,11 @@
         <v>8.4480000000000022</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>8.4480000000000022</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13.685760000000004</v>
       </c>
       <c r="J14">
@@ -1206,27 +1262,27 @@
         <v>1.5206400000000004</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="M14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23.285760000000003</v>
       </c>
       <c r="N14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11.120640000000002</v>
       </c>
       <c r="O14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11.285760000000003</v>
       </c>
       <c r="P14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.87935999999999837</v>
       </c>
     </row>
@@ -1248,11 +1304,11 @@
         <v>9.048</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>9.048</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14.657760000000001</v>
       </c>
       <c r="J15">
@@ -1260,27 +1316,27 @@
         <v>1.6286400000000001</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.4</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10.4</v>
       </c>
       <c r="M15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25.057760000000002</v>
       </c>
       <c r="N15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12.028640000000001</v>
       </c>
       <c r="O15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12.057760000000002</v>
       </c>
       <c r="P15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.97135999999999889</v>
       </c>
     </row>
@@ -1302,11 +1358,11 @@
         <v>9.6320000000000014</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>9.6320000000000014</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15.603840000000002</v>
       </c>
       <c r="J16">
@@ -1314,27 +1370,27 @@
         <v>1.7337600000000004</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11.200000000000001</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11.200000000000001</v>
       </c>
       <c r="M16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26.803840000000001</v>
       </c>
       <c r="N16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12.933760000000001</v>
       </c>
       <c r="O16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12.803840000000001</v>
       </c>
       <c r="P16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1.0662399999999987</v>
       </c>
     </row>
@@ -1357,11 +1413,11 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>10.199999999999999</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16.524000000000001</v>
       </c>
       <c r="J17">
@@ -1369,27 +1425,27 @@
         <v>1.8360000000000001</v>
       </c>
       <c r="K17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12.000000000000002</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12.000000000000002</v>
       </c>
       <c r="M17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28.524000000000001</v>
       </c>
       <c r="N17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13.836000000000002</v>
       </c>
       <c r="O17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>13.524000000000001</v>
       </c>
       <c r="P17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1.1639999999999979</v>
       </c>
     </row>
@@ -1412,11 +1468,11 @@
         <v>10.752000000000001</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>10.752000000000001</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17.418240000000001</v>
       </c>
       <c r="J18">
@@ -1424,27 +1480,27 @@
         <v>1.9353600000000004</v>
       </c>
       <c r="K18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12.800000000000002</v>
       </c>
       <c r="L18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12.800000000000002</v>
       </c>
       <c r="M18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30.218240000000002</v>
       </c>
       <c r="N18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.735360000000004</v>
       </c>
       <c r="O18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14.218240000000002</v>
       </c>
       <c r="P18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1.2646399999999964</v>
       </c>
     </row>
@@ -1460,11 +1516,11 @@
         <v>11.288</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>11.288</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18.286560000000001</v>
       </c>
       <c r="J19">
@@ -1472,27 +1528,27 @@
         <v>2.0318400000000003</v>
       </c>
       <c r="K19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13.600000000000003</v>
       </c>
       <c r="L19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13.600000000000003</v>
       </c>
       <c r="M19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31.886560000000003</v>
       </c>
       <c r="N19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15.631840000000004</v>
       </c>
       <c r="O19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14.886560000000003</v>
       </c>
       <c r="P19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1.368159999999996</v>
       </c>
     </row>
@@ -1514,11 +1570,11 @@
         <v>11.808000000000002</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>11.808000000000002</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19.128960000000003</v>
       </c>
       <c r="J20">
@@ -1526,27 +1582,27 @@
         <v>2.1254400000000007</v>
       </c>
       <c r="K20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14.400000000000002</v>
       </c>
       <c r="L20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14.400000000000002</v>
       </c>
       <c r="M20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33.528960000000005</v>
       </c>
       <c r="N20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.525440000000003</v>
       </c>
       <c r="O20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>15.528960000000005</v>
       </c>
       <c r="P20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1.4745599999999968</v>
       </c>
     </row>
@@ -1568,11 +1624,11 @@
         <v>12.312000000000001</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>12.312000000000001</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19.945440000000005</v>
       </c>
       <c r="J21">
@@ -1580,27 +1636,27 @@
         <v>2.2161600000000008</v>
       </c>
       <c r="K21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15.200000000000003</v>
       </c>
       <c r="L21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15.200000000000003</v>
       </c>
       <c r="M21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35.145440000000008</v>
       </c>
       <c r="N21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17.416160000000005</v>
       </c>
       <c r="O21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.145440000000008</v>
       </c>
       <c r="P21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1.583839999999995</v>
       </c>
     </row>
@@ -1622,11 +1678,11 @@
         <v>12.8</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>12.8</v>
       </c>
       <c r="I22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20.736000000000004</v>
       </c>
       <c r="J22">
@@ -1634,27 +1690,27 @@
         <v>2.3040000000000007</v>
       </c>
       <c r="K22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="L22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="M22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36.736000000000004</v>
       </c>
       <c r="N22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>18.304000000000002</v>
       </c>
       <c r="O22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.736000000000004</v>
       </c>
       <c r="P22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1.695999999999998</v>
       </c>
     </row>
@@ -1676,11 +1732,11 @@
         <v>13.272000000000002</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>13.272000000000002</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21.500640000000004</v>
       </c>
       <c r="J23">
@@ -1688,27 +1744,27 @@
         <v>2.3889600000000009</v>
       </c>
       <c r="K23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16.8</v>
       </c>
       <c r="L23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16.8</v>
       </c>
       <c r="M23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>38.300640000000001</v>
       </c>
       <c r="N23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>19.188960000000002</v>
       </c>
       <c r="O23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>17.300640000000001</v>
       </c>
       <c r="P23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1.8110399999999984</v>
       </c>
     </row>
@@ -1724,11 +1780,11 @@
         <v>13.728000000000002</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>13.728000000000002</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22.239360000000005</v>
       </c>
       <c r="J24">
@@ -1736,27 +1792,27 @@
         <v>2.4710400000000003</v>
       </c>
       <c r="K24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17.600000000000001</v>
       </c>
       <c r="L24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17.600000000000001</v>
       </c>
       <c r="M24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>39.839360000000006</v>
       </c>
       <c r="N24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20.071040000000004</v>
       </c>
       <c r="O24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>17.839360000000006</v>
       </c>
       <c r="P24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1.9289599999999965</v>
       </c>
     </row>
@@ -1775,11 +1831,11 @@
         <v>14.168000000000003</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>14.168000000000003</v>
       </c>
       <c r="I25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22.952160000000006</v>
       </c>
       <c r="J25">
@@ -1787,27 +1843,27 @@
         <v>2.5502400000000005</v>
       </c>
       <c r="K25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18.400000000000002</v>
       </c>
       <c r="L25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18.400000000000002</v>
       </c>
       <c r="M25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>41.352160000000012</v>
       </c>
       <c r="N25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20.950240000000001</v>
       </c>
       <c r="O25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>18.352160000000012</v>
       </c>
       <c r="P25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-2.0497599999999991</v>
       </c>
     </row>
@@ -1830,11 +1886,11 @@
         <v>14.592000000000002</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>14.592000000000002</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23.639040000000005</v>
       </c>
       <c r="J26">
@@ -1842,27 +1898,27 @@
         <v>2.6265600000000004</v>
       </c>
       <c r="K26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19.200000000000003</v>
       </c>
       <c r="L26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19.200000000000003</v>
       </c>
       <c r="M26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>42.839040000000011</v>
       </c>
       <c r="N26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21.826560000000004</v>
       </c>
       <c r="O26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>18.839040000000011</v>
       </c>
       <c r="P26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-2.1734399999999958</v>
       </c>
     </row>
@@ -1885,11 +1941,11 @@
         <v>15</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24.3</v>
       </c>
       <c r="J27">
@@ -1897,27 +1953,27 @@
         <v>2.7</v>
       </c>
       <c r="K27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="M27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44.3</v>
       </c>
       <c r="N27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>22.7</v>
       </c>
       <c r="O27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>19.299999999999997</v>
       </c>
       <c r="P27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-2.3000000000000007</v>
       </c>
     </row>
@@ -1933,11 +1989,11 @@
         <v>15.391999999999999</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>15.391999999999999</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24.935040000000001</v>
       </c>
       <c r="J28">
@@ -1945,27 +2001,27 @@
         <v>2.7705600000000001</v>
       </c>
       <c r="K28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20.8</v>
       </c>
       <c r="L28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20.8</v>
       </c>
       <c r="M28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>45.735039999999998</v>
       </c>
       <c r="N28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>23.57056</v>
       </c>
       <c r="O28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>19.735039999999998</v>
       </c>
       <c r="P28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-2.4294399999999996</v>
       </c>
     </row>
@@ -1981,11 +2037,11 @@
         <v>15.768000000000001</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>15.768000000000001</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25.544160000000005</v>
       </c>
       <c r="J29">
@@ -1993,27 +2049,27 @@
         <v>2.8382400000000003</v>
       </c>
       <c r="K29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21.6</v>
       </c>
       <c r="L29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21.6</v>
       </c>
       <c r="M29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>47.144160000000007</v>
       </c>
       <c r="N29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>24.43824</v>
       </c>
       <c r="O29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>20.144160000000007</v>
       </c>
       <c r="P29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-2.5617599999999996</v>
       </c>
     </row>
@@ -2029,11 +2085,11 @@
         <v>16.128</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>16.128</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26.127359999999999</v>
       </c>
       <c r="J30">
@@ -2041,27 +2097,27 @@
         <v>2.9030400000000003</v>
       </c>
       <c r="K30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22.400000000000002</v>
       </c>
       <c r="L30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22.400000000000002</v>
       </c>
       <c r="M30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>48.527360000000002</v>
       </c>
       <c r="N30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25.303040000000003</v>
       </c>
       <c r="O30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>20.527360000000002</v>
       </c>
       <c r="P30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-2.6969599999999971</v>
       </c>
     </row>
@@ -2077,11 +2133,11 @@
         <v>16.472000000000001</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>16.472000000000001</v>
       </c>
       <c r="I31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26.684640000000002</v>
       </c>
       <c r="J31">
@@ -2089,27 +2145,27 @@
         <v>2.9649600000000005</v>
       </c>
       <c r="K31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23.200000000000003</v>
       </c>
       <c r="L31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23.200000000000003</v>
       </c>
       <c r="M31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>49.884640000000005</v>
       </c>
       <c r="N31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26.164960000000004</v>
       </c>
       <c r="O31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>20.884640000000005</v>
       </c>
       <c r="P31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-2.8350399999999958</v>
       </c>
     </row>
@@ -2125,11 +2181,11 @@
         <v>16.799999999999997</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>16.799999999999997</v>
       </c>
       <c r="I32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27.215999999999998</v>
       </c>
       <c r="J32">
@@ -2137,27 +2193,27 @@
         <v>3.0239999999999996</v>
       </c>
       <c r="K32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24.000000000000004</v>
       </c>
       <c r="L32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24.000000000000004</v>
       </c>
       <c r="M32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>51.216000000000001</v>
       </c>
       <c r="N32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>27.024000000000004</v>
       </c>
       <c r="O32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>21.216000000000001</v>
       </c>
       <c r="P32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-2.9759999999999955</v>
       </c>
     </row>
@@ -2173,11 +2229,11 @@
         <v>17.111999999999998</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>17.111999999999998</v>
       </c>
       <c r="I33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27.721439999999998</v>
       </c>
       <c r="J33">
@@ -2185,27 +2241,27 @@
         <v>3.0801599999999998</v>
       </c>
       <c r="K33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24.800000000000004</v>
       </c>
       <c r="L33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24.800000000000004</v>
       </c>
       <c r="M33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52.521439999999998</v>
       </c>
       <c r="N33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>27.880160000000004</v>
       </c>
       <c r="O33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>21.521439999999998</v>
       </c>
       <c r="P33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-3.1198399999999964</v>
       </c>
     </row>
@@ -2221,11 +2277,11 @@
         <v>17.407999999999998</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>17.407999999999998</v>
       </c>
       <c r="I34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28.200959999999995</v>
       </c>
       <c r="J34">
@@ -2233,27 +2289,27 @@
         <v>3.1334399999999998</v>
       </c>
       <c r="K34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25.600000000000005</v>
       </c>
       <c r="L34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25.600000000000005</v>
       </c>
       <c r="M34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.800960000000003</v>
       </c>
       <c r="N34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>28.733440000000005</v>
       </c>
       <c r="O34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>21.800960000000003</v>
       </c>
       <c r="P34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-3.2665599999999948</v>
       </c>
     </row>
@@ -2269,11 +2325,11 @@
         <v>17.687999999999999</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>17.687999999999999</v>
       </c>
       <c r="I35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28.65456</v>
       </c>
       <c r="J35">
@@ -2281,27 +2337,27 @@
         <v>3.18384</v>
       </c>
       <c r="K35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26.400000000000006</v>
       </c>
       <c r="L35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26.400000000000006</v>
       </c>
       <c r="M35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.054560000000009</v>
       </c>
       <c r="N35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>29.583840000000006</v>
       </c>
       <c r="O35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>22.054560000000009</v>
       </c>
       <c r="P35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-3.4161599999999943</v>
       </c>
     </row>
@@ -2317,11 +2373,11 @@
         <v>17.951999999999998</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>17.951999999999998</v>
       </c>
       <c r="I36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29.082239999999995</v>
       </c>
       <c r="J36">
@@ -2329,27 +2385,27 @@
         <v>3.23136</v>
       </c>
       <c r="K36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27.200000000000006</v>
       </c>
       <c r="L36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27.200000000000006</v>
       </c>
       <c r="M36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.282240000000002</v>
       </c>
       <c r="N36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>30.431360000000005</v>
       </c>
       <c r="O36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>22.282240000000002</v>
       </c>
       <c r="P36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-3.5686399999999949</v>
       </c>
     </row>
@@ -2365,11 +2421,11 @@
         <v>18.2</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>18.2</v>
       </c>
       <c r="I37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29.483999999999998</v>
       </c>
       <c r="J37">
@@ -2377,27 +2433,27 @@
         <v>3.2760000000000002</v>
       </c>
       <c r="K37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28.000000000000004</v>
       </c>
       <c r="L37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28.000000000000004</v>
       </c>
       <c r="M37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.484000000000002</v>
       </c>
       <c r="N37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>31.276000000000003</v>
       </c>
       <c r="O37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>22.484000000000002</v>
       </c>
       <c r="P37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-3.7239999999999966</v>
       </c>
     </row>
@@ -2413,11 +2469,11 @@
         <v>18.432000000000002</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>18.432000000000002</v>
       </c>
       <c r="I38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29.859840000000005</v>
       </c>
       <c r="J38">
@@ -2425,27 +2481,27 @@
         <v>3.3177600000000007</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28.800000000000004</v>
       </c>
       <c r="L38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28.800000000000004</v>
       </c>
       <c r="M38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.65984000000001</v>
       </c>
       <c r="N38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>32.117760000000004</v>
       </c>
       <c r="O38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>22.65984000000001</v>
       </c>
       <c r="P38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-3.8822399999999959</v>
       </c>
     </row>
@@ -2461,11 +2517,11 @@
         <v>18.648</v>
       </c>
       <c r="H39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>18.648</v>
       </c>
       <c r="I39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30.209760000000003</v>
       </c>
       <c r="J39">
@@ -2473,27 +2529,27 @@
         <v>3.3566400000000001</v>
       </c>
       <c r="K39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29.600000000000005</v>
       </c>
       <c r="L39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29.600000000000005</v>
       </c>
       <c r="M39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.809760000000011</v>
       </c>
       <c r="N39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>32.956640000000007</v>
       </c>
       <c r="O39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>22.809760000000011</v>
       </c>
       <c r="P39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-4.0433599999999927</v>
       </c>
     </row>
@@ -2509,11 +2565,11 @@
         <v>18.848000000000003</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>18.848000000000003</v>
       </c>
       <c r="I40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30.533760000000001</v>
       </c>
       <c r="J40">
@@ -2521,27 +2577,27 @@
         <v>3.3926400000000005</v>
       </c>
       <c r="K40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30.400000000000006</v>
       </c>
       <c r="L40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30.400000000000006</v>
       </c>
       <c r="M40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.933760000000007</v>
       </c>
       <c r="N40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>33.792640000000006</v>
       </c>
       <c r="O40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>22.933760000000007</v>
       </c>
       <c r="P40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-4.2073599999999942</v>
       </c>
     </row>
@@ -2557,11 +2613,11 @@
         <v>19.032</v>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.032</v>
       </c>
       <c r="I41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30.831839999999996</v>
       </c>
       <c r="J41">
@@ -2569,27 +2625,27 @@
         <v>3.4257599999999999</v>
       </c>
       <c r="K41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>31.200000000000006</v>
       </c>
       <c r="L41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31.200000000000006</v>
       </c>
       <c r="M41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.031840000000003</v>
       </c>
       <c r="N41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>34.625760000000007</v>
       </c>
       <c r="O41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>23.031840000000003</v>
       </c>
       <c r="P41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-4.3742399999999932</v>
       </c>
     </row>
@@ -2605,11 +2661,11 @@
         <v>19.2</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.2</v>
       </c>
       <c r="I42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31.104000000000003</v>
       </c>
       <c r="J42">
@@ -2617,27 +2673,27 @@
         <v>3.456</v>
       </c>
       <c r="K42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="L42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="M42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.103999999999999</v>
       </c>
       <c r="N42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>35.456000000000003</v>
       </c>
       <c r="O42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>23.103999999999999</v>
       </c>
       <c r="P42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-4.5439999999999969</v>
       </c>
     </row>
@@ -2653,11 +2709,11 @@
         <v>19.352000000000004</v>
       </c>
       <c r="H43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.352000000000004</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31.350240000000003</v>
       </c>
       <c r="J43">
@@ -2665,27 +2721,27 @@
         <v>3.4833600000000011</v>
       </c>
       <c r="K43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>32.800000000000004</v>
       </c>
       <c r="L43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32.800000000000004</v>
       </c>
       <c r="M43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.150240000000011</v>
       </c>
       <c r="N43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>36.283360000000002</v>
       </c>
       <c r="O43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>23.150240000000011</v>
       </c>
       <c r="P43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-4.7166399999999982</v>
       </c>
     </row>
@@ -2701,11 +2757,11 @@
         <v>19.488000000000003</v>
       </c>
       <c r="H44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.488000000000003</v>
       </c>
       <c r="I44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31.570560000000004</v>
       </c>
       <c r="J44">
@@ -2713,27 +2769,27 @@
         <v>3.5078400000000007</v>
       </c>
       <c r="K44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>33.6</v>
       </c>
       <c r="L44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33.6</v>
       </c>
       <c r="M44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.170560000000009</v>
       </c>
       <c r="N44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37.107840000000003</v>
       </c>
       <c r="O44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>23.170560000000009</v>
       </c>
       <c r="P44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-4.892159999999997</v>
       </c>
     </row>
@@ -2749,11 +2805,11 @@
         <v>19.608000000000001</v>
       </c>
       <c r="H45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.608000000000001</v>
       </c>
       <c r="I45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31.764960000000002</v>
       </c>
       <c r="J45">
@@ -2761,27 +2817,27 @@
         <v>3.5294400000000001</v>
       </c>
       <c r="K45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>34.4</v>
       </c>
       <c r="L45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34.4</v>
       </c>
       <c r="M45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.164960000000008</v>
       </c>
       <c r="N45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37.92944</v>
       </c>
       <c r="O45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>23.164960000000008</v>
       </c>
       <c r="P45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-5.0705600000000004</v>
       </c>
     </row>
@@ -2797,11 +2853,11 @@
         <v>19.712000000000003</v>
       </c>
       <c r="H46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.712000000000003</v>
       </c>
       <c r="I46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31.933440000000008</v>
       </c>
       <c r="J46">
@@ -2809,27 +2865,27 @@
         <v>3.5481600000000011</v>
       </c>
       <c r="K46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>35.200000000000003</v>
       </c>
       <c r="L46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35.200000000000003</v>
       </c>
       <c r="M46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.133440000000007</v>
       </c>
       <c r="N46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>38.748160000000006</v>
       </c>
       <c r="O46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>23.133440000000007</v>
       </c>
       <c r="P46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-5.2518399999999943</v>
       </c>
     </row>
@@ -2845,11 +2901,11 @@
         <v>19.8</v>
       </c>
       <c r="H47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.8</v>
       </c>
       <c r="I47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32.076000000000001</v>
       </c>
       <c r="J47">
@@ -2857,27 +2913,27 @@
         <v>3.5640000000000005</v>
       </c>
       <c r="K47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="M47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68.075999999999993</v>
       </c>
       <c r="N47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>39.564</v>
       </c>
       <c r="O47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>23.075999999999993</v>
       </c>
       <c r="P47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-5.4359999999999999</v>
       </c>
     </row>
@@ -2893,11 +2949,11 @@
         <v>19.872000000000003</v>
       </c>
       <c r="H48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.872000000000003</v>
       </c>
       <c r="I48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32.192640000000011</v>
       </c>
       <c r="J48">
@@ -2905,27 +2961,27 @@
         <v>3.576960000000001</v>
       </c>
       <c r="K48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36.800000000000004</v>
       </c>
       <c r="L48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36.800000000000004</v>
       </c>
       <c r="M48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68.992640000000023</v>
       </c>
       <c r="N48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.376960000000004</v>
       </c>
       <c r="O48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>22.992640000000023</v>
       </c>
       <c r="P48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-5.623039999999996</v>
       </c>
     </row>
@@ -2941,11 +2997,11 @@
         <v>19.928000000000001</v>
       </c>
       <c r="H49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.928000000000001</v>
       </c>
       <c r="I49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32.283360000000002</v>
       </c>
       <c r="J49">
@@ -2953,27 +3009,27 @@
         <v>3.5870400000000005</v>
       </c>
       <c r="K49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>37.6</v>
       </c>
       <c r="L49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>37.6</v>
       </c>
       <c r="M49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>69.88336000000001</v>
       </c>
       <c r="N49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>41.187040000000003</v>
       </c>
       <c r="O49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>22.88336000000001</v>
       </c>
       <c r="P49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-5.8129599999999968</v>
       </c>
     </row>
@@ -2989,11 +3045,11 @@
         <v>19.968000000000004</v>
       </c>
       <c r="H50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.968000000000004</v>
       </c>
       <c r="I50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32.348160000000007</v>
       </c>
       <c r="J50">
@@ -3001,27 +3057,27 @@
         <v>3.5942400000000005</v>
       </c>
       <c r="K50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>38.400000000000006</v>
       </c>
       <c r="L50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>38.400000000000006</v>
       </c>
       <c r="M50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>70.748160000000013</v>
       </c>
       <c r="N50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>41.994240000000005</v>
       </c>
       <c r="O50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>22.748160000000013</v>
       </c>
       <c r="P50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-6.0057599999999951</v>
       </c>
     </row>
@@ -3037,11 +3093,11 @@
         <v>19.992000000000001</v>
       </c>
       <c r="H51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.992000000000001</v>
       </c>
       <c r="I51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32.387040000000006</v>
       </c>
       <c r="J51">
@@ -3049,27 +3105,27 @@
         <v>3.5985600000000004</v>
       </c>
       <c r="K51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>39.200000000000003</v>
       </c>
       <c r="L51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>39.200000000000003</v>
       </c>
       <c r="M51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>71.587040000000002</v>
       </c>
       <c r="N51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.798560000000002</v>
       </c>
       <c r="O51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>22.587040000000002</v>
       </c>
       <c r="P51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-6.2014399999999981</v>
       </c>
     </row>
@@ -3085,11 +3141,11 @@
         <v>20</v>
       </c>
       <c r="H52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="I52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32.4</v>
       </c>
       <c r="J52">
@@ -3097,27 +3153,27 @@
         <v>3.6</v>
       </c>
       <c r="K52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="M52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>72.400000000000006</v>
       </c>
       <c r="N52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43.6</v>
       </c>
       <c r="O52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>22.400000000000006</v>
       </c>
       <c r="P52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-6.3999999999999986</v>
       </c>
     </row>
@@ -3133,11 +3189,11 @@
         <v>19.992000000000001</v>
       </c>
       <c r="H53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.992000000000001</v>
       </c>
       <c r="I53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32.387040000000006</v>
       </c>
       <c r="J53">
@@ -3145,27 +3201,27 @@
         <v>3.5985600000000004</v>
       </c>
       <c r="K53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40.800000000000011</v>
       </c>
       <c r="L53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>40.800000000000011</v>
       </c>
       <c r="M53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>73.187040000000025</v>
       </c>
       <c r="N53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44.39856000000001</v>
       </c>
       <c r="O53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>22.187040000000025</v>
       </c>
       <c r="P53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-6.6014399999999895</v>
       </c>
     </row>
@@ -3181,11 +3237,11 @@
         <v>19.968</v>
       </c>
       <c r="H54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.968</v>
       </c>
       <c r="I54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32.34816</v>
       </c>
       <c r="J54">
@@ -3193,27 +3249,27 @@
         <v>3.5942400000000001</v>
       </c>
       <c r="K54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>41.6</v>
       </c>
       <c r="L54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>41.6</v>
       </c>
       <c r="M54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>73.948160000000001</v>
       </c>
       <c r="N54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.194240000000001</v>
       </c>
       <c r="O54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>21.948160000000001</v>
       </c>
       <c r="P54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-6.8057599999999994</v>
       </c>
     </row>
@@ -3229,11 +3285,11 @@
         <v>19.928000000000001</v>
       </c>
       <c r="H55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.928000000000001</v>
       </c>
       <c r="I55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32.283360000000002</v>
       </c>
       <c r="J55">
@@ -3241,27 +3297,27 @@
         <v>3.5870400000000005</v>
       </c>
       <c r="K55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42.400000000000013</v>
       </c>
       <c r="L55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42.400000000000013</v>
       </c>
       <c r="M55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>74.683360000000022</v>
       </c>
       <c r="N55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.987040000000015</v>
       </c>
       <c r="O55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>21.683360000000022</v>
       </c>
       <c r="P55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-7.0129599999999854</v>
       </c>
     </row>
@@ -3277,11 +3333,11 @@
         <v>19.872</v>
       </c>
       <c r="H56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.872</v>
       </c>
       <c r="I56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32.192639999999997</v>
       </c>
       <c r="J56">
@@ -3289,27 +3345,27 @@
         <v>3.5769600000000001</v>
       </c>
       <c r="K56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43.2</v>
       </c>
       <c r="L56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43.2</v>
       </c>
       <c r="M56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>75.39264</v>
       </c>
       <c r="N56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>46.776960000000003</v>
       </c>
       <c r="O56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>21.39264</v>
       </c>
       <c r="P56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-7.2230399999999975</v>
       </c>
     </row>
@@ -3325,11 +3381,11 @@
         <v>19.799999999999997</v>
       </c>
       <c r="H57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.799999999999997</v>
       </c>
       <c r="I57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32.075999999999993</v>
       </c>
       <c r="J57">
@@ -3337,27 +3393,27 @@
         <v>3.5639999999999996</v>
       </c>
       <c r="K57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="L57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="M57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>76.075999999999993</v>
       </c>
       <c r="N57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>47.564</v>
       </c>
       <c r="O57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>21.075999999999993</v>
       </c>
       <c r="P57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-7.4359999999999999</v>
       </c>
     </row>
@@ -3373,11 +3429,11 @@
         <v>19.712</v>
       </c>
       <c r="H58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.712</v>
       </c>
       <c r="I58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31.933440000000001</v>
       </c>
       <c r="J58">
@@ -3385,27 +3441,27 @@
         <v>3.5481600000000002</v>
       </c>
       <c r="K58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>44.800000000000004</v>
       </c>
       <c r="L58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44.800000000000004</v>
       </c>
       <c r="M58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>76.733440000000002</v>
       </c>
       <c r="N58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>48.348160000000007</v>
       </c>
       <c r="O58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>20.733440000000002</v>
       </c>
       <c r="P58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-7.6518399999999929</v>
       </c>
     </row>
@@ -3421,11 +3477,11 @@
         <v>19.608000000000004</v>
       </c>
       <c r="H59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.608000000000004</v>
       </c>
       <c r="I59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31.764960000000009</v>
       </c>
       <c r="J59">
@@ -3433,27 +3489,27 @@
         <v>3.529440000000001</v>
       </c>
       <c r="K59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45.600000000000009</v>
       </c>
       <c r="L59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45.600000000000009</v>
       </c>
       <c r="M59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>77.364960000000025</v>
       </c>
       <c r="N59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>49.12944000000001</v>
       </c>
       <c r="O59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>20.364960000000025</v>
       </c>
       <c r="P59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-7.8705599999999905</v>
       </c>
     </row>
@@ -3469,11 +3525,11 @@
         <v>19.488000000000003</v>
       </c>
       <c r="H60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.488000000000003</v>
       </c>
       <c r="I60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31.570560000000004</v>
       </c>
       <c r="J60">
@@ -3481,27 +3537,27 @@
         <v>3.5078400000000007</v>
       </c>
       <c r="K60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>46.400000000000006</v>
       </c>
       <c r="L60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>46.400000000000006</v>
       </c>
       <c r="M60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>77.970560000000006</v>
       </c>
       <c r="N60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>49.907840000000007</v>
       </c>
       <c r="O60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>19.970560000000006</v>
       </c>
       <c r="P60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-8.0921599999999927</v>
       </c>
     </row>
@@ -3517,11 +3573,11 @@
         <v>19.352000000000004</v>
       </c>
       <c r="H61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.352000000000004</v>
       </c>
       <c r="I61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31.350240000000003</v>
       </c>
       <c r="J61">
@@ -3529,27 +3585,27 @@
         <v>3.4833600000000011</v>
       </c>
       <c r="K61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>47.2</v>
       </c>
       <c r="L61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>47.2</v>
       </c>
       <c r="M61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>78.550240000000002</v>
       </c>
       <c r="N61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>50.683360000000008</v>
       </c>
       <c r="O61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>19.550240000000002</v>
       </c>
       <c r="P61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-8.3166399999999925</v>
       </c>
     </row>
@@ -3565,11 +3621,11 @@
         <v>19.200000000000003</v>
       </c>
       <c r="H62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.200000000000003</v>
       </c>
       <c r="I62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31.104000000000003</v>
       </c>
       <c r="J62">
@@ -3577,27 +3633,27 @@
         <v>3.4560000000000008</v>
       </c>
       <c r="K62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>48.000000000000007</v>
       </c>
       <c r="L62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>48.000000000000007</v>
       </c>
       <c r="M62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>79.104000000000013</v>
       </c>
       <c r="N62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>51.45600000000001</v>
       </c>
       <c r="O62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>19.104000000000013</v>
       </c>
       <c r="P62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-8.5439999999999898</v>
       </c>
     </row>
@@ -3613,11 +3669,11 @@
         <v>19.032000000000004</v>
       </c>
       <c r="H63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.032000000000004</v>
       </c>
       <c r="I63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30.83184000000001</v>
       </c>
       <c r="J63">
@@ -3625,27 +3681,27 @@
         <v>3.4257600000000008</v>
       </c>
       <c r="K63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>48.800000000000011</v>
       </c>
       <c r="L63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>48.800000000000011</v>
       </c>
       <c r="M63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>79.631840000000025</v>
       </c>
       <c r="N63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.225760000000015</v>
       </c>
       <c r="O63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>18.631840000000025</v>
       </c>
       <c r="P63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-8.7742399999999847</v>
       </c>
     </row>
@@ -3661,11 +3717,11 @@
         <v>18.848000000000003</v>
       </c>
       <c r="H64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>18.848000000000003</v>
       </c>
       <c r="I64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30.533760000000001</v>
       </c>
       <c r="J64">
@@ -3673,27 +3729,27 @@
         <v>3.3926400000000005</v>
       </c>
       <c r="K64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>49.600000000000009</v>
       </c>
       <c r="L64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>49.600000000000009</v>
       </c>
       <c r="M64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>80.133760000000009</v>
       </c>
       <c r="N64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.992640000000009</v>
       </c>
       <c r="O64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>18.133760000000009</v>
       </c>
       <c r="P64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-9.0073599999999914</v>
       </c>
     </row>
@@ -3709,11 +3765,11 @@
         <v>18.648000000000003</v>
       </c>
       <c r="H65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>18.648000000000003</v>
       </c>
       <c r="I65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30.20976000000001</v>
       </c>
       <c r="J65">
@@ -3721,27 +3777,27 @@
         <v>3.356640000000001</v>
       </c>
       <c r="K65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50.400000000000006</v>
       </c>
       <c r="L65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50.400000000000006</v>
       </c>
       <c r="M65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>80.609760000000023</v>
       </c>
       <c r="N65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.756640000000004</v>
       </c>
       <c r="O65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>17.609760000000023</v>
       </c>
       <c r="P65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-9.2433599999999956</v>
       </c>
     </row>
@@ -3757,11 +3813,11 @@
         <v>18.431999999999999</v>
       </c>
       <c r="H66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>18.431999999999999</v>
       </c>
       <c r="I66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29.859839999999998</v>
       </c>
       <c r="J66">
@@ -3769,27 +3825,27 @@
         <v>3.3177599999999998</v>
       </c>
       <c r="K66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>51.20000000000001</v>
       </c>
       <c r="L66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>51.20000000000001</v>
       </c>
       <c r="M66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>81.059840000000008</v>
       </c>
       <c r="N66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.51776000000001</v>
       </c>
       <c r="O66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>17.059840000000008</v>
       </c>
       <c r="P66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-9.4822399999999902</v>
       </c>
     </row>
@@ -5519,6 +5575,5026 @@
       <c r="P102">
         <f t="shared" si="18"/>
         <v>-20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6A68DD-6C33-7940-97EC-C737E0E4F5A9}">
+  <dimension ref="A1:N102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>B1</f>
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <f>B6</f>
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <f>E2-$B$2</f>
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <f>F2-$B$7</f>
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <f>$B$4*G2*(1-G2/$B$3)</f>
+        <v>12.6</v>
+      </c>
+      <c r="J2">
+        <f>$B$9*H2*(1-H2/$B$8)</f>
+        <v>16.8</v>
+      </c>
+      <c r="K2">
+        <f>$B$22*((I2*$B$17)+(J2*$B$16))</f>
+        <v>10.206</v>
+      </c>
+      <c r="L2">
+        <f>$B$23*((J2*$B$18)+(I2*$B$15))</f>
+        <v>10.835999999999999</v>
+      </c>
+      <c r="M2">
+        <f>($B$20*(G2*$B$13))+($B$21*(H2*$B$12))</f>
+        <v>25.500000000000004</v>
+      </c>
+      <c r="N2">
+        <f>($B$21*(H2*$B$14))+($B$20*(G2*$B$11))</f>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>K2+M2</f>
+        <v>35.706000000000003</v>
+      </c>
+      <c r="F3">
+        <f>L2+N2</f>
+        <v>54.335999999999999</v>
+      </c>
+      <c r="G3">
+        <f>E3-$B$2</f>
+        <v>35.706000000000003</v>
+      </c>
+      <c r="H3">
+        <f>F3-$B$7</f>
+        <v>54.335999999999999</v>
+      </c>
+      <c r="I3">
+        <f>$B$4*G3*(1-G3/$B$3)</f>
+        <v>13.774089384</v>
+      </c>
+      <c r="J3">
+        <f>$B$9*H3*(1-H3/$B$8)</f>
+        <v>17.368393728000001</v>
+      </c>
+      <c r="K3">
+        <f>$B$22*((I3*$B$17)+(J3*$B$16))</f>
+        <v>10.887806529360001</v>
+      </c>
+      <c r="L3">
+        <f>$B$23*((J3*$B$18)+(I3*$B$15))</f>
+        <v>11.426952180960001</v>
+      </c>
+      <c r="M3">
+        <f>($B$20*(G3*$B$13))+($B$21*(H3*$B$12))</f>
+        <v>24.885780000000004</v>
+      </c>
+      <c r="N3">
+        <f>($B$21*(H3*$B$14))+($B$20*(G3*$B$11))</f>
+        <v>43.577219999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.6</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E67" si="0">K3+M3</f>
+        <v>35.773586529360003</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="1">L3+N3</f>
+        <v>55.004172180959998</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G67" si="2">E4-$B$2</f>
+        <v>35.773586529360003</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H67" si="3">F4-$B$7</f>
+        <v>55.004172180959998</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I67" si="4">$B$4*G4*(1-G4/$B$3)</f>
+        <v>13.785654958574357</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J67" si="5">$B$9*H4*(1-H4/$B$8)</f>
+        <v>17.324707825483138</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K67" si="6">$B$22*((I4*$B$17)+(J4*$B$16))</f>
+        <v>10.881215844238907</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L67" si="7">$B$23*((J4*$B$18)+(I4*$B$15))</f>
+        <v>11.412073774275223</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M67" si="8">($B$20*(G4*$B$13))+($B$21*(H4*$B$12))</f>
+        <v>25.113788269072803</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N67" si="9">($B$21*(H4*$B$14))+($B$20*(G4*$B$11))</f>
+        <v>43.931060046247197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>35.995004113311708</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>55.343133820522418</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>35.995004113311708</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>55.343133820522418</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>13.823160541283062</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>17.300156446831927</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>10.891464484221999</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="7"/>
+        <v>11.413013870054328</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="8"/>
+        <v>25.268753686362636</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="9"/>
+        <v>44.202256249373498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>36.160218170584635</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>55.615270119427827</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>36.160218170584635</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>55.615270119427827</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>13.850762633485106</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>17.279281190401026</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>10.898249106476575</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="7"/>
+        <v>11.412526890013963</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="8"/>
+        <v>25.39053225403968</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="9"/>
+        <v>44.413836560911832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>36.288781360516253</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>55.826363450925797</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>36.288781360516253</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>55.826363450925797</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>13.872014900521641</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>17.262374422564012</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>10.903247799327023</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="7"/>
+        <v>11.411801727633376</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="8"/>
+        <v>25.485080390004672</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="9"/>
+        <v>44.578157323097351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>36.388328189331695</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>55.989959050730725</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>36.388328189331695</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>55.989959050730725</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>13.888334343111948</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>17.248842733993985</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>10.906937992578753</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="7"/>
+        <v>11.411014251211057</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="8"/>
+        <v>25.558335815993491</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="9"/>
+        <v>44.705461157123281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>36.465273808572242</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>56.116475408334338</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>36.465273808572242</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>56.116475408334338</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>13.900867121538475</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>17.238121100054684</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>10.909682901707079</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>11.41027099848451</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="8"/>
+        <v>25.614979630467161</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="9"/>
+        <v>44.803892362200884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>36.52466253217424</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>56.21416336068539</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>36.52466253217424</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>56.21416336068539</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>13.910491680769267</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>17.229689216087007</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>10.911737344689662</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="7"/>
+        <v>11.409616974987321</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="8"/>
+        <v>25.658711407175918</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="9"/>
+        <v>44.879883053894361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.7</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>36.570448751865584</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>56.289500028881683</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>36.570448751865584</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>56.289500028881683</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>13.917882919642386</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>17.223095325706883</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>10.913283051779931</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>11.409064912689606</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="8"/>
+        <v>25.692434247133914</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="9"/>
+        <v>44.938479902277336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0.4</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>36.605717298913845</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>56.347544814966945</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>36.605717298913845</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>56.347544814966945</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>13.923559145540306</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>17.217960723753905</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>10.914451010906692</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>11.408611247638733</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="8"/>
+        <v>25.718414973561334</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="9"/>
+        <v>44.983622987651913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <f>1-B11</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>36.632865984468026</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>56.392234235290644</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>36.632865984468026</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>56.392234235290644</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>13.92791836926485</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>17.213975390368248</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>10.91533662156861</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="7"/>
+        <v>11.408245174734118</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>25.738416812031296</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="9"/>
+        <v>45.018376765328838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f>1-B12</f>
+        <v>0.6</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>36.653753433599903</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>56.426621940062958</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>36.653753433599903</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>56.426621940062958</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>13.931266215533123</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>17.210889713076508</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>10.916010019520563</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="7"/>
+        <v>11.407953544152068</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="8"/>
+        <v>25.753807241876128</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="9"/>
+        <v>45.045117713694168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>36.669817261396688</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>56.453071257846233</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>36.669817261396688</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>56.453071257846233</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>13.933837368932654</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>17.208505099388113</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="6"/>
+        <v>10.916523192854486</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="7"/>
+        <v>11.407723352422803</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="8"/>
+        <v>25.765644427404098</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="9"/>
+        <v>45.065684661850568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0.3</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>36.682167620258582</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>56.473408014273375</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>36.682167620258582</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>56.473408014273375</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>13.935812044230666</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>17.206664920765188</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>10.916914948510401</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>11.407542879990578</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="8"/>
+        <v>25.77474576482178</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="9"/>
+        <v>45.081497980777918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <f>1-B15</f>
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>36.691660713332183</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>56.489040860768498</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>36.691660713332183</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>56.489040860768498</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>13.937328632585604</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>17.205246440950933</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>10.917214423720273</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>11.407402094975071</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="8"/>
+        <v>25.781741825245682</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="9"/>
+        <v>45.093653362701644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <f>1-B16</f>
+        <v>0.7</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>36.698956248965956</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>56.501055457676713</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>36.698956248965956</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>56.501055457676713</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>13.938493410798468</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>17.204153945553479</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>10.91744360015875</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="7"/>
+        <v>11.407292680372002</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="8"/>
+        <v>25.787118558739401</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="9"/>
+        <v>45.102995181678139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>36.704562158898149</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>56.510287862050141</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>36.704562158898149</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>56.510287862050141</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>13.939387995680383</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>17.203313063672695</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>10.9176191252478</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="7"/>
+        <v>11.407207885446647</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="8"/>
+        <v>25.791250169224657</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="9"/>
+        <v>45.110173631644159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>0.7</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>36.708869294472457</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>56.517381517090804</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>36.708869294472457</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>56.517381517090804</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>13.940075067411497</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>17.202666167124782</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="6"/>
+        <v>10.917753645458864</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="7"/>
+        <v>11.407142310415857</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="8"/>
+        <v>25.794424637308278</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="9"/>
+        <v>45.115689082495088</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>0.8</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>36.712178282767141</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>56.522831392910945</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>36.712178282767141</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>56.522831392910945</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>13.94060276406621</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>17.202168694337587</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="6"/>
+        <v>10.917856791300943</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="7"/>
+        <v>11.407091680841649</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="8"/>
+        <v>25.796863485112606</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="9"/>
+        <v>45.119926427153146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>0.9</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>36.714720276413551</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>56.527018107994792</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>36.714720276413551</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>56.527018107994792</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>13.941008055996374</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>17.201786242325358</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>10.917935910626214</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="7"/>
+        <v>11.407052638575561</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="8"/>
+        <v>25.798737052605183</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="9"/>
+        <v>45.12318162728014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>0.6</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>36.716672963231396</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>56.530234265855697</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>36.716672963231396</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>56.530234265855697</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>13.941319337005512</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>17.20149228303131</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>10.917996618070934</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>11.407022559974804</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="8"/>
+        <v>25.800176287352414</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="9"/>
+        <v>45.125682199594117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>36.718172905423344</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>56.532704759568922</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>36.718172905423344</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>56.532704759568922</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>13.941558414178616</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>17.201266379670141</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="6"/>
+        <v>10.918043208891316</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="7"/>
+        <v>11.406999403715043</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="8"/>
+        <v>25.80128183320096</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="9"/>
+        <v>45.127603008250517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>36.719325042092279</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>56.534602411965558</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>36.719325042092279</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>56.534602411965558</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>13.941742035974416</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>17.201092799222735</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="6"/>
+        <v>10.918078971978627</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="7"/>
+        <v>11.406981586465871</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="8"/>
+        <v>25.80213103066836</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="9"/>
+        <v>45.129078428368679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>36.720210002646986</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>56.536060014834547</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>36.720210002646986</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>56.536060014834547</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>13.941883065757219</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>17.200959436377367</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="6"/>
+        <v>10.918106427412637</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="7"/>
+        <v>11.40696788300566</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="8"/>
+        <v>25.802783305302924</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="9"/>
+        <v>45.130211708417605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>36.720889732715563</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>56.537179591423268</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>36.720889732715563</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>56.537179591423268</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>13.941991383055806</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>17.200856980926353</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="6"/>
+        <v>10.918127507225229</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="7"/>
+        <v>11.406957346905811</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="8"/>
+        <v>25.803284313125715</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="9"/>
+        <v>45.131082172913793</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>36.721411820350944</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>56.538039519819606</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>36.721411820350944</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>56.538039519819606</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>13.942074575731706</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>17.200778274660937</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>10.91814369323772</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="7"/>
+        <v>11.406949248077105</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="8"/>
+        <v>25.803669128615972</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="9"/>
+        <v>45.131750761485371</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>36.721812821853689</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>56.538700009562476</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>36.721812821853689</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>56.538700009562476</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>13.942138471572664</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>17.200717815294635</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="6"/>
+        <v>10.918156122337249</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="7"/>
+        <v>11.406943023895545</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="8"/>
+        <v>25.80396469564927</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="9"/>
+        <v>45.132264287298298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>36.722120817986522</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>56.539207311193842</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>36.722120817986522</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>56.539207311193842</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>13.942187546567119</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>17.200671374188602</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="6"/>
+        <v>10.918165666986125</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="7"/>
+        <v>11.406938241129348</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="8"/>
+        <v>25.804191711359202</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="9"/>
+        <v>45.132658710186433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>36.722357378345329</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>56.539596951315779</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>36.722357378345329</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>56.539596951315779</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>13.942225238469716</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>17.200635702000387</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="6"/>
+        <v>10.918172996851478</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="7"/>
+        <v>11.406934566381075</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="8"/>
+        <v>25.80436607387357</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="9"/>
+        <v>45.132961652020782</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>36.722539070725048</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>56.539896218401857</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>36.722539070725048</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>56.539896218401857</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>13.942254187629464</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>17.200608302167733</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="6"/>
+        <v>10.918178626018546</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="7"/>
+        <v>11.406931743199287</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="8"/>
+        <v>25.804499994740858</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="9"/>
+        <v>45.133194329488163</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>36.722678620759403</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>56.54012607268745</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>36.722678620759403</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>56.54012607268745</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>13.942276421954165</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>17.200587256673479</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="6"/>
+        <v>10.918182949181215</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="7"/>
+        <v>11.40692957438911</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="8"/>
+        <v>25.804602853619464</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="9"/>
+        <v>45.133373039062079</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>36.722785802800679</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>56.540302613451189</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>36.722785802800679</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>56.540302613451189</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>13.942293498970132</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>17.200571092071385</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="6"/>
+        <v>10.918186269395834</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="7"/>
+        <v>11.40692790836102</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="8"/>
+        <v>25.804681854892529</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="9"/>
+        <v>45.133510297828906</v>
+      </c>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>36.722868124288361</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>56.540438206189926</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>36.722868124288361</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>56.540438206189926</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>13.942306614929773</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>17.200558676497078</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="6"/>
+        <v>10.91818881937261</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="7"/>
+        <v>11.406926628607703</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="8"/>
+        <v>25.804742532081335</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="9"/>
+        <v>45.133615719872459</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>36.722931351453944</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>56.540542348480159</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>36.722931351453944</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>56.540542348480159</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>13.942316688610772</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>17.200549140514163</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="6"/>
+        <v>10.91819077781367</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="7"/>
+        <v>11.406925645599179</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="8"/>
+        <v>25.80478913531898</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="9"/>
+        <v>45.133696689482903</v>
+      </c>
+    </row>
+    <row r="37" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>36.722979913132647</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>56.540622335082084</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>36.722979913132647</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>56.540622335082084</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>13.942324425677525</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>17.20054181628878</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="6"/>
+        <v>10.918192281952857</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="7"/>
+        <v>11.406924890544545</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="8"/>
+        <v>25.804824928984125</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="9"/>
+        <v>45.133758878274399</v>
+      </c>
+    </row>
+    <row r="38" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>36.72301721093698</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>56.540683768818944</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>36.72301721093698</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>56.540683768818944</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>13.942330368113545</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>17.200536190854159</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="6"/>
+        <v>10.918193437181719</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="7"/>
+        <v>11.40692431059281</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="8"/>
+        <v>25.804852420318831</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="9"/>
+        <v>45.133806642392209</v>
+      </c>
+    </row>
+    <row r="39" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>36.723045857500551</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>56.540730952985015</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>36.723045857500551</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>56.540730952985015</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>13.942334932187801</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>17.200531870204642</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="6"/>
+        <v>10.918194324439765</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="7"/>
+        <v>11.406923865142289</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="8"/>
+        <v>25.804873535030325</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="9"/>
+        <v>45.133843327608076</v>
+      </c>
+    </row>
+    <row r="40" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>36.723067859470092</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>56.540767192750366</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>36.723067859470092</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>56.540767192750366</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>13.942338437614582</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>17.200528551711685</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="6"/>
+        <v>10.918195005888716</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="7"/>
+        <v>11.406923523003281</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="8"/>
+        <v>25.80488975216884</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="9"/>
+        <v>45.133871503660515</v>
+      </c>
+    </row>
+    <row r="41" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>36.723084758057553</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>56.540795026663794</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>36.723084758057553</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>56.540795026663794</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>13.942341129949659</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>17.20052600293419</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="6"/>
+        <v>10.918195529269578</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="7"/>
+        <v>11.406923260217257</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="8"/>
+        <v>25.804902207724503</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="9"/>
+        <v>45.133893144246827</v>
+      </c>
+    </row>
+    <row r="42" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>36.723097736994077</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>56.540816404464081</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>36.723097736994077</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>56.540816404464081</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="4"/>
+        <v>13.94234319779153</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>17.200524045341655</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="6"/>
+        <v>10.918195931248436</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="7"/>
+        <v>11.406923058380952</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="8"/>
+        <v>25.804911774197265</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="9"/>
+        <v>45.133909765269856</v>
+      </c>
+    </row>
+    <row r="43" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>36.723107705445699</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>56.54083282365081</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>36.723107705445699</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>56.54083282365081</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="4"/>
+        <v>13.942344785992827</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>17.200522541811363</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="6"/>
+        <v>10.918196239985839</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="7"/>
+        <v>11.40692290335862</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="8"/>
+        <v>25.804919121711862</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="9"/>
+        <v>45.133922531020787</v>
+      </c>
+    </row>
+    <row r="44" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>36.723115361697701</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>56.540845434379406</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>36.723115361697701</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>56.540845434379406</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="4"/>
+        <v>13.942346005807273</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>17.200521387024907</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="6"/>
+        <v>10.91819647711</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="7"/>
+        <v>11.406922784292641</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="8"/>
+        <v>25.804924764957931</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="9"/>
+        <v>45.133932335733988</v>
+      </c>
+    </row>
+    <row r="45" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>36.723121242067933</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>56.540855120026627</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>36.723121242067933</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>56.540855120026627</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="4"/>
+        <v>13.942346942683033</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>17.200520500091752</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="6"/>
+        <v>10.918196659232137</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="7"/>
+        <v>11.406922692843445</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="8"/>
+        <v>25.804929099242791</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="9"/>
+        <v>45.133939866226072</v>
+      </c>
+    </row>
+    <row r="46" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>36.723125758474929</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>56.540862559069517</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>36.723125758474929</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>56.540862559069517</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
+        <v>13.942347662248368</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="5"/>
+        <v>17.200519818883539</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="6"/>
+        <v>10.918196799110321</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="7"/>
+        <v>11.406922622605597</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="8"/>
+        <v>25.804932428181985</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="9"/>
+        <v>45.133945650006083</v>
+      </c>
+    </row>
+    <row r="47" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>36.723129227292304</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>56.540868272611682</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>36.723129227292304</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>56.540868272611682</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="4"/>
+        <v>13.94234821490892</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>17.200519295682394</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="6"/>
+        <v>10.91819690654326</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="7"/>
+        <v>11.406922568659281</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="8"/>
+        <v>25.804934984967126</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="9"/>
+        <v>45.133950092226833</v>
+      </c>
+    </row>
+    <row r="48" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>36.723131891510384</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>56.540872660886116</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>36.723131891510384</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>56.540872660886116</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="4"/>
+        <v>13.942348639378627</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
+        <v>17.200518893838506</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="6"/>
+        <v>10.918196989056778</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="7"/>
+        <v>11.40692252722576</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="8"/>
+        <v>25.804936948700739</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="9"/>
+        <v>45.133953504065424</v>
+      </c>
+    </row>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>36.723133937757517</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>56.540876031291184</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>36.723133937757517</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>56.540876031291184</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="4"/>
+        <v>13.942348965391641</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
+        <v>17.200518585202964</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="6"/>
+        <v>10.918197052431038</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="7"/>
+        <v>11.406922495402736</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="8"/>
+        <v>25.80493845694226</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="9"/>
+        <v>45.13395612452095</v>
+      </c>
+    </row>
+    <row r="50" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>36.7231355093733</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>56.540878619923689</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>36.7231355093733</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>56.540878619923689</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="4"/>
+        <v>13.942349215785216</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="5"/>
+        <v>17.200518348155974</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="6"/>
+        <v>10.918197101105461</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="7"/>
+        <v>11.406922470961073</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="8"/>
+        <v>25.804939615343976</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="9"/>
+        <v>45.133958137156284</v>
+      </c>
+    </row>
+    <row r="51" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>49</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>36.723136716449439</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>56.540880608117355</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>36.723136716449439</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>56.540880608117355</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="4"/>
+        <v>13.942349408099441</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="5"/>
+        <v>17.200518166092483</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="6"/>
+        <v>10.918197138489719</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="7"/>
+        <v>11.406922452188674</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="8"/>
+        <v>25.804940505051938</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="9"/>
+        <v>45.133959682956558</v>
+      </c>
+    </row>
+    <row r="52" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>36.723137643541655</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>56.540882135145232</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>36.723137643541655</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>56.540882135145232</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="4"/>
+        <v>13.942349555805958</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="5"/>
+        <v>17.200518026258965</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="6"/>
+        <v>10.918197167202603</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="7"/>
+        <v>11.406922437770552</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="8"/>
+        <v>25.804941188390224</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="9"/>
+        <v>45.133960870205115</v>
+      </c>
+    </row>
+    <row r="53" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>51</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>36.723138355592823</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>56.540883307975669</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>36.723138355592823</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>56.540883307975669</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="4"/>
+        <v>13.942349669251618</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="5"/>
+        <v>17.200517918860118</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="6"/>
+        <v>10.91819718925546</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="7"/>
+        <v>11.406922426696735</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="8"/>
+        <v>25.804941713226711</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="9"/>
+        <v>45.133961782068802</v>
+      </c>
+    </row>
+    <row r="54" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>52</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>36.723138902482169</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>56.540884208765533</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>36.723138902482169</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>56.540884208765533</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="4"/>
+        <v>13.942349756383303</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="5"/>
+        <v>17.200517836372651</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="6"/>
+        <v>10.918197206193103</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="7"/>
+        <v>11.406922418191504</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="8"/>
+        <v>25.804942116326231</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="9"/>
+        <v>45.133962482423719</v>
+      </c>
+    </row>
+    <row r="55" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>53</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>36.72313932251933</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>56.540884900615225</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>36.72313932251933</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>56.540884900615225</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="4"/>
+        <v>13.942349823304603</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="5"/>
+        <v>17.200517773018323</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="6"/>
+        <v>10.918197219202019</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="7"/>
+        <v>11.406922411659075</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="8"/>
+        <v>25.804942425925933</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="9"/>
+        <v>45.133963020329773</v>
+      </c>
+    </row>
+    <row r="56" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>54</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>36.723139645127951</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>56.540885431988848</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>36.723139645127951</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>56.540885431988848</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="4"/>
+        <v>13.942349874703362</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="5"/>
+        <v>17.20051772435917</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="6"/>
+        <v>10.918197229193488</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="7"/>
+        <v>11.40692240664186</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="8"/>
+        <v>25.804942663713305</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="9"/>
+        <v>45.133963433467343</v>
+      </c>
+    </row>
+    <row r="57" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>36.723139892906794</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>56.540885840109205</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>36.723139892906794</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="3"/>
+        <v>56.540885840109205</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="4"/>
+        <v>13.942349914180063</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="5"/>
+        <v>17.200517686986611</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="6"/>
+        <v>10.918197236867414</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="7"/>
+        <v>11.406922402788394</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="8"/>
+        <v>25.804942846345376</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="9"/>
+        <v>45.133963750776743</v>
+      </c>
+    </row>
+    <row r="58" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>56</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>36.72314008321279</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>56.54088615356514</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>36.72314008321279</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>56.54088615356514</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="4"/>
+        <v>13.942349944500055</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="5"/>
+        <v>17.200517658282699</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="6"/>
+        <v>10.918197242761353</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="7"/>
+        <v>11.406922399828751</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="8"/>
+        <v>25.804942986615533</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="9"/>
+        <v>45.133963994485526</v>
+      </c>
+    </row>
+    <row r="59" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>36.723140229376888</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>56.540886394314278</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>36.723140229376888</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="3"/>
+        <v>56.540886394314278</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="4"/>
+        <v>13.942349967787258</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="5"/>
+        <v>17.200517636236718</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="6"/>
+        <v>10.918197247288179</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="7"/>
+        <v>11.406922397555599</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="8"/>
+        <v>25.804943094349717</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="9"/>
+        <v>45.133964181665526</v>
+      </c>
+    </row>
+    <row r="60" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>58</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>36.723140341637894</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>56.540886579221123</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>36.723140341637894</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>56.540886579221123</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="4"/>
+        <v>13.942349985672941</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="5"/>
+        <v>17.20051761930435</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="6"/>
+        <v>10.918197250764997</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="7"/>
+        <v>11.406922395809708</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="8"/>
+        <v>25.804943177094721</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="9"/>
+        <v>45.133964325428707</v>
+      </c>
+    </row>
+    <row r="61" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>36.723140427859718</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>56.540886721238415</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>36.723140427859718</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="3"/>
+        <v>56.540886721238415</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="4"/>
+        <v>13.942349999410002</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="5"/>
+        <v>17.200517606299488</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="6"/>
+        <v>10.918197253435363</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="7"/>
+        <v>11.406922394468785</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="8"/>
+        <v>25.804943240646836</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="9"/>
+        <v>45.133964435845698</v>
+      </c>
+    </row>
+    <row r="62" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>36.723140494082202</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>56.540886830314484</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>36.723140494082202</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="3"/>
+        <v>56.540886830314484</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="4"/>
+        <v>13.942350009960718</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="5"/>
+        <v>17.20051759631113</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="6"/>
+        <v>10.918197255486328</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="7"/>
+        <v>11.406922393438888</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="8"/>
+        <v>25.804943289457903</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="9"/>
+        <v>45.133964520651233</v>
+      </c>
+    </row>
+    <row r="63" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>36.723140544944229</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>56.540886914090123</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>36.723140544944229</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="3"/>
+        <v>56.540886914090123</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="4"/>
+        <v>13.942350018064175</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="5"/>
+        <v>17.200517588639588</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="6"/>
+        <v>10.918197257061568</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="7"/>
+        <v>11.40692239264788</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="8"/>
+        <v>25.804943326947129</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="9"/>
+        <v>45.133964585785925</v>
+      </c>
+    </row>
+    <row r="64" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>36.723140584008696</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>56.540886978433804</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>36.723140584008696</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="3"/>
+        <v>56.540886978433804</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="4"/>
+        <v>13.942350024288018</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="5"/>
+        <v>17.200517582747484</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="6"/>
+        <v>10.918197258271428</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="7"/>
+        <v>11.406922392040348</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="8"/>
+        <v>25.804943355740647</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="9"/>
+        <v>45.133964635812482</v>
+      </c>
+    </row>
+    <row r="65" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>63</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>36.723140614012074</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>56.540887027852833</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>36.723140614012074</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="3"/>
+        <v>56.540887027852833</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="4"/>
+        <v>13.942350029068225</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="5"/>
+        <v>17.200517578222062</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="6"/>
+        <v>10.918197259200658</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="7"/>
+        <v>11.406922391573733</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="8"/>
+        <v>25.804943377855444</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="9"/>
+        <v>45.133964674235273</v>
+      </c>
+    </row>
+    <row r="66" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>64</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>36.723140637056105</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>56.540887065809002</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>36.723140637056105</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="3"/>
+        <v>56.540887065809002</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="4"/>
+        <v>13.942350032739654</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="5"/>
+        <v>17.200517574746328</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="6"/>
+        <v>10.918197259914352</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="7"/>
+        <v>11.406922391215353</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="8"/>
+        <v>25.804943394840667</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="9"/>
+        <v>45.133964703745811</v>
+      </c>
+    </row>
+    <row r="67" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>65</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="0"/>
+        <v>36.723140654755021</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>56.540887094961164</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="2"/>
+        <v>36.723140654755021</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="3"/>
+        <v>56.540887094961164</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="4"/>
+        <v>13.942350035559487</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="5"/>
+        <v>17.200517572076791</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="6"/>
+        <v>10.918197260462502</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="7"/>
+        <v>11.406922390940098</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="8"/>
+        <v>25.804943407886128</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="9"/>
+        <v>45.133964726411321</v>
+      </c>
+    </row>
+    <row r="68" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>66</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E102" si="10">K67+M67</f>
+        <v>36.723140668348634</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F102" si="11">L67+N67</f>
+        <v>56.540887117351417</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68:G102" si="12">E68-$B$2</f>
+        <v>36.723140668348634</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ref="H68:H102" si="13">F68-$B$7</f>
+        <v>56.540887117351417</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I102" si="14">$B$4*G68*(1-G68/$B$3)</f>
+        <v>13.942350037725252</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:J102" si="15">$B$9*H68*(1-H68/$B$8)</f>
+        <v>17.200517570026467</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ref="K68:K102" si="16">$B$22*((I68*$B$17)+(J68*$B$16))</f>
+        <v>10.91819726088351</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ref="L68:L102" si="17">$B$23*((J68*$B$18)+(I68*$B$15))</f>
+        <v>11.40692239072869</v>
+      </c>
+      <c r="M68">
+        <f t="shared" ref="M68:M102" si="18">($B$20*(G68*$B$13))+($B$21*(H68*$B$12))</f>
+        <v>25.804943417905669</v>
+      </c>
+      <c r="N68">
+        <f t="shared" ref="N68:N102" si="19">($B$21*(H68*$B$14))+($B$20*(G68*$B$11))</f>
+        <v>45.133964743819512</v>
+      </c>
+    </row>
+    <row r="69" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>67</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="10"/>
+        <v>36.723140678789179</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="11"/>
+        <v>56.5408871345482</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="12"/>
+        <v>36.723140678789179</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="13"/>
+        <v>56.5408871345482</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="14"/>
+        <v>13.942350039388664</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="15"/>
+        <v>17.200517568451712</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="16"/>
+        <v>10.918197261206862</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="17"/>
+        <v>11.406922390566319</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="18"/>
+        <v>25.804943425601152</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="19"/>
+        <v>45.13396475718983</v>
+      </c>
+    </row>
+    <row r="70" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>68</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="10"/>
+        <v>36.723140686808016</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="11"/>
+        <v>56.540887147756152</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="12"/>
+        <v>36.723140686808016</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="13"/>
+        <v>56.540887147756152</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="14"/>
+        <v>13.942350040666243</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="15"/>
+        <v>17.20051756724223</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="16"/>
+        <v>10.918197261455212</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="17"/>
+        <v>11.406922390441608</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="18"/>
+        <v>25.804943431511653</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="19"/>
+        <v>45.133964767458878</v>
+      </c>
+    </row>
+    <row r="71" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="10"/>
+        <v>36.723140692966865</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="11"/>
+        <v>56.540887157900485</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="12"/>
+        <v>36.723140692966865</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="13"/>
+        <v>56.540887157900485</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="14"/>
+        <v>13.942350041647485</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="15"/>
+        <v>17.200517566313284</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="16"/>
+        <v>10.918197261645956</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="17"/>
+        <v>11.406922390345823</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="18"/>
+        <v>25.804943436051204</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="19"/>
+        <v>45.133964775345987</v>
+      </c>
+    </row>
+    <row r="72" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>70</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="10"/>
+        <v>36.723140697697161</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="11"/>
+        <v>56.540887165691814</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="12"/>
+        <v>36.723140697697161</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="13"/>
+        <v>56.540887165691814</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="14"/>
+        <v>13.942350042401129</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="15"/>
+        <v>17.200517565599817</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="16"/>
+        <v>10.918197261792459</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="17"/>
+        <v>11.406922390272261</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="18"/>
+        <v>25.804943439537787</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="19"/>
+        <v>45.133964781403677</v>
+      </c>
+    </row>
+    <row r="73" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>71</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="10"/>
+        <v>36.723140701330244</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="11"/>
+        <v>56.540887171675934</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="12"/>
+        <v>36.723140701330244</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="13"/>
+        <v>56.540887171675934</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="14"/>
+        <v>13.942350042979957</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="15"/>
+        <v>17.200517565051836</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="16"/>
+        <v>10.918197261904977</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="17"/>
+        <v>11.406922390215758</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="18"/>
+        <v>25.804943442215652</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="19"/>
+        <v>45.133964786056261</v>
+      </c>
+    </row>
+    <row r="74" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>72</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="10"/>
+        <v>36.723140704120631</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="11"/>
+        <v>56.540887176272022</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="12"/>
+        <v>36.723140704120631</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="13"/>
+        <v>56.540887176272022</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="14"/>
+        <v>13.942350043424529</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="15"/>
+        <v>17.200517564630957</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="16"/>
+        <v>10.918197261991397</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="17"/>
+        <v>11.40692239017236</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="18"/>
+        <v>25.804943444272382</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="19"/>
+        <v>45.13396478962968</v>
+      </c>
+    </row>
+    <row r="75" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>73</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="10"/>
+        <v>36.723140706263777</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="11"/>
+        <v>56.540887179802041</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="12"/>
+        <v>36.723140706263777</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="13"/>
+        <v>56.540887179802041</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="14"/>
+        <v>13.94235004376598</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="15"/>
+        <v>17.200517564307706</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="16"/>
+        <v>10.918197262057772</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="17"/>
+        <v>11.40692239013903</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="18"/>
+        <v>25.804943445852047</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="19"/>
+        <v>45.133964792374229</v>
+      </c>
+    </row>
+    <row r="76" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>74</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="10"/>
+        <v>36.72314070790982</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="11"/>
+        <v>56.540887182513259</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="12"/>
+        <v>36.72314070790982</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="13"/>
+        <v>56.540887182513259</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="14"/>
+        <v>13.942350044028233</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="15"/>
+        <v>17.200517564059435</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="16"/>
+        <v>10.918197262108754</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="17"/>
+        <v>11.406922390113431</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="18"/>
+        <v>25.804943447065309</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="19"/>
+        <v>45.133964794482175</v>
+      </c>
+    </row>
+    <row r="77" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>75</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="10"/>
+        <v>36.723140709174061</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="11"/>
+        <v>56.540887184595604</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="12"/>
+        <v>36.723140709174061</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="13"/>
+        <v>56.540887184595604</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="14"/>
+        <v>13.942350044229652</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="15"/>
+        <v>17.20051756386875</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="16"/>
+        <v>10.918197262147906</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="17"/>
+        <v>11.40692239009377</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="18"/>
+        <v>25.80494344799715</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="19"/>
+        <v>45.133964796101182</v>
+      </c>
+    </row>
+    <row r="78" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>76</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="10"/>
+        <v>36.72314071014506</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="11"/>
+        <v>56.540887186194951</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="12"/>
+        <v>36.72314071014506</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="13"/>
+        <v>56.540887186194951</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="14"/>
+        <v>13.942350044384353</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="15"/>
+        <v>17.200517563722293</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="16"/>
+        <v>10.918197262177978</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="17"/>
+        <v>11.406922390078668</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="18"/>
+        <v>25.804943448712848</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="19"/>
+        <v>45.133964797344646</v>
+      </c>
+    </row>
+    <row r="79" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>77</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="10"/>
+        <v>36.723140710890824</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="11"/>
+        <v>56.540887187423316</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="12"/>
+        <v>36.723140710890824</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="13"/>
+        <v>56.540887187423316</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="14"/>
+        <v>13.942350044503174</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="15"/>
+        <v>17.200517563609811</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="16"/>
+        <v>10.918197262201078</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="17"/>
+        <v>11.406922390067072</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="18"/>
+        <v>25.804943449262538</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="19"/>
+        <v>45.133964798299701</v>
+      </c>
+    </row>
+    <row r="80" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>78</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="10"/>
+        <v>36.723140711463614</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="11"/>
+        <v>56.540887188366774</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="12"/>
+        <v>36.723140711463614</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="13"/>
+        <v>56.540887188366774</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="14"/>
+        <v>13.942350044594431</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="15"/>
+        <v>17.200517563523416</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="16"/>
+        <v>10.918197262218815</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="17"/>
+        <v>11.406922390058165</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="18"/>
+        <v>25.804943449684728</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="19"/>
+        <v>45.133964799033222</v>
+      </c>
+    </row>
+    <row r="81" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>79</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="10"/>
+        <v>36.72314071190354</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="11"/>
+        <v>56.540887189091386</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="12"/>
+        <v>36.72314071190354</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="13"/>
+        <v>56.540887189091386</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="14"/>
+        <v>13.942350044664519</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="15"/>
+        <v>17.200517563457062</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="16"/>
+        <v>10.918197262232439</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="17"/>
+        <v>11.406922390051323</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="18"/>
+        <v>25.804943450008992</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="19"/>
+        <v>45.133964799596598</v>
+      </c>
+    </row>
+    <row r="82" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>80</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="10"/>
+        <v>36.723140712241431</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="11"/>
+        <v>56.540887189647918</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="12"/>
+        <v>36.723140712241431</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="13"/>
+        <v>56.540887189647918</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="14"/>
+        <v>13.942350044718355</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="15"/>
+        <v>17.200517563406098</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="16"/>
+        <v>10.918197262242906</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="17"/>
+        <v>11.406922390046068</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="18"/>
+        <v>25.804943450258037</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="19"/>
+        <v>45.133964800029304</v>
+      </c>
+    </row>
+    <row r="83" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>81</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="10"/>
+        <v>36.723140712500943</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="11"/>
+        <v>56.540887190075374</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="12"/>
+        <v>36.723140712500943</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="13"/>
+        <v>56.540887190075374</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="14"/>
+        <v>13.942350044759701</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="15"/>
+        <v>17.200517563366954</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="16"/>
+        <v>10.918197262250944</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="17"/>
+        <v>11.40692239004203</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="18"/>
+        <v>25.804943450449322</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="19"/>
+        <v>45.133964800361639</v>
+      </c>
+    </row>
+    <row r="84" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>82</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="10"/>
+        <v>36.723140712700264</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="11"/>
+        <v>56.540887190403666</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="12"/>
+        <v>36.723140712700264</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="13"/>
+        <v>56.540887190403666</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="14"/>
+        <v>13.942350044791457</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="15"/>
+        <v>17.200517563336891</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="16"/>
+        <v>10.918197262257117</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="17"/>
+        <v>11.406922390038931</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="18"/>
+        <v>25.80494345059623</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="19"/>
+        <v>45.133964800616887</v>
+      </c>
+    </row>
+    <row r="85" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>83</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="10"/>
+        <v>36.72314071285335</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="11"/>
+        <v>56.540887190655816</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="12"/>
+        <v>36.72314071285335</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="13"/>
+        <v>56.540887190655816</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="14"/>
+        <v>13.942350044815846</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="15"/>
+        <v>17.200517563313802</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="16"/>
+        <v>10.918197262261858</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="17"/>
+        <v>11.40692239003655</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="18"/>
+        <v>25.804943450709068</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="19"/>
+        <v>45.133964800812933</v>
+      </c>
+    </row>
+    <row r="86" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>84</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="10"/>
+        <v>36.723140712970924</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="11"/>
+        <v>56.540887190849482</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="12"/>
+        <v>36.723140712970924</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="13"/>
+        <v>56.540887190849482</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="14"/>
+        <v>13.942350044834578</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="15"/>
+        <v>17.200517563296067</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="16"/>
+        <v>10.918197262265497</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="17"/>
+        <v>11.406922390034721</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="18"/>
+        <v>25.804943450795729</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="19"/>
+        <v>45.133964800963504</v>
+      </c>
+    </row>
+    <row r="87" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>85</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="10"/>
+        <v>36.723140713061227</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="11"/>
+        <v>56.540887190998227</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="12"/>
+        <v>36.723140713061227</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="13"/>
+        <v>56.540887190998227</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="14"/>
+        <v>13.942350044848967</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="15"/>
+        <v>17.20051756328245</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="16"/>
+        <v>10.918197262268295</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="17"/>
+        <v>11.406922390033317</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="18"/>
+        <v>25.804943450862293</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="19"/>
+        <v>45.133964801079145</v>
+      </c>
+    </row>
+    <row r="88" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>86</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="10"/>
+        <v>36.72314071313059</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="11"/>
+        <v>56.540887191112461</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="12"/>
+        <v>36.72314071313059</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="13"/>
+        <v>56.540887191112461</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="14"/>
+        <v>13.942350044860017</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="15"/>
+        <v>17.200517563271983</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="16"/>
+        <v>10.918197262270445</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="17"/>
+        <v>11.406922390032237</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="18"/>
+        <v>25.804943450913413</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="19"/>
+        <v>45.13396480116797</v>
+      </c>
+    </row>
+    <row r="89" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>87</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="10"/>
+        <v>36.723140713183859</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="11"/>
+        <v>56.540887191200206</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="12"/>
+        <v>36.723140713183859</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="13"/>
+        <v>56.540887191200206</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="14"/>
+        <v>13.942350044868505</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="15"/>
+        <v>17.200517563263951</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="16"/>
+        <v>10.918197262272095</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="17"/>
+        <v>11.40692239003141</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="18"/>
+        <v>25.804943450952681</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="19"/>
+        <v>45.133964801236189</v>
+      </c>
+    </row>
+    <row r="90" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>88</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="10"/>
+        <v>36.72314071322478</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="11"/>
+        <v>56.540887191267601</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="12"/>
+        <v>36.72314071322478</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="13"/>
+        <v>56.540887191267601</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="14"/>
+        <v>13.942350044875024</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="15"/>
+        <v>17.20051756325778</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="16"/>
+        <v>10.91819726227336</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="17"/>
+        <v>11.406922390030774</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="18"/>
+        <v>25.80494345098284</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="19"/>
+        <v>45.133964801288585</v>
+      </c>
+    </row>
+    <row r="91" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>89</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="10"/>
+        <v>36.7231407132562</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="11"/>
+        <v>56.540887191319356</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="12"/>
+        <v>36.7231407132562</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="13"/>
+        <v>56.540887191319356</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="14"/>
+        <v>13.94235004488003</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="15"/>
+        <v>17.20051756325304</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="16"/>
+        <v>10.918197262274335</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="17"/>
+        <v>11.406922390030285</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="18"/>
+        <v>25.804943451006</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="19"/>
+        <v>45.13396480132883</v>
+      </c>
+    </row>
+    <row r="92" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>90</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="10"/>
+        <v>36.723140713280337</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="11"/>
+        <v>56.540887191359118</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="12"/>
+        <v>36.723140713280337</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="13"/>
+        <v>56.540887191359118</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="14"/>
+        <v>13.942350044883874</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="15"/>
+        <v>17.200517563249395</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="16"/>
+        <v>10.918197262275081</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="17"/>
+        <v>11.406922390029907</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="18"/>
+        <v>25.804943451023792</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="19"/>
+        <v>45.133964801359738</v>
+      </c>
+    </row>
+    <row r="93" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>91</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="10"/>
+        <v>36.723140713298875</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="11"/>
+        <v>56.540887191389643</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="12"/>
+        <v>36.723140713298875</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="13"/>
+        <v>56.540887191389643</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="14"/>
+        <v>13.942350044886828</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="15"/>
+        <v>17.200517563246603</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="16"/>
+        <v>10.918197262275656</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="17"/>
+        <v>11.406922390029619</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="18"/>
+        <v>25.804943451037452</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="19"/>
+        <v>45.13396480138347</v>
+      </c>
+    </row>
+    <row r="94" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>92</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="10"/>
+        <v>36.723140713313107</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="11"/>
+        <v>56.540887191413091</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="12"/>
+        <v>36.723140713313107</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="13"/>
+        <v>56.540887191413091</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="14"/>
+        <v>13.942350044889096</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="15"/>
+        <v>17.200517563244453</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="16"/>
+        <v>10.918197262276095</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="17"/>
+        <v>11.406922390029399</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="18"/>
+        <v>25.804943451047947</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="19"/>
+        <v>45.133964801401703</v>
+      </c>
+    </row>
+    <row r="95" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>93</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="10"/>
+        <v>36.723140713324042</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="11"/>
+        <v>56.540887191431104</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="12"/>
+        <v>36.723140713324042</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="13"/>
+        <v>56.540887191431104</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="14"/>
+        <v>13.942350044890839</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="15"/>
+        <v>17.200517563242808</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="16"/>
+        <v>10.918197262276436</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="17"/>
+        <v>11.40692239002923</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="18"/>
+        <v>25.804943451056005</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="19"/>
+        <v>45.133964801415708</v>
+      </c>
+    </row>
+    <row r="96" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <v>94</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="10"/>
+        <v>36.723140713332441</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="11"/>
+        <v>56.540887191444938</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="12"/>
+        <v>36.723140713332441</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="13"/>
+        <v>56.540887191444938</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="14"/>
+        <v>13.942350044892175</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="15"/>
+        <v>17.200517563241544</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="16"/>
+        <v>10.918197262276696</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="17"/>
+        <v>11.4069223900291</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="18"/>
+        <v>25.804943451062194</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="19"/>
+        <v>45.133964801426458</v>
+      </c>
+    </row>
+    <row r="97" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <v>95</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="10"/>
+        <v>36.723140713338893</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="11"/>
+        <v>56.54088719145556</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="12"/>
+        <v>36.723140713338893</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="13"/>
+        <v>56.54088719145556</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="14"/>
+        <v>13.942350044893207</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="15"/>
+        <v>17.200517563240567</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="16"/>
+        <v>10.918197262276896</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="17"/>
+        <v>11.406922390028999</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="18"/>
+        <v>25.804943451066951</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="19"/>
+        <v>45.133964801434722</v>
+      </c>
+    </row>
+    <row r="98" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <v>96</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="10"/>
+        <v>36.723140713343845</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="11"/>
+        <v>56.540887191463725</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="12"/>
+        <v>36.723140713343845</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="13"/>
+        <v>56.540887191463725</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="14"/>
+        <v>13.942350044893994</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="15"/>
+        <v>17.200517563239817</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="16"/>
+        <v>10.918197262277047</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="17"/>
+        <v>11.406922390028921</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="18"/>
+        <v>25.804943451070599</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="19"/>
+        <v>45.133964801441067</v>
+      </c>
+    </row>
+    <row r="99" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <v>97</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="10"/>
+        <v>36.723140713347647</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="11"/>
+        <v>56.540887191469992</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="12"/>
+        <v>36.723140713347647</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="13"/>
+        <v>56.540887191469992</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="14"/>
+        <v>13.942350044894599</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="15"/>
+        <v>17.200517563239245</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="16"/>
+        <v>10.918197262277165</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="17"/>
+        <v>11.406922390028862</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="18"/>
+        <v>25.804943451073406</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="19"/>
+        <v>45.133964801445941</v>
+      </c>
+    </row>
+    <row r="100" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <v>98</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="10"/>
+        <v>36.723140713350574</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="11"/>
+        <v>56.540887191474802</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="12"/>
+        <v>36.723140713350574</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="13"/>
+        <v>56.540887191474802</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="14"/>
+        <v>13.942350044895067</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="15"/>
+        <v>17.200517563238808</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="16"/>
+        <v>10.918197262277259</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="17"/>
+        <v>11.406922390028818</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="18"/>
+        <v>25.804943451075559</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="19"/>
+        <v>45.133964801449686</v>
+      </c>
+    </row>
+    <row r="101" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <v>99</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="10"/>
+        <v>36.723140713352819</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="11"/>
+        <v>56.540887191478504</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="12"/>
+        <v>36.723140713352819</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="13"/>
+        <v>56.540887191478504</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="14"/>
+        <v>13.942350044895424</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="15"/>
+        <v>17.200517563238467</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="16"/>
+        <v>10.918197262277326</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="17"/>
+        <v>11.406922390028782</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="18"/>
+        <v>25.804943451077214</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="19"/>
+        <v>45.133964801452564</v>
+      </c>
+    </row>
+    <row r="102" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <v>100</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="10"/>
+        <v>36.723140713354539</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="11"/>
+        <v>56.540887191481346</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="12"/>
+        <v>36.723140713354539</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="13"/>
+        <v>56.540887191481346</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="14"/>
+        <v>13.942350044895695</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="15"/>
+        <v>17.200517563238208</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="16"/>
+        <v>10.91819726227738</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="17"/>
+        <v>11.406922390028754</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="18"/>
+        <v>25.804943451078486</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="19"/>
+        <v>45.133964801454766</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD35CA5F-2886-6540-BF08-309D71F61690}">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <f>1-B11</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f>1-B12</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <f>1-B15</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <f>1-B16</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <f>((1/0.95-(B20*B13))/(B22*B17))</f>
+        <v>0.461988304093567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <f>(1/0.95-B21*B14)/(B23*B18)</f>
+        <v>0.36959064327485364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1">
+        <f>(B3*(B4-B25))/(2*B4)</f>
+        <v>21.125730994152065</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1">
+        <f>(B8*(B9-B26))/(2*B9)</f>
+        <v>29.467186484730355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <f>B30-B31</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <f>B34-B35</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <f>((B32/0.95)-(B32*B20*B13)-(B36*B20*B11))/((B32*B22*B17)+(B36*B23*B15))</f>
+        <v>-0.15709728867623604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <f>((B36/0.95)-(B36*B21*B14)-(B32*B21*B12))/((B36*B23*B18)+(B32*B22*B16))</f>
+        <v>0.3289945293340879</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="1">
+        <f>(B3*(B4-B38))/(2*B4)</f>
+        <v>59.818580542264755</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="1">
+        <f>(B8*(B9-B39))/(2*B9)</f>
+        <v>31.722526148106226</v>
       </c>
     </row>
   </sheetData>

--- a/data/ToyModel.xlsx
+++ b/data/ToyModel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmlawson/github/transboundary_life_history/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791E8594-5DE4-FE40-9F41-7A01C2CF43B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BC5D54-0FEE-8D49-A09C-FD15FC009CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{8F09F8A9-540D-E440-A29E-536394C36816}"/>
   </bookViews>
@@ -5591,7 +5591,7 @@
   <dimension ref="A1:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
@@ -5654,58 +5654,59 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f>B25-B26</f>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
         <f>$B$1</f>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F2">
         <f>$B$6</f>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
         <f>$B$34</f>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H2">
         <f>$B$35</f>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I2">
         <f>E2-G2</f>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J2">
         <f>F2-H2</f>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K2">
         <f>$B$4*G2*(1-G2/$B$3)</f>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L2">
         <f>$B$9*H2*(1-H2/$B$8)</f>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M2">
         <f>$B$22*((K2*$B$17)+(L2*$B$16))</f>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N2">
         <f>$B$23*((L2*$B$18)+(K2*$B$15))</f>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O2">
         <f>($B$20*(G2*$B$13))+($B$21*(H2*$B$12))</f>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P2">
         <f>($B$21*(H2*$B$14))+($B$20*(G2*$B$11))</f>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -5726,59 +5727,59 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">$B$1</f>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="1">$B$6</f>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="2">$B$34</f>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" si="3">$B$35</f>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="4">E3-G3</f>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J66" si="5">F3-H3</f>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K3">
         <f>$B$4*G3*(1-G3/$B$3)</f>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L3">
         <f>$B$9*H3*(1-H3/$B$8)</f>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M3">
         <f>$B$22*((K3*$B$17)+(L3*$B$16))</f>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N3">
         <f>$B$23*((L3*$B$18)+(K3*$B$15))</f>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O3">
         <f>($B$20*(G3*$B$13))+($B$21*(H3*$B$12))</f>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P3">
         <f>($B$21*(H3*$B$14))+($B$20*(G3*$B$11))</f>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q3">
         <f>($B$25-$B$26) * (E3 - $B$34) * $B$30^(D3-1)</f>
-        <v>124.39448011695873</v>
+        <v>-305.09551393762189</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R34" si="6">($B$27-$B$28) * (F3 - $B$35) * $B$30^(D3-1)</f>
-        <v>861.98663324979088</v>
+        <v>7439.5964912280724</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -5786,66 +5787,66 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I4">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J4">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K67" si="7">$B$4*G4*(1-G4/$B$3)</f>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L67" si="8">$B$9*H4*(1-H4/$B$8)</f>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M67" si="9">$B$22*((K4*$B$17)+(L4*$B$16))</f>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N67" si="10">$B$23*((L4*$B$18)+(K4*$B$15))</f>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O67" si="11">($B$20*(G4*$B$13))+($B$21*(H4*$B$12))</f>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P67" si="12">($B$21*(H4*$B$14))+($B$20*(G4*$B$11))</f>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q66" si="13">($B$25-$B$26) * (E4 - $B$34) * $B$30^(D4-1)</f>
-        <v>118.1747561111108</v>
+        <v>-289.84073824074079</v>
       </c>
       <c r="R4">
         <f t="shared" si="6"/>
-        <v>818.88730158730129</v>
+        <v>7067.6166666666686</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -5854,66 +5855,66 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I5">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J5">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K5">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L5">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M5">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N5">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O5">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P5">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q5">
         <f t="shared" si="13"/>
-        <v>112.26601830555525</v>
+        <v>-275.34870132870373</v>
       </c>
       <c r="R5">
         <f t="shared" si="6"/>
-        <v>777.94293650793622</v>
+        <v>6714.235833333335</v>
       </c>
       <c r="T5" t="s">
         <v>42</v>
       </c>
       <c r="U5">
         <f>SUM(Q2:Q102)</f>
-        <v>2473.1599792515613</v>
+        <v>-6065.7837406472299</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -5921,73 +5922,73 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I6">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J6">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K6">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L6">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M6">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N6">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O6">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P6">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q6">
         <f t="shared" si="13"/>
-        <v>106.65271739027747</v>
+        <v>-261.58126626226851</v>
       </c>
       <c r="R6">
         <f t="shared" si="6"/>
-        <v>739.04578968253941</v>
+        <v>6378.5240416666675</v>
       </c>
       <c r="T6" t="s">
         <v>43</v>
       </c>
       <c r="U6">
         <f>SUM(R2:R102)</f>
-        <v>17137.664324001955</v>
+        <v>147911.00285628519</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -5995,66 +5996,67 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <f>B27-B28</f>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I7">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K7">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L7">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M7">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N7">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O7">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P7">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q7">
         <f t="shared" si="13"/>
-        <v>101.32008152076362</v>
+        <v>-248.50220294915513</v>
       </c>
       <c r="R7">
         <f t="shared" si="6"/>
-        <v>702.09350019841247</v>
+        <v>6059.5978395833354</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -6069,59 +6071,59 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I8">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J8">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K8">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L8">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M8">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N8">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O8">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P8">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q8">
         <f t="shared" si="13"/>
-        <v>96.254077444725439</v>
+        <v>-236.07709280169738</v>
       </c>
       <c r="R8">
         <f t="shared" si="6"/>
-        <v>666.98882518849189</v>
+        <v>5756.617947604168</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -6129,66 +6131,66 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J9">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K9">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L9">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M9">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N9">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O9">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P9">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q9">
         <f t="shared" si="13"/>
-        <v>91.441373572489155</v>
+        <v>-224.27323816161248</v>
       </c>
       <c r="R9">
         <f t="shared" si="6"/>
-        <v>633.63938392906721</v>
+        <v>5468.7870502239593</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -6197,59 +6199,59 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K10">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L10">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M10">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N10">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O10">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P10">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q10">
         <f t="shared" si="13"/>
-        <v>86.869304893864694</v>
+        <v>-213.05957625353187</v>
       </c>
       <c r="R10">
         <f t="shared" si="6"/>
-        <v>601.95741473261387</v>
+        <v>5195.3476977127611</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -6257,66 +6259,66 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K11">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L11">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M11">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N11">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O11">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P11">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q11">
         <f t="shared" si="13"/>
-        <v>82.525839649171473</v>
+        <v>-202.40659744085528</v>
       </c>
       <c r="R11">
         <f t="shared" si="6"/>
-        <v>571.85954399598313</v>
+        <v>4935.5803128271236</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -6324,66 +6326,66 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K12">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L12">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M12">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N12">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O12">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P12">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q12">
         <f t="shared" si="13"/>
-        <v>78.399547666712891</v>
+        <v>-192.28626756881249</v>
       </c>
       <c r="R12">
         <f t="shared" si="6"/>
-        <v>543.26656679618395</v>
+        <v>4688.801297185767</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -6392,66 +6394,66 @@
       </c>
       <c r="B13">
         <f>1-B11</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K13">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L13">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M13">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N13">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O13">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P13">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q13">
         <f t="shared" si="13"/>
-        <v>74.479570283377257</v>
+        <v>-182.67195419037191</v>
       </c>
       <c r="R13">
         <f t="shared" si="6"/>
-        <v>516.10323845637481</v>
+        <v>4454.3612323264788</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -6460,66 +6462,66 @@
       </c>
       <c r="B14">
         <f>1-B12</f>
-        <v>0.9</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="D14">
         <v>12</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K14">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L14">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M14">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N14">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O14">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P14">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q14">
         <f t="shared" si="13"/>
-        <v>70.75559176920838</v>
+        <v>-173.53835648085328</v>
       </c>
       <c r="R14">
         <f t="shared" si="6"/>
-        <v>490.29807653355607</v>
+        <v>4231.6431707101547</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -6527,66 +6529,66 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
         <v>13</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K15">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L15">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M15">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N15">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O15">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P15">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q15">
         <f t="shared" si="13"/>
-        <v>67.217812180747956</v>
+        <v>-164.86143865681061</v>
       </c>
       <c r="R15">
         <f t="shared" si="6"/>
-        <v>465.78317270687825</v>
+        <v>4020.0610121746467</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -6594,66 +6596,66 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="D16">
         <v>14</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K16">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L16">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M16">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N16">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O16">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P16">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q16">
         <f t="shared" si="13"/>
-        <v>63.856921571710565</v>
+        <v>-156.6183667239701</v>
       </c>
       <c r="R16">
         <f t="shared" si="6"/>
-        <v>442.49401407153431</v>
+        <v>3819.0579615659144</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -6662,66 +6664,66 @@
       </c>
       <c r="B17">
         <f>1-B15</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D17">
         <v>15</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K17">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L17">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M17">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N17">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O17">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P17">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q17">
         <f t="shared" si="13"/>
-        <v>60.664075493125033</v>
+        <v>-148.78744838777158</v>
       </c>
       <c r="R17">
         <f t="shared" si="6"/>
-        <v>420.3693133679576</v>
+        <v>3628.1050634876187</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -6730,66 +6732,66 @@
       </c>
       <c r="B18">
         <f>1-B16</f>
-        <v>0.7</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="D18">
         <v>16</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K18">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L18">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M18">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N18">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O18">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P18">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q18">
         <f t="shared" si="13"/>
-        <v>57.630871718468789</v>
+        <v>-141.348075968383</v>
       </c>
       <c r="R18">
         <f t="shared" si="6"/>
-        <v>399.35084769955972</v>
+        <v>3446.6998103132382</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -6798,59 +6800,59 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K19">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L19">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M19">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N19">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O19">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P19">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q19">
         <f t="shared" si="13"/>
-        <v>54.749328132545344</v>
+        <v>-134.28067216996385</v>
       </c>
       <c r="R19">
         <f t="shared" si="6"/>
-        <v>379.38330531458172</v>
+        <v>3274.3648197975763</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -6858,66 +6860,66 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>18</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K20">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L20">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M20">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N20">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O20">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P20">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q20">
         <f t="shared" si="13"/>
-        <v>52.011861725918074</v>
+        <v>-127.56663856146567</v>
       </c>
       <c r="R20">
         <f t="shared" si="6"/>
-        <v>360.41414004885263</v>
+        <v>3110.6465788076971</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -6925,66 +6927,66 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K21">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L21">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M21">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N21">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O21">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P21">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q21">
         <f t="shared" si="13"/>
-        <v>49.411268639622172</v>
+        <v>-121.18830663339237</v>
       </c>
       <c r="R21">
         <f t="shared" si="6"/>
-        <v>342.39343304641</v>
+        <v>2955.1142498673125</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -6992,66 +6994,66 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>20</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K22">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L22">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M22">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N22">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O22">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P22">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q22">
         <f t="shared" si="13"/>
-        <v>46.940705207641059</v>
+        <v>-115.12889130172275</v>
       </c>
       <c r="R22">
         <f t="shared" si="6"/>
-        <v>325.27376139408949</v>
+        <v>2807.3585373739465</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -7066,59 +7068,59 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H23">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I23">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J23">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K23">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L23">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M23">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N23">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O23">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P23">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q23">
         <f t="shared" si="13"/>
-        <v>44.593669947259009</v>
+        <v>-109.37244673663662</v>
       </c>
       <c r="R23">
         <f t="shared" si="6"/>
-        <v>309.01007332438502</v>
+        <v>2666.9906105052492</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -7127,59 +7129,59 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I24">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J24">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K24">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L24">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M24">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N24">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O24">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P24">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q24">
         <f t="shared" si="13"/>
-        <v>42.363986449896061</v>
+        <v>-103.90382439980479</v>
       </c>
       <c r="R24">
         <f t="shared" si="6"/>
-        <v>293.5595696581658</v>
+        <v>2533.6410799799869</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -7187,66 +7189,66 @@
         <v>38</v>
       </c>
       <c r="B25">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>23</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I25">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J25">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K25">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L25">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M25">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N25">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O25">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P25">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q25">
         <f t="shared" si="13"/>
-        <v>40.24578712740125</v>
+        <v>-98.708633179814541</v>
       </c>
       <c r="R25">
         <f t="shared" si="6"/>
-        <v>278.88159117525748</v>
+        <v>2406.9590259809875</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -7261,59 +7263,59 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I26">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J26">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K26">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L26">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M26">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N26">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O26">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P26">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q26">
         <f t="shared" si="13"/>
-        <v>38.233497771031196</v>
+        <v>-93.773201520823818</v>
       </c>
       <c r="R26">
         <f t="shared" si="6"/>
-        <v>264.93751161649465</v>
+        <v>2286.6110746819381</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -7328,59 +7330,59 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J27">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K27">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L27">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M27">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N27">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O27">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P27">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q27">
         <f t="shared" si="13"/>
-        <v>36.321822882479637</v>
+        <v>-89.08454144478263</v>
       </c>
       <c r="R27">
         <f t="shared" si="6"/>
-        <v>251.69063603566988</v>
+        <v>2172.2805209478415</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -7388,66 +7390,66 @@
         <v>41</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D28">
         <v>26</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H28">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I28">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J28">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K28">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L28">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M28">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N28">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O28">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P28">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q28">
         <f t="shared" si="13"/>
-        <v>34.505731738355649</v>
+        <v>-84.630314372543481</v>
       </c>
       <c r="R28">
         <f t="shared" si="6"/>
-        <v>239.10610423388636</v>
+        <v>2063.6664949004489</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -7456,59 +7458,59 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H29">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I29">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J29">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K29">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L29">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M29">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N29">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O29">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P29">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q29">
         <f t="shared" si="13"/>
-        <v>32.780445151437867</v>
+        <v>-80.398798653916316</v>
       </c>
       <c r="R29">
         <f t="shared" si="6"/>
-        <v>227.15079902219207</v>
+        <v>1960.4831701554267</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -7523,59 +7525,59 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H30">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I30">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J30">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K30">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L30">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M30">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N30">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O30">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P30">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q30">
         <f t="shared" si="13"/>
-        <v>31.141422893865975</v>
+        <v>-76.37885872122051</v>
       </c>
       <c r="R30">
         <f t="shared" si="6"/>
-        <v>215.79325907108247</v>
+        <v>1862.4590116476554</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -7584,59 +7586,59 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H31">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I31">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J31">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K31">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L31">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M31">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N31">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O31">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P31">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q31">
         <f t="shared" si="13"/>
-        <v>29.584351749172672</v>
+        <v>-72.559915785159475</v>
       </c>
       <c r="R31">
         <f t="shared" si="6"/>
-        <v>205.0035961175283</v>
+        <v>1769.3360610652724</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -7645,66 +7647,66 @@
       </c>
       <c r="B32">
         <f>((1/B30-(B20*B13))/(B22*B17))</f>
-        <v>0.461988304093567</v>
+        <v>0.16959064327485371</v>
       </c>
       <c r="D32">
         <v>30</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I32">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J32">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K32">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L32">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M32">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N32">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O32">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P32">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q32">
         <f t="shared" si="13"/>
-        <v>28.105134161714041</v>
+        <v>-68.931919995901495</v>
       </c>
       <c r="R32">
         <f t="shared" si="6"/>
-        <v>194.7534163116519</v>
+        <v>1680.8692580120089</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -7713,66 +7715,66 @@
       </c>
       <c r="B33">
         <f>(1/B30-B21*B14)/(B23*B18)</f>
-        <v>0.47518796992481188</v>
+        <v>9.5263157894736867</v>
       </c>
       <c r="D33">
         <v>31</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J33">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K33">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L33">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M33">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N33">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O33">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P33">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q33">
         <f t="shared" si="13"/>
-        <v>26.699877453628336</v>
+        <v>-65.485323996106416</v>
       </c>
       <c r="R33">
         <f t="shared" si="6"/>
-        <v>185.01574549606929</v>
+        <v>1596.8257951114083</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -7781,66 +7783,66 @@
       </c>
       <c r="B34" s="1">
         <f>(B3*(B4-B32))/(2*B4)</f>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="D34">
         <v>32</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H34">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I34">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J34">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K34">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L34">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M34">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N34">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O34">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P34">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q34">
         <f t="shared" si="13"/>
-        <v>25.364883580946923</v>
+        <v>-62.211057796301105</v>
       </c>
       <c r="R34">
         <f t="shared" si="6"/>
-        <v>175.76495822126586</v>
+        <v>1516.9845053558381</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -7849,66 +7851,66 @@
       </c>
       <c r="B35" s="1">
         <f>(B8*(B9-B33))/(2*B9)</f>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="D35">
         <v>33</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H35">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I35">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J35">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K35">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L35">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M35">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N35">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O35">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P35">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q35">
         <f t="shared" si="13"/>
-        <v>24.096639401899576</v>
+        <v>-59.100504906486051</v>
       </c>
       <c r="R35">
         <f t="shared" ref="R35:R66" si="14">($B$27-$B$28) * (F35 - $B$35) * $B$30^(D35-1)</f>
-        <v>166.97671031020258</v>
+        <v>1441.1352800880461</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -7917,59 +7919,59 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H36">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I36">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J36">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K36">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L36">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M36">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N36">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O36">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P36">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q36">
         <f t="shared" si="13"/>
-        <v>22.891807431804597</v>
+        <v>-56.145479661161744</v>
       </c>
       <c r="R36">
         <f t="shared" si="14"/>
-        <v>158.62787479469242</v>
+        <v>1369.0785160836438</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -7978,59 +7980,59 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H37">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I37">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J37">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K37">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L37">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M37">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N37">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O37">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P37">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q37">
         <f t="shared" si="13"/>
-        <v>21.747217060214368</v>
+        <v>-53.338205678103662</v>
       </c>
       <c r="R37">
         <f t="shared" si="14"/>
-        <v>150.69648105495781</v>
+        <v>1300.6245902794617</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -8039,59 +8041,59 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H38">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I38">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J38">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K38">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L38">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M38">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N38">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O38">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P38">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q38">
         <f t="shared" si="13"/>
-        <v>20.659856207203646</v>
+        <v>-50.671295394198467</v>
       </c>
       <c r="R38">
         <f t="shared" si="14"/>
-        <v>143.16165700220989</v>
+        <v>1235.5933607654883</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -8100,59 +8102,59 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H39">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I39">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J39">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K39">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L39">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M39">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N39">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O39">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P39">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q39">
         <f t="shared" si="13"/>
-        <v>19.626863396843465</v>
+        <v>-48.137730624488555</v>
       </c>
       <c r="R39">
         <f t="shared" si="14"/>
-        <v>136.00357415209942</v>
+        <v>1173.8136927272142</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
@@ -8161,59 +8163,59 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H40">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I40">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J40">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K40">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L40">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M40">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N40">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O40">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P40">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q40">
         <f t="shared" si="13"/>
-        <v>18.645520227001295</v>
+        <v>-45.730844093264125</v>
       </c>
       <c r="R40">
         <f t="shared" si="14"/>
-        <v>129.20339544449445</v>
+        <v>1115.1230080908535</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -8222,59 +8224,59 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H41">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I41">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J41">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K41">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L41">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M41">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N41">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O41">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P41">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q41">
         <f t="shared" si="13"/>
-        <v>17.713244215651226</v>
+        <v>-43.444301888600911</v>
       </c>
       <c r="R41">
         <f t="shared" si="14"/>
-        <v>122.74322567226972</v>
+        <v>1059.3668576863106</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -8283,59 +8285,59 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H42">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I42">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J42">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K42">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L42">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M42">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N42">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O42">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P42">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q42">
         <f t="shared" si="13"/>
-        <v>16.827582004868667</v>
+        <v>-41.272086794170875</v>
       </c>
       <c r="R42">
         <f t="shared" si="14"/>
-        <v>116.60606438865625</v>
+        <v>1006.3985148019952</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
@@ -8344,59 +8346,59 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H43">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I43">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J43">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K43">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L43">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M43">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N43">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O43">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P43">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q43">
         <f t="shared" si="13"/>
-        <v>15.986202904625236</v>
+        <v>-39.208482454462334</v>
       </c>
       <c r="R43">
         <f t="shared" si="14"/>
-        <v>110.77576116922344</v>
+        <v>956.07858906189551</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -8405,59 +8407,59 @@
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H44">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I44">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J44">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K44">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L44">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M44">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N44">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O44">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P44">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q44">
         <f t="shared" si="13"/>
-        <v>15.18689275939397</v>
+        <v>-37.248058331739209</v>
       </c>
       <c r="R44">
         <f t="shared" si="14"/>
-        <v>105.23697311076225</v>
+        <v>908.27465960880056</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
@@ -8466,59 +8468,59 @@
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H45">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I45">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J45">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K45">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L45">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M45">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N45">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O45">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P45">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q45">
         <f t="shared" si="13"/>
-        <v>14.427548121424275</v>
+        <v>-35.385655415152257</v>
       </c>
       <c r="R45">
         <f t="shared" si="14"/>
-        <v>99.975124455224162</v>
+        <v>862.86092662836074</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
@@ -8527,59 +8529,59 @@
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H46">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I46">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J46">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K46">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L46">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M46">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N46">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O46">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P46">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q46">
         <f t="shared" si="13"/>
-        <v>13.706170715353059</v>
+        <v>-33.616372644394637</v>
       </c>
       <c r="R46">
         <f t="shared" si="14"/>
-        <v>94.976368232462931</v>
+        <v>819.71788029694255</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -8588,59 +8590,59 @@
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H47">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I47">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J47">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K47">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L47">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M47">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N47">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O47">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P47">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q47">
         <f t="shared" si="13"/>
-        <v>13.020862179585405</v>
+        <v>-31.935554012174901</v>
       </c>
       <c r="R47">
         <f t="shared" si="14"/>
-        <v>90.227549820839783</v>
+        <v>778.73198628209536</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
@@ -8649,59 +8651,59 @@
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H48">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I48">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J48">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K48">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L48">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M48">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N48">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O48">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P48">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q48">
         <f t="shared" si="13"/>
-        <v>12.369819070606136</v>
+        <v>-30.338776311566161</v>
       </c>
       <c r="R48">
         <f t="shared" si="14"/>
-        <v>85.7161723297978</v>
+        <v>739.79538696799068</v>
       </c>
     </row>
     <row r="49" spans="4:18" x14ac:dyDescent="0.2">
@@ -8710,59 +8712,59 @@
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H49">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I49">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J49">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K49">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L49">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M49">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N49">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O49">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P49">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q49">
         <f t="shared" si="13"/>
-        <v>11.751328117075827</v>
+        <v>-28.82183749598785</v>
       </c>
       <c r="R49">
         <f t="shared" si="14"/>
-        <v>81.430363713307898</v>
+        <v>702.80561761959109</v>
       </c>
     </row>
     <row r="50" spans="4:18" x14ac:dyDescent="0.2">
@@ -8771,59 +8773,59 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H50">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I50">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J50">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K50">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L50">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M50">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N50">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O50">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P50">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q50">
         <f t="shared" si="13"/>
-        <v>11.163761711222039</v>
+        <v>-27.38074562118846</v>
       </c>
       <c r="R50">
         <f t="shared" si="14"/>
-        <v>77.358845527642515</v>
+        <v>667.66533673861159</v>
       </c>
     </row>
     <row r="51" spans="4:18" x14ac:dyDescent="0.2">
@@ -8832,59 +8834,59 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H51">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I51">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J51">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K51">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L51">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M51">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N51">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O51">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P51">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q51">
         <f t="shared" si="13"/>
-        <v>10.605573625660934</v>
+        <v>-26.011708340129037</v>
       </c>
       <c r="R51">
         <f t="shared" si="14"/>
-        <v>73.490903251260377</v>
+        <v>634.28206990168098</v>
       </c>
     </row>
     <row r="52" spans="4:18" x14ac:dyDescent="0.2">
@@ -8893,59 +8895,59 @@
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H52">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I52">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J52">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K52">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L52">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M52">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N52">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O52">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P52">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q52">
         <f t="shared" si="13"/>
-        <v>10.075294944377889</v>
+        <v>-24.711122923122584</v>
       </c>
       <c r="R52">
         <f t="shared" si="14"/>
-        <v>69.81635808869737</v>
+        <v>602.56796640659695</v>
       </c>
     </row>
     <row r="53" spans="4:18" x14ac:dyDescent="0.2">
@@ -8954,59 +8956,59 @@
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H53">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I53">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J53">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K53">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L53">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M53">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N53">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O53">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P53">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q53">
         <f t="shared" si="13"/>
-        <v>9.5715301971589941</v>
+        <v>-23.475566776966456</v>
       </c>
       <c r="R53">
         <f t="shared" si="14"/>
-        <v>66.325540184262493</v>
+        <v>572.43956808626706</v>
       </c>
     </row>
     <row r="54" spans="4:18" x14ac:dyDescent="0.2">
@@ -9015,59 +9017,59 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H54">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I54">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J54">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K54">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L54">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M54">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N54">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O54">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P54">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q54">
         <f t="shared" si="13"/>
-        <v>9.0929536873010441</v>
+        <v>-22.30178843811813</v>
       </c>
       <c r="R54">
         <f t="shared" si="14"/>
-        <v>63.009263175049369</v>
+        <v>543.81758968195368</v>
       </c>
     </row>
     <row r="55" spans="4:18" x14ac:dyDescent="0.2">
@@ -9076,59 +9078,59 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G55">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H55">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I55">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J55">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K55">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L55">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M55">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N55">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O55">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P55">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q55">
         <f t="shared" si="13"/>
-        <v>8.638306002935991</v>
+        <v>-21.186699016212224</v>
       </c>
       <c r="R55">
         <f t="shared" si="14"/>
-        <v>59.858800016296897</v>
+        <v>516.62671019785603</v>
       </c>
     </row>
     <row r="56" spans="4:18" x14ac:dyDescent="0.2">
@@ -9137,59 +9139,59 @@
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G56">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H56">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I56">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J56">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K56">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L56">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M56">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N56">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O56">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P56">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q56">
         <f t="shared" si="13"/>
-        <v>8.2063907027891929</v>
+        <v>-20.127364065401615</v>
       </c>
       <c r="R56">
         <f t="shared" si="14"/>
-        <v>56.865860015482063</v>
+        <v>490.79537468796326</v>
       </c>
     </row>
     <row r="57" spans="4:18" x14ac:dyDescent="0.2">
@@ -9198,59 +9200,59 @@
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G57">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H57">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I57">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J57">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K57">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L57">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M57">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N57">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O57">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P57">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q57">
         <f t="shared" si="13"/>
-        <v>7.7960711676497318</v>
+        <v>-19.120995862131529</v>
       </c>
       <c r="R57">
         <f t="shared" si="14"/>
-        <v>54.022567014707946</v>
+        <v>466.25560595356501</v>
       </c>
     </row>
     <row r="58" spans="4:18" x14ac:dyDescent="0.2">
@@ -9259,59 +9261,59 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G58">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H58">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I58">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J58">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K58">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L58">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M58">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N58">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O58">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P58">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q58">
         <f t="shared" si="13"/>
-        <v>7.406267609267247</v>
+        <v>-18.164946069024957</v>
       </c>
       <c r="R58">
         <f t="shared" si="14"/>
-        <v>51.321438663972557</v>
+        <v>442.94282565588685</v>
       </c>
     </row>
     <row r="59" spans="4:18" x14ac:dyDescent="0.2">
@@ -9320,59 +9322,59 @@
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G59">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H59">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I59">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J59">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K59">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L59">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M59">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N59">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O59">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P59">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q59">
         <f t="shared" si="13"/>
-        <v>7.0359542288038845</v>
+        <v>-17.256698765573709</v>
       </c>
       <c r="R59">
         <f t="shared" si="14"/>
-        <v>48.755366730773929</v>
+        <v>420.79568437309246</v>
       </c>
     </row>
     <row r="60" spans="4:18" x14ac:dyDescent="0.2">
@@ -9381,59 +9383,59 @@
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G60">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H60">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I60">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J60">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K60">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L60">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M60">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N60">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O60">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P60">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q60">
         <f t="shared" si="13"/>
-        <v>6.6841565173636885</v>
+        <v>-16.393863827295021</v>
       </c>
       <c r="R60">
         <f t="shared" si="14"/>
-        <v>46.317598394235226</v>
+        <v>399.75590015443777</v>
       </c>
     </row>
     <row r="61" spans="4:18" x14ac:dyDescent="0.2">
@@ -9442,59 +9444,59 @@
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G61">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H61">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I61">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J61">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K61">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L61">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M61">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N61">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O61">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P61">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q61">
         <f t="shared" si="13"/>
-        <v>6.3499486914955057</v>
+        <v>-15.574170635930273</v>
       </c>
       <c r="R61">
         <f t="shared" si="14"/>
-        <v>44.001718474523472</v>
+        <v>379.76810514671598</v>
       </c>
     </row>
     <row r="62" spans="4:18" x14ac:dyDescent="0.2">
@@ -9503,59 +9505,59 @@
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G62">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H62">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I62">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J62">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K62">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L62">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M62">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N62">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O62">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P62">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q62">
         <f t="shared" si="13"/>
-        <v>6.03245125692073</v>
+        <v>-14.79546210413376</v>
       </c>
       <c r="R62">
         <f t="shared" si="14"/>
-        <v>41.801632550797301</v>
+        <v>360.77969988938014</v>
       </c>
     </row>
     <row r="63" spans="4:18" x14ac:dyDescent="0.2">
@@ -9564,59 +9566,59 @@
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G63">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H63">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I63">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J63">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K63">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L63">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M63">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N63">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O63">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P63">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q63">
         <f t="shared" si="13"/>
-        <v>5.7308286940746926</v>
+        <v>-14.055688998927067</v>
       </c>
       <c r="R63">
         <f t="shared" si="14"/>
-        <v>39.711550923257427</v>
+        <v>342.74071489491109</v>
       </c>
     </row>
     <row r="64" spans="4:18" x14ac:dyDescent="0.2">
@@ -9625,59 +9627,59 @@
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G64">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H64">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I64">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J64">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K64">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L64">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M64">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N64">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O64">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P64">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q64">
         <f t="shared" si="13"/>
-        <v>5.4442872593709577</v>
+        <v>-13.352904548980716</v>
       </c>
       <c r="R64">
         <f t="shared" si="14"/>
-        <v>37.725973377094554</v>
+        <v>325.60367915016553</v>
       </c>
     </row>
     <row r="65" spans="4:18" x14ac:dyDescent="0.2">
@@ -9686,59 +9688,59 @@
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G65">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H65">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I65">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J65">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K65">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L65">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M65">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N65">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O65">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P65">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q65">
         <f t="shared" si="13"/>
-        <v>5.1720728964024101</v>
+        <v>-12.68525932153168</v>
       </c>
       <c r="R65">
         <f t="shared" si="14"/>
-        <v>35.839674708239826</v>
+        <v>309.32349519265728</v>
       </c>
     </row>
     <row r="66" spans="4:18" x14ac:dyDescent="0.2">
@@ -9747,59 +9749,59 @@
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G66">
         <f t="shared" si="2"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H66">
         <f t="shared" si="3"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I66">
         <f t="shared" si="4"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J66">
         <f t="shared" si="5"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K66">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L66">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M66">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N66">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O66">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P66">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q66">
         <f t="shared" si="13"/>
-        <v>4.9134692515822902</v>
+        <v>-12.050996355455098</v>
       </c>
       <c r="R66">
         <f t="shared" si="14"/>
-        <v>34.047690972827837</v>
+        <v>293.85732043302443</v>
       </c>
     </row>
     <row r="67" spans="4:18" x14ac:dyDescent="0.2">
@@ -9808,59 +9810,59 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E102" si="15">$B$1</f>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F102" si="16">$B$6</f>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G102" si="17">$B$34</f>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H102" si="18">$B$35</f>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I102" si="19">E67-G67</f>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J67">
         <f t="shared" ref="J67:J102" si="20">F67-H67</f>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K67">
         <f t="shared" si="7"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L67">
         <f t="shared" si="8"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M67">
         <f t="shared" si="9"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N67">
         <f t="shared" si="10"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O67">
         <f t="shared" si="11"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P67">
         <f t="shared" si="12"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q67">
         <f t="shared" ref="Q67:Q102" si="21">($B$25-$B$26) * (E67 - $B$34) * $B$30^(D67-1)</f>
-        <v>4.6677957890031756</v>
+        <v>-11.44844653768234</v>
       </c>
       <c r="R67">
         <f t="shared" ref="R67:R102" si="22">($B$27-$B$28) * (F67 - $B$35) * $B$30^(D67-1)</f>
-        <v>32.345306424186447</v>
+        <v>279.16445441137319</v>
       </c>
     </row>
     <row r="68" spans="4:18" x14ac:dyDescent="0.2">
@@ -9869,59 +9871,59 @@
       </c>
       <c r="E68">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F68">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G68">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H68">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I68">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J68">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K68">
         <f t="shared" ref="K68:K102" si="23">$B$4*G68*(1-G68/$B$3)</f>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L68">
         <f t="shared" ref="L68:L102" si="24">$B$9*H68*(1-H68/$B$8)</f>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M68">
         <f t="shared" ref="M68:M102" si="25">$B$22*((K68*$B$17)+(L68*$B$16))</f>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N68">
         <f t="shared" ref="N68:N102" si="26">$B$23*((L68*$B$18)+(K68*$B$15))</f>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O68">
         <f t="shared" ref="O68:O102" si="27">($B$20*(G68*$B$13))+($B$21*(H68*$B$12))</f>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P68">
         <f t="shared" ref="P68:P102" si="28">($B$21*(H68*$B$14))+($B$20*(G68*$B$11))</f>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q68">
         <f t="shared" si="21"/>
-        <v>4.4344059995530163</v>
+        <v>-10.876024210798224</v>
       </c>
       <c r="R68">
         <f t="shared" si="22"/>
-        <v>30.728041102977123</v>
+        <v>265.20623169080454</v>
       </c>
     </row>
     <row r="69" spans="4:18" x14ac:dyDescent="0.2">
@@ -9930,59 +9932,59 @@
       </c>
       <c r="E69">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F69">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G69">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H69">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I69">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J69">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K69">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L69">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M69">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N69">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O69">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P69">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q69">
         <f t="shared" si="21"/>
-        <v>4.2126856995753661</v>
+        <v>-10.332223000258313</v>
       </c>
       <c r="R69">
         <f t="shared" si="22"/>
-        <v>29.191639047828268</v>
+        <v>251.94592010626431</v>
       </c>
     </row>
     <row r="70" spans="4:18" x14ac:dyDescent="0.2">
@@ -9991,59 +9993,59 @@
       </c>
       <c r="E70">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F70">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G70">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H70">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I70">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J70">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K70">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L70">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M70">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N70">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O70">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P70">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q70">
         <f t="shared" si="21"/>
-        <v>4.0020514145965969</v>
+        <v>-9.8156118502453964</v>
       </c>
       <c r="R70">
         <f t="shared" si="22"/>
-        <v>27.732057095436851</v>
+        <v>239.34862410095104</v>
       </c>
     </row>
     <row r="71" spans="4:18" x14ac:dyDescent="0.2">
@@ -10052,59 +10054,59 @@
       </c>
       <c r="E71">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F71">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G71">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H71">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I71">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J71">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K71">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L71">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M71">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N71">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O71">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P71">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q71">
         <f t="shared" si="21"/>
-        <v>3.8019488438667675</v>
+        <v>-9.3248312577331269</v>
       </c>
       <c r="R71">
         <f t="shared" si="22"/>
-        <v>26.34545424066501</v>
+        <v>227.38119289590352</v>
       </c>
     </row>
     <row r="72" spans="4:18" x14ac:dyDescent="0.2">
@@ -10113,59 +10115,59 @@
       </c>
       <c r="E72">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F72">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G72">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H72">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I72">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J72">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K72">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L72">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M72">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N72">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O72">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P72">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q72">
         <f t="shared" si="21"/>
-        <v>3.6118514016734293</v>
+        <v>-8.8585896948464704</v>
       </c>
       <c r="R72">
         <f t="shared" si="22"/>
-        <v>25.028181528631762</v>
+        <v>216.01213325110837</v>
       </c>
     </row>
     <row r="73" spans="4:18" x14ac:dyDescent="0.2">
@@ -10174,59 +10176,59 @@
       </c>
       <c r="E73">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F73">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G73">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H73">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I73">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J73">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K73">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L73">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M73">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N73">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O73">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P73">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q73">
         <f t="shared" si="21"/>
-        <v>3.4312588315897572</v>
+        <v>-8.4156602101041464</v>
       </c>
       <c r="R73">
         <f t="shared" si="22"/>
-        <v>23.776772452200166</v>
+        <v>205.21152658855291</v>
       </c>
     </row>
     <row r="74" spans="4:18" x14ac:dyDescent="0.2">
@@ -10235,59 +10237,59 @@
       </c>
       <c r="E74">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F74">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G74">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H74">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I74">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J74">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K74">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L74">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M74">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N74">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O74">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P74">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q74">
         <f t="shared" si="21"/>
-        <v>3.2596958900102693</v>
+        <v>-7.9948771995989389</v>
       </c>
       <c r="R74">
         <f t="shared" si="22"/>
-        <v>22.58793382959016</v>
+        <v>194.95095025912525</v>
       </c>
     </row>
     <row r="75" spans="4:18" x14ac:dyDescent="0.2">
@@ -10296,59 +10298,59 @@
       </c>
       <c r="E75">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F75">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G75">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H75">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I75">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J75">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K75">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L75">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M75">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N75">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O75">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P75">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q75">
         <f t="shared" si="21"/>
-        <v>3.0967110955097561</v>
+        <v>-7.5951333396189931</v>
       </c>
       <c r="R75">
         <f t="shared" si="22"/>
-        <v>21.458537138110657</v>
+        <v>185.20340274616902</v>
       </c>
     </row>
     <row r="76" spans="4:18" x14ac:dyDescent="0.2">
@@ -10357,59 +10359,59 @@
       </c>
       <c r="E76">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F76">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G76">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H76">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I76">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J76">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K76">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L76">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M76">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N76">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O76">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P76">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q76">
         <f t="shared" si="21"/>
-        <v>2.941875540734268</v>
+        <v>-7.2153766726380431</v>
       </c>
       <c r="R76">
         <f t="shared" si="22"/>
-        <v>20.385610281205121</v>
+        <v>175.94323260886057</v>
       </c>
     </row>
     <row r="77" spans="4:18" x14ac:dyDescent="0.2">
@@ -10418,59 +10420,59 @@
       </c>
       <c r="E77">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F77">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G77">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H77">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I77">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J77">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K77">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L77">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M77">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N77">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O77">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P77">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q77">
         <f t="shared" si="21"/>
-        <v>2.7947817636975549</v>
+        <v>-6.8546078390061407</v>
       </c>
       <c r="R77">
         <f t="shared" si="22"/>
-        <v>19.366329767144865</v>
+        <v>167.14607097841755</v>
       </c>
     </row>
     <row r="78" spans="4:18" x14ac:dyDescent="0.2">
@@ -10479,59 +10481,59 @@
       </c>
       <c r="E78">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F78">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G78">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H78">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I78">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J78">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K78">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L78">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M78">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N78">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O78">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P78">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q78">
         <f t="shared" si="21"/>
-        <v>2.6550426755126768</v>
+        <v>-6.5118774470558334</v>
       </c>
       <c r="R78">
         <f t="shared" si="22"/>
-        <v>18.398013278787619</v>
+        <v>158.78876742949663</v>
       </c>
     </row>
     <row r="79" spans="4:18" x14ac:dyDescent="0.2">
@@ -10540,59 +10542,59 @@
       </c>
       <c r="E79">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F79">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G79">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H79">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I79">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J79">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K79">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L79">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M79">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N79">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O79">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P79">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q79">
         <f t="shared" si="21"/>
-        <v>2.5222905417370427</v>
+        <v>-6.1862835747030411</v>
       </c>
       <c r="R79">
         <f t="shared" si="22"/>
-        <v>17.478112614848239</v>
+        <v>150.84932905802179</v>
       </c>
     </row>
     <row r="80" spans="4:18" x14ac:dyDescent="0.2">
@@ -10601,59 +10603,59 @@
       </c>
       <c r="E80">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F80">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G80">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H80">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I80">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J80">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K80">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L80">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M80">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N80">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O80">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P80">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q80">
         <f t="shared" si="21"/>
-        <v>2.3961760146501909</v>
+        <v>-5.8769693959678895</v>
       </c>
       <c r="R80">
         <f t="shared" si="22"/>
-        <v>16.604206984105829</v>
+        <v>143.30686260512073</v>
       </c>
     </row>
     <row r="81" spans="4:18" x14ac:dyDescent="0.2">
@@ -10662,59 +10664,59 @@
       </c>
       <c r="E81">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F81">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G81">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H81">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I81">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J81">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K81">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L81">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M81">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N81">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O81">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P81">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q81">
         <f t="shared" si="21"/>
-        <v>2.2763672139176814</v>
+        <v>-5.583120926169495</v>
       </c>
       <c r="R81">
         <f t="shared" si="22"/>
-        <v>15.773996634900536</v>
+        <v>136.14151947486468</v>
       </c>
     </row>
     <row r="82" spans="4:18" x14ac:dyDescent="0.2">
@@ -10723,59 +10725,59 @@
       </c>
       <c r="E82">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F82">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G82">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H82">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I82">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J82">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K82">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L82">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M82">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N82">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O82">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P82">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q82">
         <f t="shared" si="21"/>
-        <v>2.1625488532217974</v>
+        <v>-5.3039648798610202</v>
       </c>
       <c r="R82">
         <f t="shared" si="22"/>
-        <v>14.985296803155508</v>
+        <v>129.33444350112146</v>
       </c>
     </row>
     <row r="83" spans="4:18" x14ac:dyDescent="0.2">
@@ -10784,59 +10786,59 @@
       </c>
       <c r="E83">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F83">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G83">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H83">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I83">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J83">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K83">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L83">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M83">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N83">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O83">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P83">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q83">
         <f t="shared" si="21"/>
-        <v>2.0544214105607073</v>
+        <v>-5.0387666358679688</v>
       </c>
       <c r="R83">
         <f t="shared" si="22"/>
-        <v>14.236031962997734</v>
+        <v>122.86772132606536</v>
       </c>
     </row>
     <row r="84" spans="4:18" x14ac:dyDescent="0.2">
@@ -10845,59 +10847,59 @@
       </c>
       <c r="E84">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F84">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G84">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H84">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I84">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J84">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K84">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L84">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M84">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N84">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O84">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P84">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q84">
         <f t="shared" si="21"/>
-        <v>1.951700340032672</v>
+        <v>-4.7868283040745707</v>
       </c>
       <c r="R84">
         <f t="shared" si="22"/>
-        <v>13.524230364847847</v>
+        <v>116.7243352597621</v>
       </c>
     </row>
     <row r="85" spans="4:18" x14ac:dyDescent="0.2">
@@ -10906,59 +10908,59 @@
       </c>
       <c r="E85">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F85">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G85">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H85">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I85">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J85">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K85">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L85">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M85">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N85">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O85">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P85">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q85">
         <f t="shared" si="21"/>
-        <v>1.8541153230310385</v>
+        <v>-4.547486888870842</v>
       </c>
       <c r="R85">
         <f t="shared" si="22"/>
-        <v>12.848018846605454</v>
+        <v>110.888118496774</v>
       </c>
     </row>
     <row r="86" spans="4:18" x14ac:dyDescent="0.2">
@@ -10967,59 +10969,59 @@
       </c>
       <c r="E86">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F86">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G86">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H86">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I86">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J86">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K86">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L86">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M86">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N86">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O86">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P86">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q86">
         <f t="shared" si="21"/>
-        <v>1.7614095568794865</v>
+        <v>-4.3201125444272996</v>
       </c>
       <c r="R86">
         <f t="shared" si="22"/>
-        <v>12.205617904275181</v>
+        <v>105.3437125719353</v>
       </c>
     </row>
     <row r="87" spans="4:18" x14ac:dyDescent="0.2">
@@ -11028,59 +11030,59 @@
       </c>
       <c r="E87">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F87">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G87">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H87">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I87">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J87">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K87">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L87">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M87">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N87">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O87">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P87">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q87">
         <f t="shared" si="21"/>
-        <v>1.6733390790355123</v>
+        <v>-4.104106917205935</v>
       </c>
       <c r="R87">
         <f t="shared" si="22"/>
-        <v>11.595337009061423</v>
+        <v>100.07652694333854</v>
       </c>
     </row>
     <row r="88" spans="4:18" x14ac:dyDescent="0.2">
@@ -11089,59 +11091,59 @@
       </c>
       <c r="E88">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F88">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G88">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H88">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I88">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J88">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K88">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L88">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M88">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N88">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O88">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P88">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q88">
         <f t="shared" si="21"/>
-        <v>1.5896721250837367</v>
+        <v>-3.8989015713456383</v>
       </c>
       <c r="R88">
         <f t="shared" si="22"/>
-        <v>11.015570158608352</v>
+        <v>95.072700596171615</v>
       </c>
     </row>
     <row r="89" spans="4:18" x14ac:dyDescent="0.2">
@@ -11150,59 +11152,59 @@
       </c>
       <c r="E89">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F89">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G89">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H89">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I89">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J89">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K89">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L89">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M89">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N89">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O89">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P89">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q89">
         <f t="shared" si="21"/>
-        <v>1.5101885188295496</v>
+        <v>-3.7039564927783561</v>
       </c>
       <c r="R89">
         <f t="shared" si="22"/>
-        <v>10.464791650677933</v>
+        <v>90.319065566363022</v>
       </c>
     </row>
     <row r="90" spans="4:18" x14ac:dyDescent="0.2">
@@ -11211,59 +11213,59 @@
       </c>
       <c r="E90">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F90">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G90">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H90">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I90">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J90">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K90">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L90">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M90">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N90">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O90">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P90">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q90">
         <f t="shared" si="21"/>
-        <v>1.4346790928880722</v>
+        <v>-3.5187586681394385</v>
       </c>
       <c r="R90">
         <f t="shared" si="22"/>
-        <v>9.9415520681440377</v>
+        <v>85.803112288044872</v>
       </c>
     </row>
     <row r="91" spans="4:18" x14ac:dyDescent="0.2">
@@ -11272,59 +11274,59 @@
       </c>
       <c r="E91">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F91">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G91">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H91">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I91">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J91">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K91">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L91">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M91">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N91">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O91">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P91">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q91">
         <f t="shared" si="21"/>
-        <v>1.3629451382436688</v>
+        <v>-3.3428207347324665</v>
       </c>
       <c r="R91">
         <f t="shared" si="22"/>
-        <v>9.4444744647368353</v>
+        <v>81.512956673642634</v>
       </c>
     </row>
     <row r="92" spans="4:18" x14ac:dyDescent="0.2">
@@ -11333,59 +11335,59 @@
       </c>
       <c r="E92">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F92">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G92">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H92">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I92">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J92">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K92">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L92">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M92">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N92">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O92">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P92">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q92">
         <f t="shared" si="21"/>
-        <v>1.2947978813314851</v>
+        <v>-3.175679697995843</v>
       </c>
       <c r="R92">
         <f t="shared" si="22"/>
-        <v>8.9722507414999928</v>
+        <v>77.437308839960494</v>
       </c>
     </row>
     <row r="93" spans="4:18" x14ac:dyDescent="0.2">
@@ -11394,59 +11396,59 @@
       </c>
       <c r="E93">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F93">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G93">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H93">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I93">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J93">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K93">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L93">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M93">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N93">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O93">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P93">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q93">
         <f t="shared" si="21"/>
-        <v>1.2300579872649109</v>
+        <v>-3.016895713096051</v>
       </c>
       <c r="R93">
         <f t="shared" si="22"/>
-        <v>8.5236382044249943</v>
+        <v>73.565443397962483</v>
       </c>
     </row>
     <row r="94" spans="4:18" x14ac:dyDescent="0.2">
@@ -11455,59 +11457,59 @@
       </c>
       <c r="E94">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F94">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G94">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H94">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I94">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J94">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K94">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L94">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M94">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N94">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O94">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P94">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q94">
         <f t="shared" si="21"/>
-        <v>1.1685550879016655</v>
+        <v>-2.8660509274412487</v>
       </c>
       <c r="R94">
         <f t="shared" si="22"/>
-        <v>8.0974562942037451</v>
+        <v>69.887171228064361</v>
       </c>
     </row>
     <row r="95" spans="4:18" x14ac:dyDescent="0.2">
@@ -11516,59 +11518,59 @@
       </c>
       <c r="E95">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F95">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G95">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H95">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I95">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J95">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K95">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L95">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M95">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N95">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O95">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P95">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q95">
         <f t="shared" si="21"/>
-        <v>1.110127333506582</v>
+        <v>-2.7227483810691862</v>
       </c>
       <c r="R95">
         <f t="shared" si="22"/>
-        <v>7.6925834794935568</v>
+        <v>66.392812666661129</v>
       </c>
     </row>
     <row r="96" spans="4:18" x14ac:dyDescent="0.2">
@@ -11577,59 +11579,59 @@
       </c>
       <c r="E96">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F96">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G96">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H96">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I96">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J96">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K96">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L96">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M96">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N96">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O96">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P96">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q96">
         <f t="shared" si="21"/>
-        <v>1.0546209668312527</v>
+        <v>-2.5866109620157265</v>
       </c>
       <c r="R96">
         <f t="shared" si="22"/>
-        <v>7.3079543055188783</v>
+        <v>63.073172033328071</v>
       </c>
     </row>
     <row r="97" spans="4:18" x14ac:dyDescent="0.2">
@@ -11638,59 +11640,59 @@
       </c>
       <c r="E97">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F97">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G97">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H97">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I97">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J97">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K97">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L97">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M97">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N97">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O97">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P97">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q97">
         <f t="shared" si="21"/>
-        <v>1.0018899184896901</v>
+        <v>-2.45728041391494</v>
       </c>
       <c r="R97">
         <f t="shared" si="22"/>
-        <v>6.9425565902429334</v>
+        <v>59.919513431661656</v>
       </c>
     </row>
     <row r="98" spans="4:18" x14ac:dyDescent="0.2">
@@ -11699,59 +11701,59 @@
       </c>
       <c r="E98">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F98">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G98">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H98">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I98">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J98">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K98">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L98">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M98">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N98">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O98">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P98">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q98">
         <f t="shared" si="21"/>
-        <v>0.95179542256520577</v>
+        <v>-2.3344163932191933</v>
       </c>
       <c r="R98">
         <f t="shared" si="22"/>
-        <v>6.5954287607307878</v>
+        <v>56.923537760078588</v>
       </c>
     </row>
     <row r="99" spans="4:18" x14ac:dyDescent="0.2">
@@ -11760,59 +11762,59 @@
       </c>
       <c r="E99">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F99">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G99">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H99">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I99">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J99">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K99">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L99">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M99">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N99">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O99">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P99">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q99">
         <f t="shared" si="21"/>
-        <v>0.90420565143694553</v>
+        <v>-2.2176955735582338</v>
       </c>
       <c r="R99">
         <f t="shared" si="22"/>
-        <v>6.2656573226942491</v>
+        <v>54.077360872074664</v>
       </c>
     </row>
     <row r="100" spans="4:18" x14ac:dyDescent="0.2">
@@ -11821,59 +11823,59 @@
       </c>
       <c r="E100">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F100">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G100">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H100">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I100">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J100">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K100">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L100">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M100">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N100">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O100">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P100">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q100">
         <f t="shared" si="21"/>
-        <v>0.8589953688650982</v>
+        <v>-2.1068107948803219</v>
       </c>
       <c r="R100">
         <f t="shared" si="22"/>
-        <v>5.9523744565595358</v>
+        <v>51.373492828470923</v>
       </c>
     </row>
     <row r="101" spans="4:18" x14ac:dyDescent="0.2">
@@ -11882,59 +11884,59 @@
       </c>
       <c r="E101">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F101">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G101">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H101">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I101">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J101">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K101">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L101">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M101">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N101">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O101">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P101">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q101">
         <f t="shared" si="21"/>
-        <v>0.81604560042184338</v>
+        <v>-2.0014702551363062</v>
       </c>
       <c r="R101">
         <f t="shared" si="22"/>
-        <v>5.6547557337315597</v>
+        <v>48.804818187047381</v>
       </c>
     </row>
     <row r="102" spans="4:18" x14ac:dyDescent="0.2">
@@ -11943,59 +11945,59 @@
       </c>
       <c r="E102">
         <f t="shared" si="15"/>
-        <v>27.345455000000001</v>
+        <v>5.3578950000000001</v>
       </c>
       <c r="F102">
         <f t="shared" si="16"/>
-        <v>66.7</v>
+        <v>0.1</v>
       </c>
       <c r="G102">
         <f t="shared" si="17"/>
-        <v>21.125730994152065</v>
+        <v>35.867446393762187</v>
       </c>
       <c r="H102">
         <f t="shared" si="18"/>
-        <v>23.600668337510452</v>
+        <v>-743.85964912280724</v>
       </c>
       <c r="I102">
         <f t="shared" si="19"/>
-        <v>6.2197240058479366</v>
+        <v>-30.509551393762187</v>
       </c>
       <c r="J102">
         <f t="shared" si="20"/>
-        <v>43.099331662489547</v>
+        <v>743.95964912280726</v>
       </c>
       <c r="K102">
         <f t="shared" si="23"/>
-        <v>13.330212715023434</v>
+        <v>13.801625571400887</v>
       </c>
       <c r="L102">
         <f t="shared" si="24"/>
-        <v>16.227677589964891</v>
+        <v>-3766.2788550323194</v>
       </c>
       <c r="M102">
         <f t="shared" si="25"/>
-        <v>13.979226104107394</v>
+        <v>-3377.2295065148264</v>
       </c>
       <c r="N102">
         <f t="shared" si="26"/>
-        <v>14.02541685598011</v>
+        <v>-375.24772294609181</v>
       </c>
       <c r="O102">
         <f t="shared" si="27"/>
-        <v>17.098579782790324</v>
+        <v>-637.19298245614061</v>
       </c>
       <c r="P102">
         <f t="shared" si="28"/>
-        <v>20.795112781954899</v>
+        <v>-70.799220272904492</v>
       </c>
       <c r="Q102">
         <f t="shared" si="21"/>
-        <v>0.77524332040075106</v>
+        <v>-1.9013967423794902</v>
       </c>
       <c r="R102">
         <f t="shared" si="22"/>
-        <v>5.3720179470449807</v>
+        <v>46.364577277695005</v>
       </c>
     </row>
   </sheetData>
